--- a/data/spike.xlsx
+++ b/data/spike.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E16E76-59BA-4EA3-AFF6-A8AE7F2590B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98FE8C1-4544-4CBA-8E2F-26130C088B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="0" windowWidth="21924" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="60">
   <si>
     <t>players</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>08/08/2024</t>
+  </si>
+  <si>
+    <t>29/08/2024</t>
   </si>
 </sst>
 </file>
@@ -606,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E67" si="0">IF(F4&gt;G4,1,0)</f>
+        <f t="shared" ref="E4:E50" si="0">IF(F4&gt;G4,1,0)</f>
         <v>1</v>
       </c>
       <c r="F4" s="5">
@@ -749,7 +752,7 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4:K67" si="1">IF(OR(OR(AND(OR(A4=B4,A4=C4,A4=D4,B4=C4,B4=D4,C4=D4),OR(A4&lt;&gt;"",D4&lt;&gt;"")),H4&gt;MAX(F4:G4),B4=C4),OR(AND(ISBLANK(A4)=FALSE,ISNA(VLOOKUP(A4,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B4,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C4,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D4)=FALSE,ISNA(VLOOKUP(D4,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A4:D4)=1,COUNTBLANK(A4:D4)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K4:K50" si="1">IF(OR(OR(AND(OR(A4=B4,A4=C4,A4=D4,B4=C4,B4=D4,C4=D4),OR(A4&lt;&gt;"",D4&lt;&gt;"")),H4&gt;MAX(F4:G4),B4=C4),OR(AND(ISBLANK(A4)=FALSE,ISNA(VLOOKUP(A4,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B4,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C4,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D4)=FALSE,ISNA(VLOOKUP(D4,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A4:D4)=1,COUNTBLANK(A4:D4)=3))),"ERREUR","")</f>
         <v/>
       </c>
       <c r="L4" s="1"/>
@@ -2288,170 +2291,390 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="A41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>11</v>
+      </c>
+      <c r="G41" s="5">
+        <v>9</v>
+      </c>
+      <c r="H41" s="1">
+        <v>11</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="9"/>
+      <c r="K41" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="A42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>11</v>
+      </c>
+      <c r="G42" s="5">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>11</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="9"/>
+      <c r="K42" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="A43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>11</v>
+      </c>
+      <c r="G43" s="5">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>11</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="9"/>
+      <c r="K43" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="A44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <v>14</v>
+      </c>
+      <c r="G44" s="5">
+        <v>12</v>
+      </c>
+      <c r="H44" s="1">
+        <v>11</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="9"/>
+      <c r="K44" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="A45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>11</v>
+      </c>
+      <c r="G45" s="5">
+        <v>5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>11</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J45" s="1"/>
-      <c r="K45" s="9"/>
+      <c r="K45" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="A46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>11</v>
+      </c>
+      <c r="G46" s="5">
+        <v>7</v>
+      </c>
+      <c r="H46" s="1">
+        <v>11</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J46" s="1"/>
-      <c r="K46" s="9"/>
+      <c r="K46" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="A47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>11</v>
+      </c>
+      <c r="G47" s="5">
+        <v>8</v>
+      </c>
+      <c r="H47" s="1">
+        <v>11</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="9"/>
+      <c r="K47" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="A48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>11</v>
+      </c>
+      <c r="G48" s="5">
+        <v>6</v>
+      </c>
+      <c r="H48" s="1">
+        <v>11</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J48" s="1"/>
-      <c r="K48" s="9"/>
+      <c r="K48" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="A49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>11</v>
+      </c>
+      <c r="G49" s="5">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1">
+        <v>11</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J49" s="1"/>
-      <c r="K49" s="9"/>
+      <c r="K49" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="A50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>21</v>
+      </c>
+      <c r="G50" s="5">
+        <v>16</v>
+      </c>
+      <c r="H50" s="1">
+        <v>21</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J50" s="1"/>
-      <c r="K50" s="9"/>
+      <c r="K50" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>

--- a/data/spike.xlsx
+++ b/data/spike.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98FE8C1-4544-4CBA-8E2F-26130C088B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7817D628-02A5-4E87-B628-AE428D0A7A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="61">
   <si>
     <t>players</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>29/08/2024</t>
+  </si>
+  <si>
+    <t>05/09/2024</t>
   </si>
 </sst>
 </file>
@@ -609,16 +612,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="11" max="11" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -645,7 +648,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -676,7 +679,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -721,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -735,7 +738,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E50" si="0">IF(F4&gt;G4,1,0)</f>
+        <f t="shared" ref="E4:E61" si="0">IF(F4&gt;G4,1,0)</f>
         <v>1</v>
       </c>
       <c r="F4" s="5">
@@ -752,7 +755,7 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4:K50" si="1">IF(OR(OR(AND(OR(A4=B4,A4=C4,A4=D4,B4=C4,B4=D4,C4=D4),OR(A4&lt;&gt;"",D4&lt;&gt;"")),H4&gt;MAX(F4:G4),B4=C4),OR(AND(ISBLANK(A4)=FALSE,ISNA(VLOOKUP(A4,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B4,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C4,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D4)=FALSE,ISNA(VLOOKUP(D4,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A4:D4)=1,COUNTBLANK(A4:D4)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K4:K61" si="1">IF(OR(OR(AND(OR(A4=B4,A4=C4,A4=D4,B4=C4,B4=D4,C4=D4),OR(A4&lt;&gt;"",D4&lt;&gt;"")),H4&gt;MAX(F4:G4),B4=C4),OR(AND(ISBLANK(A4)=FALSE,ISNA(VLOOKUP(A4,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B4,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C4,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D4)=FALSE,ISNA(VLOOKUP(D4,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A4:D4)=1,COUNTBLANK(A4:D4)=3))),"ERREUR","")</f>
         <v/>
       </c>
       <c r="L4" s="1"/>
@@ -766,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -811,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -856,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -901,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -946,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -991,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
@@ -1705,7 +1708,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -1744,7 +1747,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>12</v>
       </c>
@@ -1783,7 +1786,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
@@ -1822,7 +1825,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -1861,7 +1864,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -1900,7 +1903,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
@@ -1939,7 +1942,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -1978,7 +1981,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
@@ -2017,7 +2020,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
@@ -2056,7 +2059,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>17</v>
       </c>
@@ -2095,7 +2098,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>12</v>
       </c>
@@ -2134,7 +2137,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -2173,7 +2176,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -2212,7 +2215,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2251,7 +2254,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -2290,7 +2293,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
@@ -2329,7 +2332,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>12</v>
       </c>
@@ -2368,7 +2371,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>12</v>
       </c>
@@ -2407,7 +2410,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2446,7 +2449,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>
@@ -2485,7 +2488,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
@@ -2524,7 +2527,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2563,7 +2566,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -2602,7 +2605,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>11</v>
       </c>
@@ -2641,7 +2644,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
@@ -2680,194 +2683,436 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>11</v>
+      </c>
+      <c r="G51" s="5">
+        <v>5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>11</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J51" s="1"/>
-      <c r="K51" s="9"/>
+      <c r="K51" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <v>11</v>
+      </c>
+      <c r="G52" s="5">
+        <v>6</v>
+      </c>
+      <c r="H52" s="1">
+        <v>11</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J52" s="1"/>
-      <c r="K52" s="9"/>
+      <c r="K52" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>11</v>
+      </c>
+      <c r="G53" s="5">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1">
+        <v>11</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="9"/>
+      <c r="K53" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
+        <v>11</v>
+      </c>
+      <c r="G54" s="5">
+        <v>4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>11</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J54" s="1"/>
-      <c r="K54" s="9"/>
+      <c r="K54" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>11</v>
+      </c>
+      <c r="G55" s="5">
+        <v>6</v>
+      </c>
+      <c r="H55" s="1">
+        <v>11</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J55" s="1"/>
-      <c r="K55" s="9"/>
+      <c r="K55" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
+        <v>11</v>
+      </c>
+      <c r="G56" s="5">
+        <v>9</v>
+      </c>
+      <c r="H56" s="1">
+        <v>11</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="9"/>
+      <c r="K56" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
+        <v>11</v>
+      </c>
+      <c r="G57" s="5">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>11</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J57" s="1"/>
-      <c r="K57" s="9"/>
+      <c r="K57" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>11</v>
+      </c>
+      <c r="G58" s="5">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>11</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="9"/>
+      <c r="K58" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>11</v>
+      </c>
+      <c r="G59" s="5">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>11</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J59" s="1"/>
-      <c r="K59" s="9"/>
+      <c r="K59" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <v>11</v>
+      </c>
+      <c r="G60" s="5">
+        <v>8</v>
+      </c>
+      <c r="H60" s="1">
+        <v>11</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J60" s="1"/>
-      <c r="K60" s="9"/>
+      <c r="K60" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>11</v>
+      </c>
+      <c r="G61" s="5">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1">
+        <v>11</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J61" s="1"/>
-      <c r="K61" s="9"/>
+      <c r="K61" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="7"/>
@@ -2884,7 +3129,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="7"/>
@@ -2901,7 +3146,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
@@ -2918,7 +3163,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
@@ -2935,7 +3180,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="7"/>
@@ -2952,7 +3197,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="7"/>
@@ -2969,7 +3214,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
@@ -2986,7 +3231,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
@@ -3003,7 +3248,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
@@ -3020,7 +3265,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
@@ -3037,7 +3282,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
@@ -3054,7 +3299,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
@@ -3071,7 +3316,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
@@ -3088,7 +3333,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
@@ -3105,7 +3350,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
@@ -3122,7 +3367,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
@@ -3139,7 +3384,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
@@ -3156,7 +3401,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
@@ -3173,7 +3418,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
@@ -3190,7 +3435,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
@@ -3207,7 +3452,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
@@ -3224,7 +3469,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
@@ -3241,7 +3486,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
@@ -3258,7 +3503,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
@@ -3275,7 +3520,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
@@ -3292,7 +3537,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
@@ -3309,7 +3554,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
@@ -3326,7 +3571,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
@@ -3343,7 +3588,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
@@ -3360,7 +3605,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
@@ -3377,7 +3622,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
@@ -3394,7 +3639,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
@@ -3411,7 +3656,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
@@ -3428,7 +3673,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
@@ -3445,7 +3690,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
@@ -3462,7 +3707,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
@@ -3479,7 +3724,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
@@ -3496,7 +3741,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
@@ -3513,7 +3758,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
@@ -3530,7 +3775,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
@@ -3547,7 +3792,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
@@ -3564,7 +3809,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
@@ -3581,7 +3826,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
@@ -3598,7 +3843,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
@@ -3615,7 +3860,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
@@ -3632,7 +3877,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
@@ -3649,7 +3894,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
@@ -3666,7 +3911,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
@@ -3683,7 +3928,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
@@ -3700,7 +3945,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
@@ -3717,7 +3962,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
@@ -3734,7 +3979,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
@@ -3751,7 +3996,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
@@ -3768,7 +4013,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
@@ -3785,7 +4030,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
@@ -3802,7 +4047,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
@@ -3819,7 +4064,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
@@ -3836,7 +4081,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
@@ -3853,7 +4098,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
@@ -3870,7 +4115,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
@@ -3887,7 +4132,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
@@ -3904,7 +4149,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
@@ -3921,7 +4166,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
@@ -3938,7 +4183,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
@@ -3955,7 +4200,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
@@ -3972,7 +4217,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
@@ -3989,7 +4234,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
@@ -4006,7 +4251,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
@@ -4023,7 +4268,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
@@ -4040,7 +4285,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
@@ -4057,7 +4302,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
@@ -4074,7 +4319,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
@@ -4091,7 +4336,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
@@ -4108,7 +4353,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
@@ -4125,7 +4370,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
@@ -4142,7 +4387,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
@@ -4159,7 +4404,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
@@ -4176,7 +4421,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
@@ -4193,7 +4438,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
@@ -4210,7 +4455,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
@@ -4227,7 +4472,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
@@ -4244,7 +4489,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
@@ -4261,7 +4506,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
@@ -4278,7 +4523,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="7"/>
@@ -4295,7 +4540,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="7"/>
@@ -4312,7 +4557,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
@@ -4329,7 +4574,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
@@ -4346,7 +4591,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="7"/>
@@ -4363,7 +4608,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="7"/>
@@ -4380,7 +4625,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="7"/>
@@ -4397,7 +4642,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
@@ -4414,7 +4659,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="7"/>
@@ -4431,7 +4676,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="7"/>
@@ -4448,7 +4693,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="7"/>
@@ -4465,7 +4710,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="7"/>
@@ -4482,7 +4727,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="7"/>
@@ -4499,7 +4744,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="7"/>
@@ -4516,7 +4761,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="7"/>
@@ -4533,7 +4778,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="7"/>
@@ -4550,7 +4795,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="7"/>
@@ -4567,7 +4812,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="7"/>
@@ -4584,7 +4829,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="7"/>
@@ -4601,7 +4846,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="7"/>
@@ -4618,7 +4863,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="7"/>
@@ -4635,7 +4880,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="7"/>
@@ -4652,7 +4897,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="7"/>
@@ -4669,7 +4914,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="7"/>
@@ -4686,7 +4931,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="7"/>
@@ -4703,7 +4948,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="7"/>
@@ -4720,7 +4965,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="7"/>
@@ -4737,7 +4982,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="7"/>
@@ -4754,7 +4999,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="7"/>
@@ -4771,7 +5016,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="7"/>
@@ -4788,7 +5033,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="7"/>
@@ -4805,7 +5050,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
@@ -4822,7 +5067,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
@@ -4839,7 +5084,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="7"/>
@@ -4856,7 +5101,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="7"/>
@@ -4873,7 +5118,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
@@ -4890,7 +5135,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="7"/>
@@ -4907,7 +5152,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="7"/>
@@ -4924,7 +5169,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="7"/>
@@ -4941,7 +5186,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
@@ -4958,7 +5203,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="7"/>
@@ -4975,7 +5220,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
@@ -4992,7 +5237,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="7"/>
@@ -5009,7 +5254,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="7"/>
@@ -5026,7 +5271,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="7"/>
@@ -5043,7 +5288,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="7"/>
@@ -5060,7 +5305,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="7"/>
@@ -5077,7 +5322,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="7"/>
@@ -5094,7 +5339,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="7"/>
@@ -5111,7 +5356,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="7"/>
@@ -5128,7 +5373,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="7"/>
@@ -5145,7 +5390,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="7"/>
@@ -5162,7 +5407,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="7"/>
@@ -5179,7 +5424,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="7"/>
@@ -5196,7 +5441,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="7"/>
@@ -5213,7 +5458,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="7"/>
@@ -5230,7 +5475,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="7"/>
@@ -5247,7 +5492,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="7"/>
@@ -5264,7 +5509,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="7"/>
@@ -5281,7 +5526,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="7"/>
@@ -5298,7 +5543,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="7"/>
@@ -5315,7 +5560,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="7"/>
@@ -5332,7 +5577,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="7"/>
@@ -5349,7 +5594,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="7"/>
@@ -5366,7 +5611,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="7"/>
@@ -5383,7 +5628,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="7"/>
@@ -5400,7 +5645,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="7"/>
@@ -5417,7 +5662,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="7"/>
@@ -5434,7 +5679,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="7"/>
@@ -5451,7 +5696,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="7"/>
@@ -5468,7 +5713,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="7"/>
@@ -5485,7 +5730,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="7"/>
@@ -5502,7 +5747,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="7"/>
@@ -5519,7 +5764,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="7"/>
@@ -5536,7 +5781,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="7"/>
@@ -5553,7 +5798,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="7"/>
@@ -5570,7 +5815,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="7"/>
@@ -5587,7 +5832,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="7"/>
@@ -5604,7 +5849,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="7"/>
@@ -5621,7 +5866,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="7"/>
@@ -5638,7 +5883,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="7"/>
@@ -5655,7 +5900,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="7"/>
@@ -5672,7 +5917,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="7"/>
@@ -5689,7 +5934,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="7"/>
@@ -5706,7 +5951,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="7"/>
@@ -5723,7 +5968,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="7"/>
@@ -5740,7 +5985,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="7"/>
@@ -5757,7 +6002,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="7"/>
@@ -5774,7 +6019,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="7"/>
@@ -5791,7 +6036,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="7"/>
@@ -5808,7 +6053,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="7"/>
@@ -5825,7 +6070,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="7"/>
@@ -5842,7 +6087,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="7"/>
@@ -5859,7 +6104,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="7"/>
@@ -5876,7 +6121,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="7"/>
@@ -5893,7 +6138,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="7"/>
@@ -5910,7 +6155,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="7"/>
@@ -5927,7 +6172,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="7"/>
@@ -5944,7 +6189,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="7"/>
@@ -5961,7 +6206,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="7"/>
@@ -5978,7 +6223,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="7"/>
@@ -5995,7 +6240,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="7"/>
@@ -6012,7 +6257,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="7"/>
@@ -6029,7 +6274,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="7"/>
@@ -6046,7 +6291,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="7"/>
@@ -6063,7 +6308,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="7"/>
@@ -6080,7 +6325,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="7"/>
@@ -6097,7 +6342,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="7"/>
@@ -6114,7 +6359,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="7"/>
@@ -6131,7 +6376,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="7"/>
@@ -6148,7 +6393,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="7"/>
@@ -6165,7 +6410,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="7"/>
@@ -6182,7 +6427,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="7"/>
@@ -6199,7 +6444,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="7"/>
@@ -6216,7 +6461,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="7"/>
@@ -6233,7 +6478,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="7"/>
@@ -6250,7 +6495,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="7"/>
@@ -6267,7 +6512,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="7"/>
@@ -6284,7 +6529,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="7"/>
@@ -6301,7 +6546,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="7"/>
@@ -6318,7 +6563,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="7"/>
@@ -6335,7 +6580,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="7"/>
@@ -6352,7 +6597,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="7"/>
@@ -6369,7 +6614,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="7"/>
@@ -6386,7 +6631,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="7"/>
@@ -6403,7 +6648,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="7"/>
@@ -6420,7 +6665,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="7"/>
@@ -6437,7 +6682,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="7"/>
@@ -6454,7 +6699,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="7"/>
@@ -6471,7 +6716,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="7"/>
@@ -6488,7 +6733,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="7"/>
@@ -6505,7 +6750,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="7"/>
@@ -6522,7 +6767,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="7"/>
@@ -6539,7 +6784,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="7"/>
@@ -6556,7 +6801,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="7"/>
@@ -6573,7 +6818,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="7"/>
@@ -6590,7 +6835,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="7"/>
@@ -6607,7 +6852,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="7"/>
@@ -6624,7 +6869,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="7"/>
@@ -6641,7 +6886,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="7"/>
@@ -6658,7 +6903,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="7"/>
@@ -6675,7 +6920,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="7"/>
@@ -6692,7 +6937,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="7"/>
@@ -6709,7 +6954,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="7"/>
@@ -6726,7 +6971,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="7"/>
@@ -6743,7 +6988,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="7"/>
@@ -6760,7 +7005,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="7"/>
@@ -6777,7 +7022,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="7"/>
@@ -6794,7 +7039,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="7"/>
@@ -6811,7 +7056,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="7"/>
@@ -6828,7 +7073,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="7"/>
@@ -6845,7 +7090,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="7"/>
@@ -6862,7 +7107,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="7"/>
@@ -6879,7 +7124,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="7"/>
@@ -6896,7 +7141,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="7"/>
@@ -6913,7 +7158,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="7"/>
@@ -6930,7 +7175,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="7"/>
@@ -6947,7 +7192,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="7"/>
@@ -6964,7 +7209,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="7"/>
@@ -6981,7 +7226,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="7"/>
@@ -6998,7 +7243,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="7"/>
@@ -7015,7 +7260,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="7"/>
@@ -7032,7 +7277,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="7"/>
@@ -7049,7 +7294,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="7"/>
@@ -7066,7 +7311,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="7"/>
@@ -7083,7 +7328,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="7"/>
@@ -7100,7 +7345,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="7"/>
@@ -7117,7 +7362,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="7"/>
@@ -7134,7 +7379,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="7"/>
@@ -7151,7 +7396,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="7"/>
@@ -7168,7 +7413,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="7"/>
@@ -7185,7 +7430,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="7"/>
@@ -7202,7 +7447,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="7"/>
@@ -7219,7 +7464,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="7"/>
@@ -7236,7 +7481,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="7"/>
@@ -7253,7 +7498,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="7"/>
@@ -7270,7 +7515,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="7"/>
@@ -7287,7 +7532,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="7"/>
@@ -7304,7 +7549,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="7"/>
@@ -7321,7 +7566,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="7"/>
@@ -7338,7 +7583,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="7"/>
@@ -7355,7 +7600,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="7"/>
@@ -7372,7 +7617,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="7"/>
@@ -7389,7 +7634,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="7"/>
@@ -7406,7 +7651,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="7"/>
@@ -7423,7 +7668,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="7"/>
@@ -7440,7 +7685,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="7"/>
@@ -7457,7 +7702,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="7"/>
@@ -7474,7 +7719,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="7"/>
@@ -7491,7 +7736,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="7"/>
@@ -7508,7 +7753,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="7"/>
@@ -7525,7 +7770,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="7"/>
@@ -7542,7 +7787,7 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="7"/>
@@ -7559,7 +7804,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="7"/>
@@ -7576,7 +7821,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="7"/>
@@ -7593,7 +7838,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="7"/>
@@ -7610,7 +7855,7 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="7"/>
@@ -7627,7 +7872,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="7"/>
@@ -7644,7 +7889,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="7"/>
@@ -7661,7 +7906,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="7"/>
@@ -7678,7 +7923,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="7"/>
@@ -7695,7 +7940,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="7"/>
@@ -7712,7 +7957,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="7"/>
@@ -7729,7 +7974,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="7"/>
@@ -7746,7 +7991,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="7"/>
@@ -7763,7 +8008,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="7"/>
@@ -7780,7 +8025,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="7"/>
@@ -7797,7 +8042,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="7"/>
@@ -7814,7 +8059,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="7"/>
@@ -7831,7 +8076,7 @@
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="7"/>
@@ -7848,7 +8093,7 @@
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="7"/>
@@ -7865,7 +8110,7 @@
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="7"/>
@@ -7882,7 +8127,7 @@
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="7"/>
@@ -7899,7 +8144,7 @@
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="7"/>
@@ -7916,7 +8161,7 @@
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="7"/>
@@ -7933,7 +8178,7 @@
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="7"/>
@@ -7950,7 +8195,7 @@
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="7"/>
@@ -7967,7 +8212,7 @@
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="7"/>
@@ -7984,7 +8229,7 @@
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="7"/>
@@ -8001,7 +8246,7 @@
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="7"/>
@@ -8018,7 +8263,7 @@
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="7"/>
@@ -8035,7 +8280,7 @@
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="7"/>
@@ -8052,7 +8297,7 @@
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="7"/>
@@ -8069,7 +8314,7 @@
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="7"/>
@@ -8086,7 +8331,7 @@
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="7"/>
@@ -8103,7 +8348,7 @@
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="7"/>
@@ -8120,7 +8365,7 @@
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="7"/>
@@ -8137,7 +8382,7 @@
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="7"/>
@@ -8154,7 +8399,7 @@
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="7"/>
@@ -8171,7 +8416,7 @@
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="7"/>
@@ -8188,7 +8433,7 @@
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="7"/>
@@ -8205,7 +8450,7 @@
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="7"/>
@@ -8222,7 +8467,7 @@
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="7"/>
@@ -8239,7 +8484,7 @@
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="7"/>
@@ -8256,7 +8501,7 @@
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="7"/>
@@ -8273,7 +8518,7 @@
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="7"/>
@@ -8290,7 +8535,7 @@
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="7"/>
@@ -8307,7 +8552,7 @@
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="7"/>
@@ -8324,7 +8569,7 @@
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="7"/>
@@ -8341,7 +8586,7 @@
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="7"/>
@@ -8358,7 +8603,7 @@
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="7"/>
@@ -8375,7 +8620,7 @@
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="7"/>
@@ -8392,7 +8637,7 @@
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="7"/>
@@ -8409,7 +8654,7 @@
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="7"/>
@@ -8426,7 +8671,7 @@
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="7"/>
@@ -8443,7 +8688,7 @@
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="7"/>
@@ -8460,7 +8705,7 @@
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="7"/>
@@ -8477,7 +8722,7 @@
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="7"/>
@@ -8494,7 +8739,7 @@
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="7"/>
@@ -8511,7 +8756,7 @@
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="7"/>
@@ -8528,7 +8773,7 @@
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="7"/>
@@ -8545,7 +8790,7 @@
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="7"/>
@@ -8562,7 +8807,7 @@
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="7"/>
@@ -8579,7 +8824,7 @@
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="7"/>
@@ -8596,7 +8841,7 @@
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="7"/>
@@ -8613,7 +8858,7 @@
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="7"/>
@@ -8630,7 +8875,7 @@
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="7"/>
@@ -8647,7 +8892,7 @@
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="7"/>
@@ -8664,7 +8909,7 @@
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="7"/>
@@ -8681,7 +8926,7 @@
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="7"/>
@@ -8698,7 +8943,7 @@
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="7"/>
@@ -8715,7 +8960,7 @@
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="7"/>
@@ -8732,7 +8977,7 @@
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="7"/>
@@ -8749,7 +8994,7 @@
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="7"/>
@@ -8766,7 +9011,7 @@
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="7"/>
@@ -8783,7 +9028,7 @@
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="7"/>
@@ -8800,7 +9045,7 @@
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="7"/>
@@ -8817,7 +9062,7 @@
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="7"/>
@@ -8834,7 +9079,7 @@
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="7"/>
@@ -8851,7 +9096,7 @@
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="7"/>
@@ -8868,7 +9113,7 @@
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="7"/>
@@ -8885,7 +9130,7 @@
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="7"/>
@@ -8902,7 +9147,7 @@
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="7"/>
@@ -8919,7 +9164,7 @@
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="7"/>
@@ -8936,7 +9181,7 @@
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="7"/>
@@ -8953,7 +9198,7 @@
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="7"/>
@@ -8970,7 +9215,7 @@
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="7"/>
@@ -8987,7 +9232,7 @@
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="7"/>
@@ -9004,7 +9249,7 @@
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="7"/>
@@ -9021,7 +9266,7 @@
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="7"/>
@@ -9038,7 +9283,7 @@
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="7"/>
@@ -9055,7 +9300,7 @@
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="7"/>
@@ -9072,7 +9317,7 @@
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="7"/>
@@ -9089,7 +9334,7 @@
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="7"/>
@@ -9106,7 +9351,7 @@
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="7"/>
@@ -9123,7 +9368,7 @@
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="7"/>
@@ -9140,7 +9385,7 @@
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="7"/>
@@ -9157,7 +9402,7 @@
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="7"/>
@@ -9174,7 +9419,7 @@
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="7"/>
@@ -9191,7 +9436,7 @@
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="7"/>
@@ -9208,7 +9453,7 @@
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="7"/>
@@ -9225,7 +9470,7 @@
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="7"/>
@@ -9242,7 +9487,7 @@
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="7"/>
@@ -9259,7 +9504,7 @@
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="7"/>
@@ -9276,7 +9521,7 @@
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="7"/>
@@ -9293,7 +9538,7 @@
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="7"/>
@@ -9310,7 +9555,7 @@
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="7"/>
@@ -9327,7 +9572,7 @@
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="7"/>
@@ -9344,7 +9589,7 @@
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="7"/>
@@ -9361,7 +9606,7 @@
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="7"/>
@@ -9378,7 +9623,7 @@
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="7"/>
@@ -9395,7 +9640,7 @@
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="7"/>
@@ -9412,7 +9657,7 @@
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="7"/>
@@ -9429,7 +9674,7 @@
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="7"/>
@@ -9446,7 +9691,7 @@
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="7"/>
@@ -9463,7 +9708,7 @@
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="7"/>
@@ -9480,7 +9725,7 @@
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="7"/>
@@ -9497,7 +9742,7 @@
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="7"/>
@@ -9514,7 +9759,7 @@
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="7"/>
@@ -9531,7 +9776,7 @@
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="7"/>
@@ -9548,7 +9793,7 @@
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="7"/>
@@ -9565,7 +9810,7 @@
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="7"/>
@@ -9582,7 +9827,7 @@
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="7"/>
@@ -9599,7 +9844,7 @@
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="7"/>
@@ -9616,7 +9861,7 @@
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="7"/>
@@ -9633,7 +9878,7 @@
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="7"/>
@@ -9650,7 +9895,7 @@
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="7"/>
@@ -9667,7 +9912,7 @@
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="7"/>
@@ -9684,7 +9929,7 @@
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="7"/>
@@ -9701,7 +9946,7 @@
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="7"/>
@@ -9718,7 +9963,7 @@
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="7"/>
@@ -9735,7 +9980,7 @@
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="7"/>
@@ -9752,7 +9997,7 @@
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="7"/>
@@ -9769,7 +10014,7 @@
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="7"/>
@@ -9786,7 +10031,7 @@
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="7"/>
@@ -9803,7 +10048,7 @@
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="7"/>
@@ -9820,7 +10065,7 @@
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="7"/>
@@ -9837,7 +10082,7 @@
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="7"/>
@@ -9854,7 +10099,7 @@
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="7"/>
@@ -9871,7 +10116,7 @@
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="7"/>
@@ -9888,7 +10133,7 @@
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="7"/>
@@ -9905,7 +10150,7 @@
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="7"/>
@@ -9922,7 +10167,7 @@
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="7"/>
@@ -9939,7 +10184,7 @@
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="7"/>
@@ -9956,7 +10201,7 @@
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="7"/>
@@ -9973,7 +10218,7 @@
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="7"/>
@@ -9990,7 +10235,7 @@
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="7"/>
@@ -10007,7 +10252,7 @@
       <c r="N481" s="1"/>
       <c r="O481" s="1"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="7"/>
@@ -10024,7 +10269,7 @@
       <c r="N482" s="1"/>
       <c r="O482" s="1"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="7"/>
@@ -10041,7 +10286,7 @@
       <c r="N483" s="1"/>
       <c r="O483" s="1"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="7"/>
@@ -10058,7 +10303,7 @@
       <c r="N484" s="1"/>
       <c r="O484" s="1"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="7"/>
@@ -10075,7 +10320,7 @@
       <c r="N485" s="1"/>
       <c r="O485" s="1"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="7"/>
@@ -10092,7 +10337,7 @@
       <c r="N486" s="1"/>
       <c r="O486" s="1"/>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="7"/>
@@ -10109,7 +10354,7 @@
       <c r="N487" s="1"/>
       <c r="O487" s="1"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="7"/>
@@ -10126,7 +10371,7 @@
       <c r="N488" s="1"/>
       <c r="O488" s="1"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="7"/>
@@ -10143,7 +10388,7 @@
       <c r="N489" s="1"/>
       <c r="O489" s="1"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="7"/>
@@ -10160,7 +10405,7 @@
       <c r="N490" s="1"/>
       <c r="O490" s="1"/>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="7"/>
@@ -10177,7 +10422,7 @@
       <c r="N491" s="1"/>
       <c r="O491" s="1"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="7"/>
@@ -10194,7 +10439,7 @@
       <c r="N492" s="1"/>
       <c r="O492" s="1"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="7"/>
@@ -10211,7 +10456,7 @@
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="7"/>
@@ -10228,7 +10473,7 @@
       <c r="N494" s="1"/>
       <c r="O494" s="1"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="7"/>
@@ -10245,7 +10490,7 @@
       <c r="N495" s="1"/>
       <c r="O495" s="1"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="7"/>
@@ -10262,7 +10507,7 @@
       <c r="N496" s="1"/>
       <c r="O496" s="1"/>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="7"/>
@@ -10279,7 +10524,7 @@
       <c r="N497" s="1"/>
       <c r="O497" s="1"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="7"/>
@@ -10296,7 +10541,7 @@
       <c r="N498" s="1"/>
       <c r="O498" s="1"/>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="7"/>
@@ -10313,7 +10558,7 @@
       <c r="N499" s="1"/>
       <c r="O499" s="1"/>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="7"/>
@@ -10330,7 +10575,7 @@
       <c r="N500" s="1"/>
       <c r="O500" s="1"/>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="7"/>
@@ -10347,7 +10592,7 @@
       <c r="N501" s="1"/>
       <c r="O501" s="1"/>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="7"/>
@@ -10364,7 +10609,7 @@
       <c r="N502" s="1"/>
       <c r="O502" s="1"/>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="7"/>
@@ -10381,7 +10626,7 @@
       <c r="N503" s="1"/>
       <c r="O503" s="1"/>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="7"/>
@@ -10398,7 +10643,7 @@
       <c r="N504" s="1"/>
       <c r="O504" s="1"/>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="7"/>
@@ -10415,7 +10660,7 @@
       <c r="N505" s="1"/>
       <c r="O505" s="1"/>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="7"/>
@@ -10432,7 +10677,7 @@
       <c r="N506" s="1"/>
       <c r="O506" s="1"/>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="7"/>
@@ -10449,7 +10694,7 @@
       <c r="N507" s="1"/>
       <c r="O507" s="1"/>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="7"/>
@@ -10466,7 +10711,7 @@
       <c r="N508" s="1"/>
       <c r="O508" s="1"/>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="7"/>
@@ -10483,7 +10728,7 @@
       <c r="N509" s="1"/>
       <c r="O509" s="1"/>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="7"/>
@@ -10500,7 +10745,7 @@
       <c r="N510" s="1"/>
       <c r="O510" s="1"/>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="7"/>
@@ -10517,7 +10762,7 @@
       <c r="N511" s="1"/>
       <c r="O511" s="1"/>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="7"/>
@@ -10534,7 +10779,7 @@
       <c r="N512" s="1"/>
       <c r="O512" s="1"/>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="7"/>
@@ -10551,7 +10796,7 @@
       <c r="N513" s="1"/>
       <c r="O513" s="1"/>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="7"/>
@@ -10568,7 +10813,7 @@
       <c r="N514" s="1"/>
       <c r="O514" s="1"/>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="7"/>
@@ -10585,7 +10830,7 @@
       <c r="N515" s="1"/>
       <c r="O515" s="1"/>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="7"/>
@@ -10602,7 +10847,7 @@
       <c r="N516" s="1"/>
       <c r="O516" s="1"/>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="7"/>
@@ -10619,7 +10864,7 @@
       <c r="N517" s="1"/>
       <c r="O517" s="1"/>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="7"/>
@@ -10636,7 +10881,7 @@
       <c r="N518" s="1"/>
       <c r="O518" s="1"/>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="7"/>
@@ -10653,7 +10898,7 @@
       <c r="N519" s="1"/>
       <c r="O519" s="1"/>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="7"/>
@@ -10670,7 +10915,7 @@
       <c r="N520" s="1"/>
       <c r="O520" s="1"/>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="7"/>
@@ -10687,7 +10932,7 @@
       <c r="N521" s="1"/>
       <c r="O521" s="1"/>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="7"/>
@@ -10704,7 +10949,7 @@
       <c r="N522" s="1"/>
       <c r="O522" s="1"/>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="7"/>
@@ -10721,7 +10966,7 @@
       <c r="N523" s="1"/>
       <c r="O523" s="1"/>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="7"/>
@@ -10738,7 +10983,7 @@
       <c r="N524" s="1"/>
       <c r="O524" s="1"/>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="7"/>
@@ -10755,7 +11000,7 @@
       <c r="N525" s="1"/>
       <c r="O525" s="1"/>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="7"/>
@@ -10772,7 +11017,7 @@
       <c r="N526" s="1"/>
       <c r="O526" s="1"/>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="7"/>
@@ -10789,7 +11034,7 @@
       <c r="N527" s="1"/>
       <c r="O527" s="1"/>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="7"/>
@@ -10806,7 +11051,7 @@
       <c r="N528" s="1"/>
       <c r="O528" s="1"/>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="7"/>
@@ -10823,7 +11068,7 @@
       <c r="N529" s="1"/>
       <c r="O529" s="1"/>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="7"/>
@@ -10840,7 +11085,7 @@
       <c r="N530" s="1"/>
       <c r="O530" s="1"/>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="7"/>
@@ -10857,7 +11102,7 @@
       <c r="N531" s="1"/>
       <c r="O531" s="1"/>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="7"/>
@@ -10874,7 +11119,7 @@
       <c r="N532" s="1"/>
       <c r="O532" s="1"/>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="7"/>
@@ -10891,7 +11136,7 @@
       <c r="N533" s="1"/>
       <c r="O533" s="1"/>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="7"/>
@@ -10908,7 +11153,7 @@
       <c r="N534" s="1"/>
       <c r="O534" s="1"/>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="7"/>
@@ -10925,7 +11170,7 @@
       <c r="N535" s="1"/>
       <c r="O535" s="1"/>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="7"/>
@@ -10942,7 +11187,7 @@
       <c r="N536" s="1"/>
       <c r="O536" s="1"/>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="7"/>
@@ -10959,7 +11204,7 @@
       <c r="N537" s="1"/>
       <c r="O537" s="1"/>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="7"/>
@@ -10976,7 +11221,7 @@
       <c r="N538" s="1"/>
       <c r="O538" s="1"/>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="7"/>
@@ -10993,7 +11238,7 @@
       <c r="N539" s="1"/>
       <c r="O539" s="1"/>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="7"/>
@@ -11010,7 +11255,7 @@
       <c r="N540" s="1"/>
       <c r="O540" s="1"/>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="7"/>
@@ -11027,7 +11272,7 @@
       <c r="N541" s="1"/>
       <c r="O541" s="1"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="7"/>
@@ -11044,7 +11289,7 @@
       <c r="N542" s="1"/>
       <c r="O542" s="1"/>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="7"/>
@@ -11061,7 +11306,7 @@
       <c r="N543" s="1"/>
       <c r="O543" s="1"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="7"/>
@@ -11078,7 +11323,7 @@
       <c r="N544" s="1"/>
       <c r="O544" s="1"/>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="7"/>
@@ -11095,7 +11340,7 @@
       <c r="N545" s="1"/>
       <c r="O545" s="1"/>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="7"/>
@@ -11112,7 +11357,7 @@
       <c r="N546" s="1"/>
       <c r="O546" s="1"/>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="7"/>
@@ -11129,7 +11374,7 @@
       <c r="N547" s="1"/>
       <c r="O547" s="1"/>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="7"/>
@@ -11146,7 +11391,7 @@
       <c r="N548" s="1"/>
       <c r="O548" s="1"/>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="7"/>
@@ -11163,7 +11408,7 @@
       <c r="N549" s="1"/>
       <c r="O549" s="1"/>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="7"/>
@@ -11180,7 +11425,7 @@
       <c r="N550" s="1"/>
       <c r="O550" s="1"/>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="7"/>
@@ -11197,7 +11442,7 @@
       <c r="N551" s="1"/>
       <c r="O551" s="1"/>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="7"/>
@@ -11214,7 +11459,7 @@
       <c r="N552" s="1"/>
       <c r="O552" s="1"/>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="7"/>
@@ -11231,7 +11476,7 @@
       <c r="N553" s="1"/>
       <c r="O553" s="1"/>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="7"/>
@@ -11248,7 +11493,7 @@
       <c r="N554" s="1"/>
       <c r="O554" s="1"/>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="7"/>
@@ -11265,7 +11510,7 @@
       <c r="N555" s="1"/>
       <c r="O555" s="1"/>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="7"/>
@@ -11282,7 +11527,7 @@
       <c r="N556" s="1"/>
       <c r="O556" s="1"/>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="7"/>
@@ -11299,7 +11544,7 @@
       <c r="N557" s="1"/>
       <c r="O557" s="1"/>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="7"/>
@@ -11316,7 +11561,7 @@
       <c r="N558" s="1"/>
       <c r="O558" s="1"/>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="7"/>
@@ -11333,7 +11578,7 @@
       <c r="N559" s="1"/>
       <c r="O559" s="1"/>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="7"/>
@@ -11350,7 +11595,7 @@
       <c r="N560" s="1"/>
       <c r="O560" s="1"/>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="7"/>
@@ -11367,7 +11612,7 @@
       <c r="N561" s="1"/>
       <c r="O561" s="1"/>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="7"/>
@@ -11384,7 +11629,7 @@
       <c r="N562" s="1"/>
       <c r="O562" s="1"/>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="7"/>
@@ -11401,7 +11646,7 @@
       <c r="N563" s="1"/>
       <c r="O563" s="1"/>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="7"/>
@@ -11418,7 +11663,7 @@
       <c r="N564" s="1"/>
       <c r="O564" s="1"/>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="7"/>
@@ -11435,7 +11680,7 @@
       <c r="N565" s="1"/>
       <c r="O565" s="1"/>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="7"/>
@@ -11452,7 +11697,7 @@
       <c r="N566" s="1"/>
       <c r="O566" s="1"/>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="7"/>
@@ -11469,7 +11714,7 @@
       <c r="N567" s="1"/>
       <c r="O567" s="1"/>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="7"/>
@@ -11486,7 +11731,7 @@
       <c r="N568" s="1"/>
       <c r="O568" s="1"/>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="7"/>
@@ -11503,7 +11748,7 @@
       <c r="N569" s="1"/>
       <c r="O569" s="1"/>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="7"/>
@@ -11520,7 +11765,7 @@
       <c r="N570" s="1"/>
       <c r="O570" s="1"/>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="7"/>
@@ -11537,7 +11782,7 @@
       <c r="N571" s="1"/>
       <c r="O571" s="1"/>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="7"/>
@@ -11554,7 +11799,7 @@
       <c r="N572" s="1"/>
       <c r="O572" s="1"/>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="7"/>
@@ -11571,7 +11816,7 @@
       <c r="N573" s="1"/>
       <c r="O573" s="1"/>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="7"/>
@@ -11588,7 +11833,7 @@
       <c r="N574" s="1"/>
       <c r="O574" s="1"/>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="7"/>
@@ -11605,7 +11850,7 @@
       <c r="N575" s="1"/>
       <c r="O575" s="1"/>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="7"/>
@@ -11622,7 +11867,7 @@
       <c r="N576" s="1"/>
       <c r="O576" s="1"/>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="7"/>
@@ -11639,7 +11884,7 @@
       <c r="N577" s="1"/>
       <c r="O577" s="1"/>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="7"/>
@@ -11656,7 +11901,7 @@
       <c r="N578" s="1"/>
       <c r="O578" s="1"/>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="7"/>
@@ -11673,7 +11918,7 @@
       <c r="N579" s="1"/>
       <c r="O579" s="1"/>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="7"/>
@@ -11690,7 +11935,7 @@
       <c r="N580" s="1"/>
       <c r="O580" s="1"/>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="7"/>
@@ -11707,7 +11952,7 @@
       <c r="N581" s="1"/>
       <c r="O581" s="1"/>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="7"/>
@@ -11724,7 +11969,7 @@
       <c r="N582" s="1"/>
       <c r="O582" s="1"/>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="7"/>
@@ -11741,7 +11986,7 @@
       <c r="N583" s="1"/>
       <c r="O583" s="1"/>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="7"/>
@@ -11758,7 +12003,7 @@
       <c r="N584" s="1"/>
       <c r="O584" s="1"/>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="7"/>
@@ -11775,7 +12020,7 @@
       <c r="N585" s="1"/>
       <c r="O585" s="1"/>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="7"/>
@@ -11792,7 +12037,7 @@
       <c r="N586" s="1"/>
       <c r="O586" s="1"/>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="7"/>
@@ -11809,7 +12054,7 @@
       <c r="N587" s="1"/>
       <c r="O587" s="1"/>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="7"/>
@@ -11826,7 +12071,7 @@
       <c r="N588" s="1"/>
       <c r="O588" s="1"/>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="7"/>
@@ -11843,7 +12088,7 @@
       <c r="N589" s="1"/>
       <c r="O589" s="1"/>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="7"/>
@@ -11860,7 +12105,7 @@
       <c r="N590" s="1"/>
       <c r="O590" s="1"/>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="7"/>
@@ -11877,7 +12122,7 @@
       <c r="N591" s="1"/>
       <c r="O591" s="1"/>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="7"/>
@@ -11894,7 +12139,7 @@
       <c r="N592" s="1"/>
       <c r="O592" s="1"/>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="7"/>
@@ -11911,7 +12156,7 @@
       <c r="N593" s="1"/>
       <c r="O593" s="1"/>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="7"/>
@@ -11928,7 +12173,7 @@
       <c r="N594" s="1"/>
       <c r="O594" s="1"/>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="7"/>
@@ -11945,7 +12190,7 @@
       <c r="N595" s="1"/>
       <c r="O595" s="1"/>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="7"/>
@@ -11962,7 +12207,7 @@
       <c r="N596" s="1"/>
       <c r="O596" s="1"/>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="7"/>
@@ -11979,7 +12224,7 @@
       <c r="N597" s="1"/>
       <c r="O597" s="1"/>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="7"/>
@@ -11996,7 +12241,7 @@
       <c r="N598" s="1"/>
       <c r="O598" s="1"/>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="7"/>
@@ -12013,7 +12258,7 @@
       <c r="N599" s="1"/>
       <c r="O599" s="1"/>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="7"/>
@@ -12030,7 +12275,7 @@
       <c r="N600" s="1"/>
       <c r="O600" s="1"/>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="7"/>
@@ -12047,7 +12292,7 @@
       <c r="N601" s="1"/>
       <c r="O601" s="1"/>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="7"/>
@@ -12059,7 +12304,7 @@
       <c r="I602" s="1"/>
       <c r="K602" s="9"/>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="7"/>
@@ -12071,7 +12316,7 @@
       <c r="I603" s="1"/>
       <c r="K603" s="9"/>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="7"/>
@@ -12083,7 +12328,7 @@
       <c r="I604" s="1"/>
       <c r="K604" s="9"/>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="7"/>
@@ -12095,7 +12340,7 @@
       <c r="I605" s="1"/>
       <c r="K605" s="9"/>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="7"/>
@@ -12107,7 +12352,7 @@
       <c r="I606" s="1"/>
       <c r="K606" s="9"/>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="7"/>
@@ -12119,7 +12364,7 @@
       <c r="I607" s="1"/>
       <c r="K607" s="9"/>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="7"/>
@@ -12131,7 +12376,7 @@
       <c r="I608" s="1"/>
       <c r="K608" s="9"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="7"/>
@@ -12143,7 +12388,7 @@
       <c r="I609" s="1"/>
       <c r="K609" s="9"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="7"/>
@@ -12155,7 +12400,7 @@
       <c r="I610" s="1"/>
       <c r="K610" s="9"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="7"/>
@@ -12167,7 +12412,7 @@
       <c r="I611" s="1"/>
       <c r="K611" s="9"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="7"/>
@@ -12179,7 +12424,7 @@
       <c r="I612" s="1"/>
       <c r="K612" s="9"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="7"/>
@@ -12191,7 +12436,7 @@
       <c r="I613" s="1"/>
       <c r="K613" s="9"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="7"/>
@@ -12203,7 +12448,7 @@
       <c r="I614" s="1"/>
       <c r="K614" s="9"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="7"/>
@@ -12215,7 +12460,7 @@
       <c r="I615" s="1"/>
       <c r="K615" s="9"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="7"/>
@@ -12227,7 +12472,7 @@
       <c r="I616" s="1"/>
       <c r="K616" s="9"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="7"/>
@@ -12239,7 +12484,7 @@
       <c r="I617" s="1"/>
       <c r="K617" s="9"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="7"/>
@@ -12251,7 +12496,7 @@
       <c r="I618" s="1"/>
       <c r="K618" s="9"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="7"/>
@@ -12263,7 +12508,7 @@
       <c r="I619" s="1"/>
       <c r="K619" s="9"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="7"/>
@@ -12275,7 +12520,7 @@
       <c r="I620" s="1"/>
       <c r="K620" s="9"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="7"/>
@@ -12287,7 +12532,7 @@
       <c r="I621" s="1"/>
       <c r="K621" s="9"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="7"/>
@@ -12299,7 +12544,7 @@
       <c r="I622" s="1"/>
       <c r="K622" s="9"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="7"/>
@@ -12311,7 +12556,7 @@
       <c r="I623" s="1"/>
       <c r="K623" s="9"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="7"/>
@@ -12323,7 +12568,7 @@
       <c r="I624" s="1"/>
       <c r="K624" s="9"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="7"/>
@@ -12335,7 +12580,7 @@
       <c r="I625" s="1"/>
       <c r="K625" s="9"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="7"/>
@@ -12347,7 +12592,7 @@
       <c r="I626" s="1"/>
       <c r="K626" s="9"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="7"/>
@@ -12359,7 +12604,7 @@
       <c r="I627" s="1"/>
       <c r="K627" s="9"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="7"/>
@@ -12371,7 +12616,7 @@
       <c r="I628" s="1"/>
       <c r="K628" s="9"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="7"/>
@@ -12383,7 +12628,7 @@
       <c r="I629" s="1"/>
       <c r="K629" s="9"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="7"/>
@@ -12395,7 +12640,7 @@
       <c r="I630" s="1"/>
       <c r="K630" s="9"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="7"/>
@@ -12407,7 +12652,7 @@
       <c r="I631" s="1"/>
       <c r="K631" s="9"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="7"/>
@@ -12419,7 +12664,7 @@
       <c r="I632" s="1"/>
       <c r="K632" s="9"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="7"/>
@@ -12431,7 +12676,7 @@
       <c r="I633" s="1"/>
       <c r="K633" s="9"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="7"/>
@@ -12443,7 +12688,7 @@
       <c r="I634" s="1"/>
       <c r="K634" s="9"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="7"/>
@@ -12455,7 +12700,7 @@
       <c r="I635" s="1"/>
       <c r="K635" s="9"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="7"/>
@@ -12467,7 +12712,7 @@
       <c r="I636" s="1"/>
       <c r="K636" s="9"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="7"/>
@@ -12479,7 +12724,7 @@
       <c r="I637" s="1"/>
       <c r="K637" s="9"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="7"/>
@@ -12491,7 +12736,7 @@
       <c r="I638" s="1"/>
       <c r="K638" s="9"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="7"/>
@@ -12503,7 +12748,7 @@
       <c r="I639" s="1"/>
       <c r="K639" s="9"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="7"/>
@@ -12515,7 +12760,7 @@
       <c r="I640" s="1"/>
       <c r="K640" s="9"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="7"/>
@@ -12527,7 +12772,7 @@
       <c r="I641" s="1"/>
       <c r="K641" s="9"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="7"/>
@@ -12539,7 +12784,7 @@
       <c r="I642" s="1"/>
       <c r="K642" s="9"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="7"/>
@@ -12551,7 +12796,7 @@
       <c r="I643" s="1"/>
       <c r="K643" s="9"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="7"/>
@@ -12563,7 +12808,7 @@
       <c r="I644" s="1"/>
       <c r="K644" s="9"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="7"/>
@@ -12575,7 +12820,7 @@
       <c r="I645" s="1"/>
       <c r="K645" s="9"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="7"/>
@@ -12587,7 +12832,7 @@
       <c r="I646" s="1"/>
       <c r="K646" s="9"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="7"/>
@@ -12599,7 +12844,7 @@
       <c r="I647" s="1"/>
       <c r="K647" s="9"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="7"/>
@@ -12611,7 +12856,7 @@
       <c r="I648" s="1"/>
       <c r="K648" s="9"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="7"/>
@@ -12623,7 +12868,7 @@
       <c r="I649" s="1"/>
       <c r="K649" s="9"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="7"/>
@@ -12635,7 +12880,7 @@
       <c r="I650" s="1"/>
       <c r="K650" s="9"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="7"/>
@@ -12647,7 +12892,7 @@
       <c r="I651" s="1"/>
       <c r="K651" s="9"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="7"/>
@@ -12659,7 +12904,7 @@
       <c r="I652" s="1"/>
       <c r="K652" s="9"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="7"/>
@@ -12671,7 +12916,7 @@
       <c r="I653" s="1"/>
       <c r="K653" s="9"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="7"/>
@@ -12683,7 +12928,7 @@
       <c r="I654" s="1"/>
       <c r="K654" s="9"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="7"/>
@@ -12695,7 +12940,7 @@
       <c r="I655" s="1"/>
       <c r="K655" s="9"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="7"/>
@@ -12707,7 +12952,7 @@
       <c r="I656" s="1"/>
       <c r="K656" s="9"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="7"/>
@@ -12719,7 +12964,7 @@
       <c r="I657" s="1"/>
       <c r="K657" s="9"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="7"/>
@@ -12731,7 +12976,7 @@
       <c r="I658" s="1"/>
       <c r="K658" s="9"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="7"/>
@@ -12743,7 +12988,7 @@
       <c r="I659" s="1"/>
       <c r="K659" s="9"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="7"/>
@@ -12755,7 +13000,7 @@
       <c r="I660" s="1"/>
       <c r="K660" s="9"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="7"/>
@@ -12767,7 +13012,7 @@
       <c r="I661" s="1"/>
       <c r="K661" s="9"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="7"/>
@@ -12779,7 +13024,7 @@
       <c r="I662" s="1"/>
       <c r="K662" s="9"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="7"/>
@@ -12791,7 +13036,7 @@
       <c r="I663" s="1"/>
       <c r="K663" s="9"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="7"/>
@@ -12803,7 +13048,7 @@
       <c r="I664" s="1"/>
       <c r="K664" s="9"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="7"/>
@@ -12815,7 +13060,7 @@
       <c r="I665" s="1"/>
       <c r="K665" s="9"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="7"/>
@@ -12827,7 +13072,7 @@
       <c r="I666" s="1"/>
       <c r="K666" s="9"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="7"/>
@@ -12839,7 +13084,7 @@
       <c r="I667" s="1"/>
       <c r="K667" s="9"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="7"/>
@@ -12851,7 +13096,7 @@
       <c r="I668" s="1"/>
       <c r="K668" s="9"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="7"/>
@@ -12863,7 +13108,7 @@
       <c r="I669" s="1"/>
       <c r="K669" s="9"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="7"/>
@@ -12875,7 +13120,7 @@
       <c r="I670" s="1"/>
       <c r="K670" s="9"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="7"/>
@@ -12887,7 +13132,7 @@
       <c r="I671" s="1"/>
       <c r="K671" s="9"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="7"/>
@@ -12899,7 +13144,7 @@
       <c r="I672" s="1"/>
       <c r="K672" s="9"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="7"/>
@@ -12911,7 +13156,7 @@
       <c r="I673" s="1"/>
       <c r="K673" s="9"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="7"/>
@@ -12923,7 +13168,7 @@
       <c r="I674" s="1"/>
       <c r="K674" s="9"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="7"/>
@@ -12935,7 +13180,7 @@
       <c r="I675" s="1"/>
       <c r="K675" s="9"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="7"/>
@@ -12947,7 +13192,7 @@
       <c r="I676" s="1"/>
       <c r="K676" s="9"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="7"/>
@@ -12959,7 +13204,7 @@
       <c r="I677" s="1"/>
       <c r="K677" s="9"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="7"/>
@@ -12971,7 +13216,7 @@
       <c r="I678" s="1"/>
       <c r="K678" s="9"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="7"/>
@@ -12983,7 +13228,7 @@
       <c r="I679" s="1"/>
       <c r="K679" s="9"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="7"/>
@@ -12995,7 +13240,7 @@
       <c r="I680" s="1"/>
       <c r="K680" s="9"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="7"/>
@@ -13007,7 +13252,7 @@
       <c r="I681" s="1"/>
       <c r="K681" s="9"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="7"/>
@@ -13019,7 +13264,7 @@
       <c r="I682" s="1"/>
       <c r="K682" s="9"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="7"/>
@@ -13031,7 +13276,7 @@
       <c r="I683" s="1"/>
       <c r="K683" s="9"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="7"/>
@@ -13043,7 +13288,7 @@
       <c r="I684" s="1"/>
       <c r="K684" s="9"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="7"/>
@@ -13055,7 +13300,7 @@
       <c r="I685" s="1"/>
       <c r="K685" s="9"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="7"/>
@@ -13067,7 +13312,7 @@
       <c r="I686" s="1"/>
       <c r="K686" s="9"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="7"/>
@@ -13079,7 +13324,7 @@
       <c r="I687" s="1"/>
       <c r="K687" s="9"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="7"/>
@@ -13091,7 +13336,7 @@
       <c r="I688" s="1"/>
       <c r="K688" s="9"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="7"/>
@@ -13103,7 +13348,7 @@
       <c r="I689" s="1"/>
       <c r="K689" s="9"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="7"/>
@@ -13115,7 +13360,7 @@
       <c r="I690" s="1"/>
       <c r="K690" s="9"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="7"/>
@@ -13127,7 +13372,7 @@
       <c r="I691" s="1"/>
       <c r="K691" s="9"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="7"/>
@@ -13139,7 +13384,7 @@
       <c r="I692" s="1"/>
       <c r="K692" s="9"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="7"/>
@@ -13151,7 +13396,7 @@
       <c r="I693" s="1"/>
       <c r="K693" s="9"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="7"/>
@@ -13163,7 +13408,7 @@
       <c r="I694" s="1"/>
       <c r="K694" s="9"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="7"/>
@@ -13175,7 +13420,7 @@
       <c r="I695" s="1"/>
       <c r="K695" s="9"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="7"/>
@@ -13187,7 +13432,7 @@
       <c r="I696" s="1"/>
       <c r="K696" s="9"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="7"/>
@@ -13199,7 +13444,7 @@
       <c r="I697" s="1"/>
       <c r="K697" s="9"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="7"/>
@@ -13211,7 +13456,7 @@
       <c r="I698" s="1"/>
       <c r="K698" s="9"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="7"/>
@@ -13223,7 +13468,7 @@
       <c r="I699" s="1"/>
       <c r="K699" s="9"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="7"/>
@@ -13235,7 +13480,7 @@
       <c r="I700" s="1"/>
       <c r="K700" s="9"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="7"/>
@@ -13247,7 +13492,7 @@
       <c r="I701" s="1"/>
       <c r="K701" s="9"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="7"/>
@@ -13259,7 +13504,7 @@
       <c r="I702" s="1"/>
       <c r="K702" s="9"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="7"/>
@@ -13271,7 +13516,7 @@
       <c r="I703" s="1"/>
       <c r="K703" s="9"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="7"/>
@@ -13283,7 +13528,7 @@
       <c r="I704" s="1"/>
       <c r="K704" s="9"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="7"/>
@@ -13295,7 +13540,7 @@
       <c r="I705" s="1"/>
       <c r="K705" s="9"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="7"/>
@@ -13307,7 +13552,7 @@
       <c r="I706" s="1"/>
       <c r="K706" s="9"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="7"/>
@@ -13319,7 +13564,7 @@
       <c r="I707" s="1"/>
       <c r="K707" s="9"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="7"/>
@@ -13331,7 +13576,7 @@
       <c r="I708" s="1"/>
       <c r="K708" s="9"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="7"/>
@@ -13343,7 +13588,7 @@
       <c r="I709" s="1"/>
       <c r="K709" s="9"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="7"/>
@@ -13355,7 +13600,7 @@
       <c r="I710" s="1"/>
       <c r="K710" s="9"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="7"/>
@@ -13367,7 +13612,7 @@
       <c r="I711" s="1"/>
       <c r="K711" s="9"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="7"/>
@@ -13379,7 +13624,7 @@
       <c r="I712" s="1"/>
       <c r="K712" s="9"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="7"/>
@@ -13391,7 +13636,7 @@
       <c r="I713" s="1"/>
       <c r="K713" s="9"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="7"/>
@@ -13403,7 +13648,7 @@
       <c r="I714" s="1"/>
       <c r="K714" s="9"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="7"/>
@@ -13415,7 +13660,7 @@
       <c r="I715" s="1"/>
       <c r="K715" s="9"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="7"/>
@@ -13427,7 +13672,7 @@
       <c r="I716" s="1"/>
       <c r="K716" s="9"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="7"/>
@@ -13439,7 +13684,7 @@
       <c r="I717" s="1"/>
       <c r="K717" s="9"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="7"/>
@@ -13451,7 +13696,7 @@
       <c r="I718" s="1"/>
       <c r="K718" s="9"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="7"/>
@@ -13463,7 +13708,7 @@
       <c r="I719" s="1"/>
       <c r="K719" s="9"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="7"/>
@@ -13475,7 +13720,7 @@
       <c r="I720" s="1"/>
       <c r="K720" s="9"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="7"/>
@@ -13487,7 +13732,7 @@
       <c r="I721" s="1"/>
       <c r="K721" s="9"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="7"/>
@@ -13499,7 +13744,7 @@
       <c r="I722" s="1"/>
       <c r="K722" s="9"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="7"/>
@@ -13511,7 +13756,7 @@
       <c r="I723" s="1"/>
       <c r="K723" s="9"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="7"/>
@@ -13523,7 +13768,7 @@
       <c r="I724" s="1"/>
       <c r="K724" s="9"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="7"/>
@@ -13535,7 +13780,7 @@
       <c r="I725" s="1"/>
       <c r="K725" s="9"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="7"/>
@@ -13547,7 +13792,7 @@
       <c r="I726" s="1"/>
       <c r="K726" s="9"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="7"/>
@@ -13559,7 +13804,7 @@
       <c r="I727" s="1"/>
       <c r="K727" s="9"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="7"/>
@@ -13571,7 +13816,7 @@
       <c r="I728" s="1"/>
       <c r="K728" s="9"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="7"/>
@@ -13583,7 +13828,7 @@
       <c r="I729" s="1"/>
       <c r="K729" s="9"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="7"/>
@@ -13595,7 +13840,7 @@
       <c r="I730" s="1"/>
       <c r="K730" s="9"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="7"/>
@@ -13607,7 +13852,7 @@
       <c r="I731" s="1"/>
       <c r="K731" s="9"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="7"/>
@@ -13619,7 +13864,7 @@
       <c r="I732" s="1"/>
       <c r="K732" s="9"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="7"/>
@@ -13631,7 +13876,7 @@
       <c r="I733" s="1"/>
       <c r="K733" s="9"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="7"/>
@@ -13643,7 +13888,7 @@
       <c r="I734" s="1"/>
       <c r="K734" s="9"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="7"/>
@@ -13655,7 +13900,7 @@
       <c r="I735" s="1"/>
       <c r="K735" s="9"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="7"/>
@@ -13667,7 +13912,7 @@
       <c r="I736" s="1"/>
       <c r="K736" s="9"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="7"/>
@@ -13679,7 +13924,7 @@
       <c r="I737" s="1"/>
       <c r="K737" s="9"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="7"/>
@@ -13691,7 +13936,7 @@
       <c r="I738" s="1"/>
       <c r="K738" s="9"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="7"/>
@@ -13703,7 +13948,7 @@
       <c r="I739" s="1"/>
       <c r="K739" s="9"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="7"/>
@@ -13715,7 +13960,7 @@
       <c r="I740" s="1"/>
       <c r="K740" s="9"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="7"/>
@@ -13727,7 +13972,7 @@
       <c r="I741" s="1"/>
       <c r="K741" s="9"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="7"/>
@@ -13739,7 +13984,7 @@
       <c r="I742" s="1"/>
       <c r="K742" s="9"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="7"/>
@@ -13751,7 +13996,7 @@
       <c r="I743" s="1"/>
       <c r="K743" s="9"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="7"/>
@@ -13763,7 +14008,7 @@
       <c r="I744" s="1"/>
       <c r="K744" s="9"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="7"/>
@@ -13775,7 +14020,7 @@
       <c r="I745" s="1"/>
       <c r="K745" s="9"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="7"/>
@@ -13787,7 +14032,7 @@
       <c r="I746" s="1"/>
       <c r="K746" s="9"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="7"/>
@@ -13799,7 +14044,7 @@
       <c r="I747" s="1"/>
       <c r="K747" s="9"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="7"/>
@@ -13811,7 +14056,7 @@
       <c r="I748" s="1"/>
       <c r="K748" s="9"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="7"/>
@@ -13823,7 +14068,7 @@
       <c r="I749" s="1"/>
       <c r="K749" s="9"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="7"/>
@@ -13835,7 +14080,7 @@
       <c r="I750" s="1"/>
       <c r="K750" s="9"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="7"/>
@@ -13847,7 +14092,7 @@
       <c r="I751" s="1"/>
       <c r="K751" s="9"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="7"/>
@@ -13859,7 +14104,7 @@
       <c r="I752" s="1"/>
       <c r="K752" s="9"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="7"/>
@@ -13871,7 +14116,7 @@
       <c r="I753" s="1"/>
       <c r="K753" s="9"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="7"/>
@@ -13883,7 +14128,7 @@
       <c r="I754" s="1"/>
       <c r="K754" s="9"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="7"/>
@@ -13895,7 +14140,7 @@
       <c r="I755" s="1"/>
       <c r="K755" s="9"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="7"/>
@@ -13907,7 +14152,7 @@
       <c r="I756" s="1"/>
       <c r="K756" s="9"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="7"/>
@@ -13918,7 +14163,7 @@
       <c r="H757" s="1"/>
       <c r="I757" s="1"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="7"/>
@@ -13929,7 +14174,7 @@
       <c r="H758" s="1"/>
       <c r="I758" s="1"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="7"/>
@@ -13940,7 +14185,7 @@
       <c r="H759" s="1"/>
       <c r="I759" s="1"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="7"/>
@@ -13951,7 +14196,7 @@
       <c r="H760" s="1"/>
       <c r="I760" s="1"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="7"/>
@@ -13962,7 +14207,7 @@
       <c r="H761" s="1"/>
       <c r="I761" s="1"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="7"/>
@@ -13973,7 +14218,7 @@
       <c r="H762" s="1"/>
       <c r="I762" s="1"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="7"/>
@@ -13984,7 +14229,7 @@
       <c r="H763" s="1"/>
       <c r="I763" s="1"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="7"/>
@@ -13995,7 +14240,7 @@
       <c r="H764" s="1"/>
       <c r="I764" s="1"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="7"/>
@@ -14006,7 +14251,7 @@
       <c r="H765" s="1"/>
       <c r="I765" s="1"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="7"/>
@@ -14017,7 +14262,7 @@
       <c r="H766" s="1"/>
       <c r="I766" s="1"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="7"/>
@@ -14028,7 +14273,7 @@
       <c r="H767" s="1"/>
       <c r="I767" s="1"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="7"/>
@@ -14039,7 +14284,7 @@
       <c r="H768" s="1"/>
       <c r="I768" s="1"/>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="7"/>
@@ -14050,7 +14295,7 @@
       <c r="H769" s="1"/>
       <c r="I769" s="1"/>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="7"/>
@@ -14061,7 +14306,7 @@
       <c r="H770" s="1"/>
       <c r="I770" s="1"/>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="7"/>
@@ -14072,7 +14317,7 @@
       <c r="H771" s="1"/>
       <c r="I771" s="1"/>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="7"/>
@@ -14083,7 +14328,7 @@
       <c r="H772" s="1"/>
       <c r="I772" s="1"/>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="7"/>
@@ -14094,7 +14339,7 @@
       <c r="H773" s="1"/>
       <c r="I773" s="1"/>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="7"/>
@@ -14105,7 +14350,7 @@
       <c r="H774" s="1"/>
       <c r="I774" s="1"/>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="7"/>
@@ -14116,7 +14361,7 @@
       <c r="H775" s="1"/>
       <c r="I775" s="1"/>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="7"/>
@@ -14127,7 +14372,7 @@
       <c r="H776" s="1"/>
       <c r="I776" s="1"/>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="7"/>
@@ -14138,7 +14383,7 @@
       <c r="H777" s="1"/>
       <c r="I777" s="1"/>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="7"/>
@@ -14149,7 +14394,7 @@
       <c r="H778" s="1"/>
       <c r="I778" s="1"/>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="7"/>
@@ -14160,7 +14405,7 @@
       <c r="H779" s="1"/>
       <c r="I779" s="1"/>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="7"/>
@@ -14171,7 +14416,7 @@
       <c r="H780" s="1"/>
       <c r="I780" s="1"/>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="7"/>
@@ -14182,7 +14427,7 @@
       <c r="H781" s="1"/>
       <c r="I781" s="1"/>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="7"/>
@@ -14193,7 +14438,7 @@
       <c r="H782" s="1"/>
       <c r="I782" s="1"/>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="7"/>
@@ -14204,7 +14449,7 @@
       <c r="H783" s="1"/>
       <c r="I783" s="1"/>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="7"/>
@@ -14215,7 +14460,7 @@
       <c r="H784" s="1"/>
       <c r="I784" s="1"/>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="7"/>
@@ -14226,7 +14471,7 @@
       <c r="H785" s="1"/>
       <c r="I785" s="1"/>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="7"/>
@@ -14237,7 +14482,7 @@
       <c r="H786" s="1"/>
       <c r="I786" s="1"/>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="7"/>
@@ -14248,7 +14493,7 @@
       <c r="H787" s="1"/>
       <c r="I787" s="1"/>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="7"/>
@@ -14259,7 +14504,7 @@
       <c r="H788" s="1"/>
       <c r="I788" s="1"/>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="7"/>
@@ -14270,7 +14515,7 @@
       <c r="H789" s="1"/>
       <c r="I789" s="1"/>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="7"/>
@@ -14281,7 +14526,7 @@
       <c r="H790" s="1"/>
       <c r="I790" s="1"/>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="7"/>
@@ -14292,7 +14537,7 @@
       <c r="H791" s="1"/>
       <c r="I791" s="1"/>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="7"/>
@@ -14303,7 +14548,7 @@
       <c r="H792" s="1"/>
       <c r="I792" s="1"/>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="7"/>
@@ -14314,7 +14559,7 @@
       <c r="H793" s="1"/>
       <c r="I793" s="1"/>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="7"/>
@@ -14325,7 +14570,7 @@
       <c r="H794" s="1"/>
       <c r="I794" s="1"/>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="7"/>
@@ -14336,7 +14581,7 @@
       <c r="H795" s="1"/>
       <c r="I795" s="1"/>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="7"/>
@@ -14347,7 +14592,7 @@
       <c r="H796" s="1"/>
       <c r="I796" s="1"/>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="7"/>
@@ -14358,7 +14603,7 @@
       <c r="H797" s="1"/>
       <c r="I797" s="1"/>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="7"/>
@@ -14369,7 +14614,7 @@
       <c r="H798" s="1"/>
       <c r="I798" s="1"/>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="7"/>
@@ -14380,7 +14625,7 @@
       <c r="H799" s="1"/>
       <c r="I799" s="1"/>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="7"/>
@@ -14391,7 +14636,7 @@
       <c r="H800" s="1"/>
       <c r="I800" s="1"/>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="7"/>
@@ -14402,7 +14647,7 @@
       <c r="H801" s="1"/>
       <c r="I801" s="1"/>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="7"/>
@@ -14413,7 +14658,7 @@
       <c r="H802" s="1"/>
       <c r="I802" s="1"/>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="7"/>
@@ -14424,7 +14669,7 @@
       <c r="H803" s="1"/>
       <c r="I803" s="1"/>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="7"/>
@@ -14435,7 +14680,7 @@
       <c r="H804" s="1"/>
       <c r="I804" s="1"/>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="7"/>
@@ -14446,7 +14691,7 @@
       <c r="H805" s="1"/>
       <c r="I805" s="1"/>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="7"/>
@@ -14457,7 +14702,7 @@
       <c r="H806" s="1"/>
       <c r="I806" s="1"/>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="7"/>
@@ -14468,7 +14713,7 @@
       <c r="H807" s="1"/>
       <c r="I807" s="1"/>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="7"/>
@@ -14479,7 +14724,7 @@
       <c r="H808" s="1"/>
       <c r="I808" s="1"/>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="7"/>
@@ -14490,7 +14735,7 @@
       <c r="H809" s="1"/>
       <c r="I809" s="1"/>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="7"/>
@@ -14501,7 +14746,7 @@
       <c r="H810" s="1"/>
       <c r="I810" s="1"/>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="7"/>
@@ -14512,7 +14757,7 @@
       <c r="H811" s="1"/>
       <c r="I811" s="1"/>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="7"/>
@@ -14523,7 +14768,7 @@
       <c r="H812" s="1"/>
       <c r="I812" s="1"/>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="7"/>
@@ -14534,7 +14779,7 @@
       <c r="H813" s="1"/>
       <c r="I813" s="1"/>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="7"/>
@@ -14545,7 +14790,7 @@
       <c r="H814" s="1"/>
       <c r="I814" s="1"/>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="7"/>
@@ -14556,7 +14801,7 @@
       <c r="H815" s="1"/>
       <c r="I815" s="1"/>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="7"/>
@@ -14567,7 +14812,7 @@
       <c r="H816" s="1"/>
       <c r="I816" s="1"/>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="7"/>
@@ -14578,7 +14823,7 @@
       <c r="H817" s="1"/>
       <c r="I817" s="1"/>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="7"/>
@@ -14589,7 +14834,7 @@
       <c r="H818" s="1"/>
       <c r="I818" s="1"/>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="7"/>
@@ -14600,7 +14845,7 @@
       <c r="H819" s="1"/>
       <c r="I819" s="1"/>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="7"/>
@@ -14611,7 +14856,7 @@
       <c r="H820" s="1"/>
       <c r="I820" s="1"/>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="7"/>
@@ -14622,7 +14867,7 @@
       <c r="H821" s="1"/>
       <c r="I821" s="1"/>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
       <c r="C822" s="7"/>
@@ -14633,7 +14878,7 @@
       <c r="H822" s="1"/>
       <c r="I822" s="1"/>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="7"/>
@@ -14644,7 +14889,7 @@
       <c r="H823" s="1"/>
       <c r="I823" s="1"/>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="7"/>
@@ -14655,7 +14900,7 @@
       <c r="H824" s="1"/>
       <c r="I824" s="1"/>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="7"/>
@@ -14666,7 +14911,7 @@
       <c r="H825" s="1"/>
       <c r="I825" s="1"/>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
       <c r="C826" s="7"/>
@@ -14677,7 +14922,7 @@
       <c r="H826" s="1"/>
       <c r="I826" s="1"/>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="7"/>
@@ -14688,7 +14933,7 @@
       <c r="H827" s="1"/>
       <c r="I827" s="1"/>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
       <c r="C828" s="7"/>
@@ -14699,7 +14944,7 @@
       <c r="H828" s="1"/>
       <c r="I828" s="1"/>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="7"/>
@@ -14710,7 +14955,7 @@
       <c r="H829" s="1"/>
       <c r="I829" s="1"/>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
       <c r="C830" s="7"/>
@@ -14721,7 +14966,7 @@
       <c r="H830" s="1"/>
       <c r="I830" s="1"/>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="7"/>
@@ -14732,7 +14977,7 @@
       <c r="H831" s="1"/>
       <c r="I831" s="1"/>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
       <c r="C832" s="7"/>
@@ -14743,7 +14988,7 @@
       <c r="H832" s="1"/>
       <c r="I832" s="1"/>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="7"/>
@@ -14754,7 +14999,7 @@
       <c r="H833" s="1"/>
       <c r="I833" s="1"/>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
       <c r="C834" s="7"/>
@@ -14765,7 +15010,7 @@
       <c r="H834" s="1"/>
       <c r="I834" s="1"/>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="7"/>
@@ -14776,7 +15021,7 @@
       <c r="H835" s="1"/>
       <c r="I835" s="1"/>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
       <c r="C836" s="7"/>
@@ -14787,7 +15032,7 @@
       <c r="H836" s="1"/>
       <c r="I836" s="1"/>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="7"/>
@@ -14798,7 +15043,7 @@
       <c r="H837" s="1"/>
       <c r="I837" s="1"/>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
       <c r="C838" s="7"/>
@@ -14809,7 +15054,7 @@
       <c r="H838" s="1"/>
       <c r="I838" s="1"/>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="7"/>
@@ -14820,7 +15065,7 @@
       <c r="H839" s="1"/>
       <c r="I839" s="1"/>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
       <c r="C840" s="7"/>
@@ -14831,7 +15076,7 @@
       <c r="H840" s="1"/>
       <c r="I840" s="1"/>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B841" s="6"/>
       <c r="C841" s="7"/>
       <c r="E841" s="1"/>
@@ -14840,7 +15085,7 @@
       <c r="H841" s="1"/>
       <c r="I841" s="1"/>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B842" s="6"/>
       <c r="C842" s="7"/>
       <c r="E842" s="1"/>
@@ -14849,7 +15094,7 @@
       <c r="H842" s="1"/>
       <c r="I842" s="1"/>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B843" s="6"/>
       <c r="C843" s="7"/>
       <c r="E843" s="1"/>
@@ -14858,7 +15103,7 @@
       <c r="H843" s="1"/>
       <c r="I843" s="1"/>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B844" s="6"/>
       <c r="C844" s="7"/>
       <c r="E844" s="1"/>
@@ -14867,7 +15112,7 @@
       <c r="H844" s="1"/>
       <c r="I844" s="1"/>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B845" s="6"/>
       <c r="C845" s="7"/>
       <c r="E845" s="1"/>
@@ -14876,7 +15121,7 @@
       <c r="H845" s="1"/>
       <c r="I845" s="1"/>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B846" s="6"/>
       <c r="C846" s="7"/>
       <c r="E846" s="1"/>
@@ -14885,7 +15130,7 @@
       <c r="H846" s="1"/>
       <c r="I846" s="1"/>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B847" s="6"/>
       <c r="C847" s="7"/>
       <c r="E847" s="1"/>
@@ -14894,7 +15139,7 @@
       <c r="H847" s="1"/>
       <c r="I847" s="1"/>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B848" s="6"/>
       <c r="C848" s="7"/>
       <c r="E848" s="1"/>
@@ -14903,7 +15148,7 @@
       <c r="H848" s="1"/>
       <c r="I848" s="1"/>
     </row>
-    <row r="849" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="849" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B849" s="6"/>
       <c r="C849" s="7"/>
       <c r="E849" s="1"/>
@@ -14912,7 +15157,7 @@
       <c r="H849" s="1"/>
       <c r="I849" s="1"/>
     </row>
-    <row r="850" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="850" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B850" s="6"/>
       <c r="C850" s="7"/>
       <c r="E850" s="1"/>
@@ -14921,7 +15166,7 @@
       <c r="H850" s="1"/>
       <c r="I850" s="1"/>
     </row>
-    <row r="851" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="851" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B851" s="6"/>
       <c r="C851" s="7"/>
       <c r="E851" s="1"/>
@@ -14930,7 +15175,7 @@
       <c r="H851" s="1"/>
       <c r="I851" s="1"/>
     </row>
-    <row r="852" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="852" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B852" s="6"/>
       <c r="C852" s="7"/>
       <c r="E852" s="1"/>
@@ -14939,7 +15184,7 @@
       <c r="H852" s="1"/>
       <c r="I852" s="1"/>
     </row>
-    <row r="853" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="853" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B853" s="6"/>
       <c r="C853" s="7"/>
       <c r="E853" s="1"/>
@@ -14948,7 +15193,7 @@
       <c r="H853" s="1"/>
       <c r="I853" s="1"/>
     </row>
-    <row r="854" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="854" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B854" s="6"/>
       <c r="C854" s="7"/>
       <c r="E854" s="1"/>
@@ -14957,7 +15202,7 @@
       <c r="H854" s="1"/>
       <c r="I854" s="1"/>
     </row>
-    <row r="855" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="855" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B855" s="6"/>
       <c r="C855" s="7"/>
       <c r="E855" s="1"/>
@@ -14966,7 +15211,7 @@
       <c r="H855" s="1"/>
       <c r="I855" s="1"/>
     </row>
-    <row r="856" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="856" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B856" s="6"/>
       <c r="C856" s="7"/>
       <c r="E856" s="1"/>
@@ -14975,7 +15220,7 @@
       <c r="H856" s="1"/>
       <c r="I856" s="1"/>
     </row>
-    <row r="857" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="857" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B857" s="6"/>
       <c r="C857" s="7"/>
       <c r="E857" s="1"/>
@@ -14984,7 +15229,7 @@
       <c r="H857" s="1"/>
       <c r="I857" s="1"/>
     </row>
-    <row r="858" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="858" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B858" s="6"/>
       <c r="C858" s="7"/>
       <c r="E858" s="1"/>
@@ -14993,7 +15238,7 @@
       <c r="H858" s="1"/>
       <c r="I858" s="1"/>
     </row>
-    <row r="859" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="859" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B859" s="6"/>
       <c r="C859" s="7"/>
       <c r="E859" s="1"/>
@@ -15002,7 +15247,7 @@
       <c r="H859" s="1"/>
       <c r="I859" s="1"/>
     </row>
-    <row r="860" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="860" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B860" s="6"/>
       <c r="C860" s="7"/>
       <c r="E860" s="1"/>
@@ -15011,7 +15256,7 @@
       <c r="H860" s="1"/>
       <c r="I860" s="1"/>
     </row>
-    <row r="861" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="861" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B861" s="6"/>
       <c r="C861" s="7"/>
       <c r="E861" s="1"/>
@@ -15020,7 +15265,7 @@
       <c r="H861" s="1"/>
       <c r="I861" s="1"/>
     </row>
-    <row r="862" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="862" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B862" s="6"/>
       <c r="C862" s="7"/>
       <c r="E862" s="1"/>
@@ -15029,7 +15274,7 @@
       <c r="H862" s="1"/>
       <c r="I862" s="1"/>
     </row>
-    <row r="863" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="863" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B863" s="6"/>
       <c r="C863" s="7"/>
       <c r="E863" s="1"/>
@@ -15038,7 +15283,7 @@
       <c r="H863" s="1"/>
       <c r="I863" s="1"/>
     </row>
-    <row r="864" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="864" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B864" s="6"/>
       <c r="C864" s="7"/>
       <c r="E864" s="1"/>
@@ -15047,7 +15292,7 @@
       <c r="H864" s="1"/>
       <c r="I864" s="1"/>
     </row>
-    <row r="865" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B865" s="6"/>
       <c r="C865" s="7"/>
       <c r="E865" s="1"/>
@@ -15056,7 +15301,7 @@
       <c r="H865" s="1"/>
       <c r="I865" s="1"/>
     </row>
-    <row r="866" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="866" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B866" s="6"/>
       <c r="C866" s="7"/>
       <c r="E866" s="1"/>
@@ -15065,7 +15310,7 @@
       <c r="H866" s="1"/>
       <c r="I866" s="1"/>
     </row>
-    <row r="867" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="867" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B867" s="6"/>
       <c r="C867" s="7"/>
       <c r="E867" s="1"/>
@@ -15074,7 +15319,7 @@
       <c r="H867" s="1"/>
       <c r="I867" s="1"/>
     </row>
-    <row r="868" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="868" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B868" s="6"/>
       <c r="C868" s="7"/>
       <c r="E868" s="1"/>
@@ -15083,7 +15328,7 @@
       <c r="H868" s="1"/>
       <c r="I868" s="1"/>
     </row>
-    <row r="869" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="869" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B869" s="6"/>
       <c r="C869" s="7"/>
       <c r="E869" s="1"/>
@@ -15092,7 +15337,7 @@
       <c r="H869" s="1"/>
       <c r="I869" s="1"/>
     </row>
-    <row r="870" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="870" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B870" s="6"/>
       <c r="C870" s="7"/>
       <c r="E870" s="1"/>
@@ -15101,7 +15346,7 @@
       <c r="H870" s="1"/>
       <c r="I870" s="1"/>
     </row>
-    <row r="871" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="871" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B871" s="6"/>
       <c r="C871" s="7"/>
       <c r="E871" s="1"/>
@@ -15110,7 +15355,7 @@
       <c r="H871" s="1"/>
       <c r="I871" s="1"/>
     </row>
-    <row r="872" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="872" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B872" s="6"/>
       <c r="C872" s="7"/>
       <c r="E872" s="1"/>
@@ -15119,7 +15364,7 @@
       <c r="H872" s="1"/>
       <c r="I872" s="1"/>
     </row>
-    <row r="873" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="873" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B873" s="6"/>
       <c r="C873" s="7"/>
       <c r="E873" s="1"/>
@@ -15128,7 +15373,7 @@
       <c r="H873" s="1"/>
       <c r="I873" s="1"/>
     </row>
-    <row r="874" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="874" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B874" s="6"/>
       <c r="C874" s="7"/>
       <c r="E874" s="1"/>
@@ -15137,7 +15382,7 @@
       <c r="H874" s="1"/>
       <c r="I874" s="1"/>
     </row>
-    <row r="875" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="875" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B875" s="6"/>
       <c r="C875" s="7"/>
       <c r="E875" s="1"/>
@@ -15146,7 +15391,7 @@
       <c r="H875" s="1"/>
       <c r="I875" s="1"/>
     </row>
-    <row r="876" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="876" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B876" s="6"/>
       <c r="C876" s="7"/>
       <c r="E876" s="1"/>
@@ -15155,7 +15400,7 @@
       <c r="H876" s="1"/>
       <c r="I876" s="1"/>
     </row>
-    <row r="877" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="877" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B877" s="6"/>
       <c r="C877" s="7"/>
       <c r="E877" s="1"/>
@@ -15164,7 +15409,7 @@
       <c r="H877" s="1"/>
       <c r="I877" s="1"/>
     </row>
-    <row r="878" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="878" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B878" s="6"/>
       <c r="C878" s="7"/>
       <c r="E878" s="1"/>
@@ -15173,7 +15418,7 @@
       <c r="H878" s="1"/>
       <c r="I878" s="1"/>
     </row>
-    <row r="879" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="879" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B879" s="6"/>
       <c r="C879" s="7"/>
       <c r="E879" s="1"/>
@@ -15182,7 +15427,7 @@
       <c r="H879" s="1"/>
       <c r="I879" s="1"/>
     </row>
-    <row r="880" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="880" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B880" s="6"/>
       <c r="C880" s="7"/>
       <c r="E880" s="1"/>
@@ -15191,7 +15436,7 @@
       <c r="H880" s="1"/>
       <c r="I880" s="1"/>
     </row>
-    <row r="881" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="881" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B881" s="6"/>
       <c r="C881" s="7"/>
       <c r="E881" s="1"/>
@@ -15200,7 +15445,7 @@
       <c r="H881" s="1"/>
       <c r="I881" s="1"/>
     </row>
-    <row r="882" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="882" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B882" s="6"/>
       <c r="C882" s="7"/>
       <c r="E882" s="1"/>
@@ -15209,7 +15454,7 @@
       <c r="H882" s="1"/>
       <c r="I882" s="1"/>
     </row>
-    <row r="883" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="883" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B883" s="6"/>
       <c r="C883" s="7"/>
       <c r="E883" s="1"/>
@@ -15218,7 +15463,7 @@
       <c r="H883" s="1"/>
       <c r="I883" s="1"/>
     </row>
-    <row r="884" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="884" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B884" s="6"/>
       <c r="C884" s="7"/>
       <c r="E884" s="1"/>
@@ -15227,7 +15472,7 @@
       <c r="H884" s="1"/>
       <c r="I884" s="1"/>
     </row>
-    <row r="885" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="885" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B885" s="6"/>
       <c r="C885" s="7"/>
       <c r="E885" s="1"/>
@@ -15236,7 +15481,7 @@
       <c r="H885" s="1"/>
       <c r="I885" s="1"/>
     </row>
-    <row r="886" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="886" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B886" s="6"/>
       <c r="C886" s="7"/>
       <c r="E886" s="1"/>
@@ -15245,7 +15490,7 @@
       <c r="H886" s="1"/>
       <c r="I886" s="1"/>
     </row>
-    <row r="887" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="887" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B887" s="6"/>
       <c r="C887" s="7"/>
       <c r="E887" s="1"/>
@@ -15254,7 +15499,7 @@
       <c r="H887" s="1"/>
       <c r="I887" s="1"/>
     </row>
-    <row r="888" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="888" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B888" s="6"/>
       <c r="C888" s="7"/>
       <c r="E888" s="1"/>
@@ -15263,7 +15508,7 @@
       <c r="H888" s="1"/>
       <c r="I888" s="1"/>
     </row>
-    <row r="889" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="889" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B889" s="6"/>
       <c r="C889" s="7"/>
       <c r="E889" s="1"/>
@@ -15272,7 +15517,7 @@
       <c r="H889" s="1"/>
       <c r="I889" s="1"/>
     </row>
-    <row r="890" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="890" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B890" s="6"/>
       <c r="C890" s="7"/>
       <c r="E890" s="1"/>
@@ -15281,7 +15526,7 @@
       <c r="H890" s="1"/>
       <c r="I890" s="1"/>
     </row>
-    <row r="891" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="891" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B891" s="6"/>
       <c r="C891" s="7"/>
       <c r="E891" s="1"/>
@@ -15290,7 +15535,7 @@
       <c r="H891" s="1"/>
       <c r="I891" s="1"/>
     </row>
-    <row r="892" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="892" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B892" s="6"/>
       <c r="C892" s="7"/>
       <c r="E892" s="1"/>
@@ -15299,7 +15544,7 @@
       <c r="H892" s="1"/>
       <c r="I892" s="1"/>
     </row>
-    <row r="893" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="893" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B893" s="6"/>
       <c r="C893" s="7"/>
       <c r="E893" s="1"/>
@@ -15308,7 +15553,7 @@
       <c r="H893" s="1"/>
       <c r="I893" s="1"/>
     </row>
-    <row r="894" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="894" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B894" s="6"/>
       <c r="C894" s="7"/>
       <c r="E894" s="1"/>
@@ -15317,7 +15562,7 @@
       <c r="H894" s="1"/>
       <c r="I894" s="1"/>
     </row>
-    <row r="895" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="895" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B895" s="6"/>
       <c r="C895" s="7"/>
       <c r="E895" s="1"/>
@@ -15326,7 +15571,7 @@
       <c r="H895" s="1"/>
       <c r="I895" s="1"/>
     </row>
-    <row r="896" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="896" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B896" s="6"/>
       <c r="C896" s="7"/>
       <c r="E896" s="1"/>
@@ -15335,7 +15580,7 @@
       <c r="H896" s="1"/>
       <c r="I896" s="1"/>
     </row>
-    <row r="897" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="897" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B897" s="6"/>
       <c r="C897" s="7"/>
       <c r="E897" s="1"/>
@@ -15344,7 +15589,7 @@
       <c r="H897" s="1"/>
       <c r="I897" s="1"/>
     </row>
-    <row r="898" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="898" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B898" s="6"/>
       <c r="C898" s="7"/>
       <c r="E898" s="1"/>
@@ -15353,7 +15598,7 @@
       <c r="H898" s="1"/>
       <c r="I898" s="1"/>
     </row>
-    <row r="899" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="899" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B899" s="6"/>
       <c r="C899" s="7"/>
       <c r="E899" s="1"/>
@@ -15362,7 +15607,7 @@
       <c r="H899" s="1"/>
       <c r="I899" s="1"/>
     </row>
-    <row r="900" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="900" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B900" s="6"/>
       <c r="C900" s="7"/>
       <c r="E900" s="1"/>
@@ -15371,7 +15616,7 @@
       <c r="H900" s="1"/>
       <c r="I900" s="1"/>
     </row>
-    <row r="901" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="901" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B901" s="6"/>
       <c r="C901" s="7"/>
       <c r="E901" s="1"/>
@@ -15380,7 +15625,7 @@
       <c r="H901" s="1"/>
       <c r="I901" s="1"/>
     </row>
-    <row r="902" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="902" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B902" s="6"/>
       <c r="C902" s="7"/>
       <c r="E902" s="1"/>
@@ -15389,7 +15634,7 @@
       <c r="H902" s="1"/>
       <c r="I902" s="1"/>
     </row>
-    <row r="903" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="903" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B903" s="6"/>
       <c r="C903" s="7"/>
       <c r="E903" s="1"/>
@@ -15398,7 +15643,7 @@
       <c r="H903" s="1"/>
       <c r="I903" s="1"/>
     </row>
-    <row r="904" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="904" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B904" s="6"/>
       <c r="C904" s="7"/>
       <c r="E904" s="1"/>
@@ -15407,7 +15652,7 @@
       <c r="H904" s="1"/>
       <c r="I904" s="1"/>
     </row>
-    <row r="905" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="905" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B905" s="6"/>
       <c r="C905" s="7"/>
       <c r="E905" s="1"/>
@@ -15416,7 +15661,7 @@
       <c r="H905" s="1"/>
       <c r="I905" s="1"/>
     </row>
-    <row r="906" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="906" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B906" s="6"/>
       <c r="C906" s="7"/>
       <c r="E906" s="1"/>
@@ -15425,7 +15670,7 @@
       <c r="H906" s="1"/>
       <c r="I906" s="1"/>
     </row>
-    <row r="907" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="907" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B907" s="6"/>
       <c r="C907" s="7"/>
       <c r="E907" s="1"/>
@@ -15434,7 +15679,7 @@
       <c r="H907" s="1"/>
       <c r="I907" s="1"/>
     </row>
-    <row r="908" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="908" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B908" s="6"/>
       <c r="C908" s="7"/>
       <c r="E908" s="1"/>
@@ -15443,7 +15688,7 @@
       <c r="H908" s="1"/>
       <c r="I908" s="1"/>
     </row>
-    <row r="909" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="909" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B909" s="6"/>
       <c r="C909" s="7"/>
       <c r="E909" s="1"/>
@@ -15452,7 +15697,7 @@
       <c r="H909" s="1"/>
       <c r="I909" s="1"/>
     </row>
-    <row r="910" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="910" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B910" s="6"/>
       <c r="C910" s="7"/>
       <c r="E910" s="1"/>
@@ -15461,7 +15706,7 @@
       <c r="H910" s="1"/>
       <c r="I910" s="1"/>
     </row>
-    <row r="911" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="911" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B911" s="6"/>
       <c r="C911" s="7"/>
       <c r="E911" s="1"/>
@@ -15470,7 +15715,7 @@
       <c r="H911" s="1"/>
       <c r="I911" s="1"/>
     </row>
-    <row r="912" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="912" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B912" s="6"/>
       <c r="C912" s="7"/>
       <c r="E912" s="1"/>
@@ -15479,7 +15724,7 @@
       <c r="H912" s="1"/>
       <c r="I912" s="1"/>
     </row>
-    <row r="913" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="913" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B913" s="6"/>
       <c r="C913" s="7"/>
       <c r="E913" s="1"/>
@@ -15488,7 +15733,7 @@
       <c r="H913" s="1"/>
       <c r="I913" s="1"/>
     </row>
-    <row r="914" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="914" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B914" s="6"/>
       <c r="C914" s="7"/>
       <c r="E914" s="1"/>
@@ -15497,7 +15742,7 @@
       <c r="H914" s="1"/>
       <c r="I914" s="1"/>
     </row>
-    <row r="915" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="915" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B915" s="6"/>
       <c r="C915" s="7"/>
       <c r="E915" s="1"/>
@@ -15506,7 +15751,7 @@
       <c r="H915" s="1"/>
       <c r="I915" s="1"/>
     </row>
-    <row r="916" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="916" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B916" s="6"/>
       <c r="C916" s="7"/>
       <c r="E916" s="1"/>
@@ -15515,7 +15760,7 @@
       <c r="H916" s="1"/>
       <c r="I916" s="1"/>
     </row>
-    <row r="917" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="917" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B917" s="6"/>
       <c r="C917" s="7"/>
       <c r="E917" s="1"/>
@@ -15524,7 +15769,7 @@
       <c r="H917" s="1"/>
       <c r="I917" s="1"/>
     </row>
-    <row r="918" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="918" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B918" s="6"/>
       <c r="C918" s="7"/>
       <c r="E918" s="1"/>
@@ -15533,7 +15778,7 @@
       <c r="H918" s="1"/>
       <c r="I918" s="1"/>
     </row>
-    <row r="919" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="919" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B919" s="6"/>
       <c r="C919" s="7"/>
       <c r="E919" s="1"/>
@@ -15542,7 +15787,7 @@
       <c r="H919" s="1"/>
       <c r="I919" s="1"/>
     </row>
-    <row r="920" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="920" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B920" s="6"/>
       <c r="C920" s="7"/>
       <c r="E920" s="1"/>
@@ -15551,7 +15796,7 @@
       <c r="H920" s="1"/>
       <c r="I920" s="1"/>
     </row>
-    <row r="921" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="921" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B921" s="6"/>
       <c r="C921" s="7"/>
       <c r="E921" s="1"/>
@@ -15560,7 +15805,7 @@
       <c r="H921" s="1"/>
       <c r="I921" s="1"/>
     </row>
-    <row r="922" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="922" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B922" s="6"/>
       <c r="C922" s="7"/>
       <c r="E922" s="1"/>
@@ -15569,7 +15814,7 @@
       <c r="H922" s="1"/>
       <c r="I922" s="1"/>
     </row>
-    <row r="923" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="923" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B923" s="6"/>
       <c r="C923" s="7"/>
       <c r="E923" s="1"/>
@@ -15578,7 +15823,7 @@
       <c r="H923" s="1"/>
       <c r="I923" s="1"/>
     </row>
-    <row r="924" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="924" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B924" s="6"/>
       <c r="C924" s="7"/>
       <c r="E924" s="1"/>
@@ -15587,7 +15832,7 @@
       <c r="H924" s="1"/>
       <c r="I924" s="1"/>
     </row>
-    <row r="925" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="925" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B925" s="6"/>
       <c r="C925" s="7"/>
       <c r="E925" s="1"/>
@@ -15596,7 +15841,7 @@
       <c r="H925" s="1"/>
       <c r="I925" s="1"/>
     </row>
-    <row r="926" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="926" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B926" s="6"/>
       <c r="C926" s="7"/>
       <c r="E926" s="1"/>
@@ -15605,7 +15850,7 @@
       <c r="H926" s="1"/>
       <c r="I926" s="1"/>
     </row>
-    <row r="927" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="927" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B927" s="6"/>
       <c r="C927" s="7"/>
       <c r="E927" s="1"/>
@@ -15614,7 +15859,7 @@
       <c r="H927" s="1"/>
       <c r="I927" s="1"/>
     </row>
-    <row r="928" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="928" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B928" s="6"/>
       <c r="C928" s="7"/>
       <c r="E928" s="1"/>
@@ -15623,7 +15868,7 @@
       <c r="H928" s="1"/>
       <c r="I928" s="1"/>
     </row>
-    <row r="929" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="929" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B929" s="6"/>
       <c r="C929" s="7"/>
       <c r="E929" s="1"/>
@@ -15632,7 +15877,7 @@
       <c r="H929" s="1"/>
       <c r="I929" s="1"/>
     </row>
-    <row r="930" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="930" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B930" s="6"/>
       <c r="C930" s="7"/>
       <c r="E930" s="1"/>
@@ -15641,7 +15886,7 @@
       <c r="H930" s="1"/>
       <c r="I930" s="1"/>
     </row>
-    <row r="931" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="931" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B931" s="6"/>
       <c r="C931" s="7"/>
       <c r="E931" s="1"/>
@@ -15650,7 +15895,7 @@
       <c r="H931" s="1"/>
       <c r="I931" s="1"/>
     </row>
-    <row r="932" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="932" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B932" s="6"/>
       <c r="C932" s="7"/>
       <c r="E932" s="1"/>
@@ -15659,7 +15904,7 @@
       <c r="H932" s="1"/>
       <c r="I932" s="1"/>
     </row>
-    <row r="933" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="933" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B933" s="6"/>
       <c r="C933" s="7"/>
       <c r="E933" s="1"/>
@@ -15668,7 +15913,7 @@
       <c r="H933" s="1"/>
       <c r="I933" s="1"/>
     </row>
-    <row r="934" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="934" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B934" s="6"/>
       <c r="C934" s="7"/>
       <c r="E934" s="1"/>
@@ -15677,7 +15922,7 @@
       <c r="H934" s="1"/>
       <c r="I934" s="1"/>
     </row>
-    <row r="935" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="935" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B935" s="6"/>
       <c r="C935" s="7"/>
       <c r="E935" s="1"/>

--- a/data/spike.xlsx
+++ b/data/spike.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7817D628-02A5-4E87-B628-AE428D0A7A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727481A4-E34D-4E0E-B6E3-A40D27F41370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1176" yWindow="0" windowWidth="10932" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="62">
   <si>
     <t>players</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>05/09/2024</t>
+  </si>
+  <si>
+    <t>08/10/2024</t>
   </si>
 </sst>
 </file>
@@ -612,16 +615,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="8.85546875" style="10"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -648,7 +651,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -679,7 +682,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -724,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -738,7 +741,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E61" si="0">IF(F4&gt;G4,1,0)</f>
+        <f t="shared" ref="E4:E67" si="0">IF(F4&gt;G4,1,0)</f>
         <v>1</v>
       </c>
       <c r="F4" s="5">
@@ -755,7 +758,7 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4:K61" si="1">IF(OR(OR(AND(OR(A4=B4,A4=C4,A4=D4,B4=C4,B4=D4,C4=D4),OR(A4&lt;&gt;"",D4&lt;&gt;"")),H4&gt;MAX(F4:G4),B4=C4),OR(AND(ISBLANK(A4)=FALSE,ISNA(VLOOKUP(A4,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B4,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C4,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D4)=FALSE,ISNA(VLOOKUP(D4,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A4:D4)=1,COUNTBLANK(A4:D4)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K4:K67" si="1">IF(OR(OR(AND(OR(A4=B4,A4=C4,A4=D4,B4=C4,B4=D4,C4=D4),OR(A4&lt;&gt;"",D4&lt;&gt;"")),H4&gt;MAX(F4:G4),B4=C4),OR(AND(ISBLANK(A4)=FALSE,ISNA(VLOOKUP(A4,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B4,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C4,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D4)=FALSE,ISNA(VLOOKUP(D4,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A4:D4)=1,COUNTBLANK(A4:D4)=3))),"ERREUR","")</f>
         <v/>
       </c>
       <c r="L4" s="1"/>
@@ -769,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -814,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -859,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -904,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -949,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -994,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1039,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
@@ -1708,7 +1711,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -1747,7 +1750,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>12</v>
       </c>
@@ -1786,7 +1789,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
@@ -1825,7 +1828,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -1864,7 +1867,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -1903,7 +1906,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
@@ -1942,7 +1945,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -1981,7 +1984,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
@@ -2020,7 +2023,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
@@ -2059,7 +2062,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>17</v>
       </c>
@@ -2098,7 +2101,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>12</v>
       </c>
@@ -2137,7 +2140,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -2176,7 +2179,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -2215,7 +2218,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2254,7 +2257,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -2293,7 +2296,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
@@ -2332,7 +2335,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>12</v>
       </c>
@@ -2371,7 +2374,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>12</v>
       </c>
@@ -2410,7 +2413,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2449,7 +2452,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>
@@ -2488,7 +2491,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
@@ -2527,7 +2530,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2566,7 +2569,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -2605,7 +2608,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>11</v>
       </c>
@@ -2644,7 +2647,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
@@ -2683,7 +2686,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>12</v>
       </c>
@@ -2722,7 +2725,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>13</v>
       </c>
@@ -2761,7 +2764,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>13</v>
       </c>
@@ -2800,7 +2803,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>12</v>
       </c>
@@ -2839,7 +2842,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>17</v>
       </c>
@@ -2878,7 +2881,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>17</v>
       </c>
@@ -2917,7 +2920,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>17</v>
       </c>
@@ -2956,7 +2959,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>12</v>
       </c>
@@ -2995,7 +2998,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>12</v>
       </c>
@@ -3034,7 +3037,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>11</v>
       </c>
@@ -3073,7 +3076,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>12</v>
       </c>
@@ -3112,126 +3115,280 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
+        <v>11</v>
+      </c>
+      <c r="G62" s="5">
+        <v>7</v>
+      </c>
+      <c r="H62" s="1">
+        <v>11</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J62" s="1"/>
-      <c r="K62" s="9"/>
+      <c r="K62" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>11</v>
+      </c>
+      <c r="G63" s="5">
+        <v>7</v>
+      </c>
+      <c r="H63" s="1">
+        <v>11</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J63" s="1"/>
-      <c r="K63" s="9"/>
+      <c r="K63" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>11</v>
+      </c>
+      <c r="G64" s="5">
+        <v>7</v>
+      </c>
+      <c r="H64" s="1">
+        <v>11</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J64" s="1"/>
-      <c r="K64" s="9"/>
+      <c r="K64" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>11</v>
+      </c>
+      <c r="G65" s="5">
+        <v>9</v>
+      </c>
+      <c r="H65" s="1">
+        <v>11</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J65" s="1"/>
-      <c r="K65" s="9"/>
+      <c r="K65" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F66" s="5">
+        <v>13</v>
+      </c>
+      <c r="G66" s="5">
+        <v>11</v>
+      </c>
+      <c r="H66" s="1">
+        <v>11</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J66" s="1"/>
-      <c r="K66" s="9"/>
+      <c r="K66" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>11</v>
+      </c>
+      <c r="G67" s="5">
+        <v>6</v>
+      </c>
+      <c r="H67" s="1">
+        <v>11</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J67" s="1"/>
-      <c r="K67" s="9"/>
+      <c r="K67" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" ref="E68" si="2">IF(F68&gt;G68,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
+        <v>21</v>
+      </c>
+      <c r="G68" s="5">
+        <v>19</v>
+      </c>
+      <c r="H68" s="1">
+        <v>21</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J68" s="1"/>
-      <c r="K68" s="9"/>
+      <c r="K68" s="9" t="str">
+        <f t="shared" ref="K68" si="3">IF(OR(OR(AND(OR(A68=B68,A68=C68,A68=D68,B68=C68,B68=D68,C68=D68),OR(A68&lt;&gt;"",D68&lt;&gt;"")),H68&gt;MAX(F68:G68),B68=C68),OR(AND(ISBLANK(A68)=FALSE,ISNA(VLOOKUP(A68,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B68,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C68,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D68)=FALSE,ISNA(VLOOKUP(D68,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A68:D68)=1,COUNTBLANK(A68:D68)=3))),"ERREUR","")</f>
+        <v/>
+      </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
@@ -3248,7 +3405,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
@@ -3265,7 +3422,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
@@ -3282,7 +3439,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
@@ -3299,7 +3456,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
@@ -3316,7 +3473,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
@@ -3333,7 +3490,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
@@ -3350,7 +3507,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
@@ -3367,7 +3524,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
@@ -3384,7 +3541,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
@@ -3401,7 +3558,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
@@ -3418,7 +3575,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
@@ -3435,7 +3592,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
@@ -3452,7 +3609,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
@@ -3469,7 +3626,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
@@ -3486,7 +3643,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
@@ -3503,7 +3660,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
@@ -3520,7 +3677,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
@@ -3537,7 +3694,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
@@ -3554,7 +3711,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
@@ -3571,7 +3728,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
@@ -3588,7 +3745,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
@@ -3605,7 +3762,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
@@ -3622,7 +3779,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
@@ -3639,7 +3796,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
@@ -3656,7 +3813,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
@@ -3673,7 +3830,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
@@ -3690,7 +3847,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
@@ -3707,7 +3864,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
@@ -3724,7 +3881,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
@@ -3741,7 +3898,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
@@ -3758,7 +3915,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
@@ -3775,7 +3932,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
@@ -3792,7 +3949,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
@@ -3809,7 +3966,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
@@ -3826,7 +3983,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
@@ -3843,7 +4000,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
@@ -3860,7 +4017,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
@@ -3877,7 +4034,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
@@ -3894,7 +4051,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
@@ -3911,7 +4068,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
@@ -3928,7 +4085,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
@@ -3945,7 +4102,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
@@ -3962,7 +4119,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
@@ -3979,7 +4136,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
@@ -3996,7 +4153,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
@@ -4013,7 +4170,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
@@ -4030,7 +4187,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
@@ -4047,7 +4204,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
@@ -4064,7 +4221,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
@@ -4081,7 +4238,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
@@ -4098,7 +4255,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
@@ -4115,7 +4272,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
@@ -4132,7 +4289,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
@@ -4149,7 +4306,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
@@ -4166,7 +4323,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
@@ -4183,7 +4340,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
@@ -4200,7 +4357,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
@@ -4217,7 +4374,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
@@ -4234,7 +4391,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
@@ -4251,7 +4408,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
@@ -4268,7 +4425,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
@@ -4285,7 +4442,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
@@ -4302,7 +4459,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
@@ -4319,7 +4476,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
@@ -4336,7 +4493,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
@@ -4353,7 +4510,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
@@ -4370,7 +4527,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
@@ -4387,7 +4544,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
@@ -4404,7 +4561,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
@@ -4421,7 +4578,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
@@ -4438,7 +4595,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
@@ -4455,7 +4612,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
@@ -4472,7 +4629,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
@@ -4489,7 +4646,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
@@ -4506,7 +4663,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
@@ -4523,7 +4680,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="7"/>
@@ -4540,7 +4697,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="7"/>
@@ -4557,7 +4714,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
@@ -4574,7 +4731,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
@@ -4591,7 +4748,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="7"/>
@@ -4608,7 +4765,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="7"/>
@@ -4625,7 +4782,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="7"/>
@@ -4642,7 +4799,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
@@ -4659,7 +4816,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="7"/>
@@ -4676,7 +4833,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="7"/>
@@ -4693,7 +4850,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="7"/>
@@ -4710,7 +4867,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="7"/>
@@ -4727,7 +4884,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="7"/>
@@ -4744,7 +4901,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="7"/>
@@ -4761,7 +4918,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="7"/>
@@ -4778,7 +4935,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="7"/>
@@ -4795,7 +4952,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="7"/>
@@ -4812,7 +4969,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="7"/>
@@ -4829,7 +4986,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="7"/>
@@ -4846,7 +5003,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="7"/>
@@ -4863,7 +5020,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="7"/>
@@ -4880,7 +5037,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="7"/>
@@ -4897,7 +5054,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="7"/>
@@ -4914,7 +5071,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="7"/>
@@ -4931,7 +5088,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="7"/>
@@ -4948,7 +5105,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="7"/>
@@ -4965,7 +5122,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="7"/>
@@ -4982,7 +5139,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="7"/>
@@ -4999,7 +5156,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="7"/>
@@ -5016,7 +5173,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="7"/>
@@ -5033,7 +5190,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="7"/>
@@ -5050,7 +5207,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
@@ -5067,7 +5224,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
@@ -5084,7 +5241,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="7"/>
@@ -5101,7 +5258,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="7"/>
@@ -5118,7 +5275,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
@@ -5135,7 +5292,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="7"/>
@@ -5152,7 +5309,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="7"/>
@@ -5169,7 +5326,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="7"/>
@@ -5186,7 +5343,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
@@ -5203,7 +5360,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="7"/>
@@ -5220,7 +5377,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
@@ -5237,7 +5394,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="7"/>
@@ -5254,7 +5411,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="7"/>
@@ -5271,7 +5428,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="7"/>
@@ -5288,7 +5445,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="7"/>
@@ -5305,7 +5462,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="7"/>
@@ -5322,7 +5479,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="7"/>
@@ -5339,7 +5496,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="7"/>
@@ -5356,7 +5513,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="7"/>
@@ -5373,7 +5530,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="7"/>
@@ -5390,7 +5547,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="7"/>
@@ -5407,7 +5564,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="7"/>
@@ -5424,7 +5581,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="7"/>
@@ -5441,7 +5598,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="7"/>
@@ -5458,7 +5615,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="7"/>
@@ -5475,7 +5632,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="7"/>
@@ -5492,7 +5649,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="7"/>
@@ -5509,7 +5666,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="7"/>
@@ -5526,7 +5683,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="7"/>
@@ -5543,7 +5700,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="7"/>
@@ -5560,7 +5717,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="7"/>
@@ -5577,7 +5734,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="7"/>
@@ -5594,7 +5751,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="7"/>
@@ -5611,7 +5768,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="7"/>
@@ -5628,7 +5785,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="7"/>
@@ -5645,7 +5802,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="7"/>
@@ -5662,7 +5819,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="7"/>
@@ -5679,7 +5836,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="7"/>
@@ -5696,7 +5853,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="7"/>
@@ -5713,7 +5870,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="7"/>
@@ -5730,7 +5887,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="7"/>
@@ -5747,7 +5904,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="7"/>
@@ -5764,7 +5921,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="7"/>
@@ -5781,7 +5938,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="7"/>
@@ -5798,7 +5955,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="7"/>
@@ -5815,7 +5972,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="7"/>
@@ -5832,7 +5989,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="7"/>
@@ -5849,7 +6006,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="7"/>
@@ -5866,7 +6023,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="7"/>
@@ -5883,7 +6040,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="7"/>
@@ -5900,7 +6057,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="7"/>
@@ -5917,7 +6074,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="7"/>
@@ -5934,7 +6091,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="7"/>
@@ -5951,7 +6108,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="7"/>
@@ -5968,7 +6125,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="7"/>
@@ -5985,7 +6142,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="7"/>
@@ -6002,7 +6159,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="7"/>
@@ -6019,7 +6176,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="7"/>
@@ -6036,7 +6193,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="7"/>
@@ -6053,7 +6210,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="7"/>
@@ -6070,7 +6227,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="7"/>
@@ -6087,7 +6244,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="7"/>
@@ -6104,7 +6261,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="7"/>
@@ -6121,7 +6278,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="7"/>
@@ -6138,7 +6295,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="7"/>
@@ -6155,7 +6312,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="7"/>
@@ -6172,7 +6329,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="7"/>
@@ -6189,7 +6346,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="7"/>
@@ -6206,7 +6363,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="7"/>
@@ -6223,7 +6380,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="7"/>
@@ -6240,7 +6397,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="7"/>
@@ -6257,7 +6414,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="7"/>
@@ -6274,7 +6431,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="7"/>
@@ -6291,7 +6448,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="7"/>
@@ -6308,7 +6465,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="7"/>
@@ -6325,7 +6482,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="7"/>
@@ -6342,7 +6499,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="7"/>
@@ -6359,7 +6516,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="7"/>
@@ -6376,7 +6533,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="7"/>
@@ -6393,7 +6550,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="7"/>
@@ -6410,7 +6567,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="7"/>
@@ -6427,7 +6584,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="7"/>
@@ -6444,7 +6601,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="7"/>
@@ -6461,7 +6618,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="7"/>
@@ -6478,7 +6635,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="7"/>
@@ -6495,7 +6652,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="7"/>
@@ -6512,7 +6669,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="7"/>
@@ -6529,7 +6686,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="7"/>
@@ -6546,7 +6703,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="7"/>
@@ -6563,7 +6720,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="7"/>
@@ -6580,7 +6737,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="7"/>
@@ -6597,7 +6754,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="7"/>
@@ -6614,7 +6771,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="7"/>
@@ -6631,7 +6788,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="7"/>
@@ -6648,7 +6805,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="7"/>
@@ -6665,7 +6822,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="7"/>
@@ -6682,7 +6839,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="7"/>
@@ -6699,7 +6856,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="7"/>
@@ -6716,7 +6873,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="7"/>
@@ -6733,7 +6890,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="7"/>
@@ -6750,7 +6907,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="7"/>
@@ -6767,7 +6924,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="7"/>
@@ -6784,7 +6941,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="7"/>
@@ -6801,7 +6958,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="7"/>
@@ -6818,7 +6975,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="7"/>
@@ -6835,7 +6992,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="7"/>
@@ -6852,7 +7009,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="7"/>
@@ -6869,7 +7026,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="7"/>
@@ -6886,7 +7043,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="7"/>
@@ -6903,7 +7060,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="7"/>
@@ -6920,7 +7077,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="7"/>
@@ -6937,7 +7094,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="7"/>
@@ -6954,7 +7111,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="7"/>
@@ -6971,7 +7128,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="7"/>
@@ -6988,7 +7145,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="7"/>
@@ -7005,7 +7162,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="7"/>
@@ -7022,7 +7179,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="7"/>
@@ -7039,7 +7196,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="7"/>
@@ -7056,7 +7213,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="7"/>
@@ -7073,7 +7230,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="7"/>
@@ -7090,7 +7247,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="7"/>
@@ -7107,7 +7264,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="7"/>
@@ -7124,7 +7281,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="7"/>
@@ -7141,7 +7298,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="7"/>
@@ -7158,7 +7315,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="7"/>
@@ -7175,7 +7332,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="7"/>
@@ -7192,7 +7349,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="7"/>
@@ -7209,7 +7366,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="7"/>
@@ -7226,7 +7383,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="7"/>
@@ -7243,7 +7400,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="7"/>
@@ -7260,7 +7417,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="7"/>
@@ -7277,7 +7434,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="7"/>
@@ -7294,7 +7451,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="7"/>
@@ -7311,7 +7468,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="7"/>
@@ -7328,7 +7485,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="7"/>
@@ -7345,7 +7502,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="7"/>
@@ -7362,7 +7519,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="7"/>
@@ -7379,7 +7536,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="7"/>
@@ -7396,7 +7553,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="7"/>
@@ -7413,7 +7570,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="7"/>
@@ -7430,7 +7587,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="7"/>
@@ -7447,7 +7604,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="7"/>
@@ -7464,7 +7621,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="7"/>
@@ -7481,7 +7638,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="7"/>
@@ -7498,7 +7655,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="7"/>
@@ -7515,7 +7672,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="7"/>
@@ -7532,7 +7689,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="7"/>
@@ -7549,7 +7706,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="7"/>
@@ -7566,7 +7723,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="7"/>
@@ -7583,7 +7740,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="7"/>
@@ -7600,7 +7757,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="7"/>
@@ -7617,7 +7774,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="7"/>
@@ -7634,7 +7791,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="7"/>
@@ -7651,7 +7808,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="7"/>
@@ -7668,7 +7825,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="7"/>
@@ -7685,7 +7842,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="7"/>
@@ -7702,7 +7859,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="7"/>
@@ -7719,7 +7876,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="7"/>
@@ -7736,7 +7893,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="7"/>
@@ -7753,7 +7910,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="7"/>
@@ -7770,7 +7927,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="7"/>
@@ -7787,7 +7944,7 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="7"/>
@@ -7804,7 +7961,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="7"/>
@@ -7821,7 +7978,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="7"/>
@@ -7838,7 +7995,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="7"/>
@@ -7855,7 +8012,7 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="7"/>
@@ -7872,7 +8029,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="7"/>
@@ -7889,7 +8046,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="7"/>
@@ -7906,7 +8063,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="7"/>
@@ -7923,7 +8080,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="7"/>
@@ -7940,7 +8097,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="7"/>
@@ -7957,7 +8114,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="7"/>
@@ -7974,7 +8131,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="7"/>
@@ -7991,7 +8148,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="7"/>
@@ -8008,7 +8165,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="7"/>
@@ -8025,7 +8182,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="7"/>
@@ -8042,7 +8199,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="7"/>
@@ -8059,7 +8216,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="7"/>
@@ -8076,7 +8233,7 @@
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="7"/>
@@ -8093,7 +8250,7 @@
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="7"/>
@@ -8110,7 +8267,7 @@
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="7"/>
@@ -8127,7 +8284,7 @@
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="7"/>
@@ -8144,7 +8301,7 @@
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="7"/>
@@ -8161,7 +8318,7 @@
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="7"/>
@@ -8178,7 +8335,7 @@
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="7"/>
@@ -8195,7 +8352,7 @@
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="7"/>
@@ -8212,7 +8369,7 @@
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="7"/>
@@ -8229,7 +8386,7 @@
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="7"/>
@@ -8246,7 +8403,7 @@
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="7"/>
@@ -8263,7 +8420,7 @@
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="7"/>
@@ -8280,7 +8437,7 @@
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="7"/>
@@ -8297,7 +8454,7 @@
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="7"/>
@@ -8314,7 +8471,7 @@
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="7"/>
@@ -8331,7 +8488,7 @@
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="7"/>
@@ -8348,7 +8505,7 @@
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="7"/>
@@ -8365,7 +8522,7 @@
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="7"/>
@@ -8382,7 +8539,7 @@
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="7"/>
@@ -8399,7 +8556,7 @@
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="7"/>
@@ -8416,7 +8573,7 @@
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="7"/>
@@ -8433,7 +8590,7 @@
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="7"/>
@@ -8450,7 +8607,7 @@
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="7"/>
@@ -8467,7 +8624,7 @@
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="7"/>
@@ -8484,7 +8641,7 @@
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="7"/>
@@ -8501,7 +8658,7 @@
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="7"/>
@@ -8518,7 +8675,7 @@
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="7"/>
@@ -8535,7 +8692,7 @@
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="7"/>
@@ -8552,7 +8709,7 @@
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="7"/>
@@ -8569,7 +8726,7 @@
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="7"/>
@@ -8586,7 +8743,7 @@
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="7"/>
@@ -8603,7 +8760,7 @@
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="7"/>
@@ -8620,7 +8777,7 @@
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="7"/>
@@ -8637,7 +8794,7 @@
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="7"/>
@@ -8654,7 +8811,7 @@
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="7"/>
@@ -8671,7 +8828,7 @@
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="7"/>
@@ -8688,7 +8845,7 @@
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="7"/>
@@ -8705,7 +8862,7 @@
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="7"/>
@@ -8722,7 +8879,7 @@
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="7"/>
@@ -8739,7 +8896,7 @@
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="7"/>
@@ -8756,7 +8913,7 @@
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="7"/>
@@ -8773,7 +8930,7 @@
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="7"/>
@@ -8790,7 +8947,7 @@
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="7"/>
@@ -8807,7 +8964,7 @@
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="7"/>
@@ -8824,7 +8981,7 @@
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="7"/>
@@ -8841,7 +8998,7 @@
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="7"/>
@@ -8858,7 +9015,7 @@
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="7"/>
@@ -8875,7 +9032,7 @@
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="7"/>
@@ -8892,7 +9049,7 @@
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="7"/>
@@ -8909,7 +9066,7 @@
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="7"/>
@@ -8926,7 +9083,7 @@
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="7"/>
@@ -8943,7 +9100,7 @@
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="7"/>
@@ -8960,7 +9117,7 @@
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="7"/>
@@ -8977,7 +9134,7 @@
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="7"/>
@@ -8994,7 +9151,7 @@
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="7"/>
@@ -9011,7 +9168,7 @@
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="7"/>
@@ -9028,7 +9185,7 @@
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="7"/>
@@ -9045,7 +9202,7 @@
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="7"/>
@@ -9062,7 +9219,7 @@
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="7"/>
@@ -9079,7 +9236,7 @@
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="7"/>
@@ -9096,7 +9253,7 @@
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="7"/>
@@ -9113,7 +9270,7 @@
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="7"/>
@@ -9130,7 +9287,7 @@
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="7"/>
@@ -9147,7 +9304,7 @@
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="7"/>
@@ -9164,7 +9321,7 @@
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="7"/>
@@ -9181,7 +9338,7 @@
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="7"/>
@@ -9198,7 +9355,7 @@
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="7"/>
@@ -9215,7 +9372,7 @@
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="7"/>
@@ -9232,7 +9389,7 @@
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="7"/>
@@ -9249,7 +9406,7 @@
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="7"/>
@@ -9266,7 +9423,7 @@
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="7"/>
@@ -9283,7 +9440,7 @@
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="7"/>
@@ -9300,7 +9457,7 @@
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="7"/>
@@ -9317,7 +9474,7 @@
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="7"/>
@@ -9334,7 +9491,7 @@
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="7"/>
@@ -9351,7 +9508,7 @@
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="7"/>
@@ -9368,7 +9525,7 @@
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="7"/>
@@ -9385,7 +9542,7 @@
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="7"/>
@@ -9402,7 +9559,7 @@
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="7"/>
@@ -9419,7 +9576,7 @@
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="7"/>
@@ -9436,7 +9593,7 @@
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="7"/>
@@ -9453,7 +9610,7 @@
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="7"/>
@@ -9470,7 +9627,7 @@
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="7"/>
@@ -9487,7 +9644,7 @@
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="7"/>
@@ -9504,7 +9661,7 @@
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="7"/>
@@ -9521,7 +9678,7 @@
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="7"/>
@@ -9538,7 +9695,7 @@
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="7"/>
@@ -9555,7 +9712,7 @@
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="7"/>
@@ -9572,7 +9729,7 @@
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="7"/>
@@ -9589,7 +9746,7 @@
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="7"/>
@@ -9606,7 +9763,7 @@
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="7"/>
@@ -9623,7 +9780,7 @@
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="7"/>
@@ -9640,7 +9797,7 @@
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="7"/>
@@ -9657,7 +9814,7 @@
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="7"/>
@@ -9674,7 +9831,7 @@
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="7"/>
@@ -9691,7 +9848,7 @@
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="7"/>
@@ -9708,7 +9865,7 @@
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="7"/>
@@ -9725,7 +9882,7 @@
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="7"/>
@@ -9742,7 +9899,7 @@
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="7"/>
@@ -9759,7 +9916,7 @@
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="7"/>
@@ -9776,7 +9933,7 @@
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="7"/>
@@ -9793,7 +9950,7 @@
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="7"/>
@@ -9810,7 +9967,7 @@
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="7"/>
@@ -9827,7 +9984,7 @@
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="7"/>
@@ -9844,7 +10001,7 @@
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="7"/>
@@ -9861,7 +10018,7 @@
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="7"/>
@@ -9878,7 +10035,7 @@
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="7"/>
@@ -9895,7 +10052,7 @@
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="7"/>
@@ -9912,7 +10069,7 @@
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="7"/>
@@ -9929,7 +10086,7 @@
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="7"/>
@@ -9946,7 +10103,7 @@
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="7"/>
@@ -9963,7 +10120,7 @@
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="7"/>
@@ -9980,7 +10137,7 @@
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="7"/>
@@ -9997,7 +10154,7 @@
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="7"/>
@@ -10014,7 +10171,7 @@
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="7"/>
@@ -10031,7 +10188,7 @@
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="7"/>
@@ -10048,7 +10205,7 @@
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="7"/>
@@ -10065,7 +10222,7 @@
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="7"/>
@@ -10082,7 +10239,7 @@
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="7"/>
@@ -10099,7 +10256,7 @@
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="7"/>
@@ -10116,7 +10273,7 @@
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="7"/>
@@ -10133,7 +10290,7 @@
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="7"/>
@@ -10150,7 +10307,7 @@
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="7"/>
@@ -10167,7 +10324,7 @@
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="7"/>
@@ -10184,7 +10341,7 @@
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="7"/>
@@ -10201,7 +10358,7 @@
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="7"/>
@@ -10218,7 +10375,7 @@
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="7"/>
@@ -10235,7 +10392,7 @@
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="7"/>
@@ -10252,7 +10409,7 @@
       <c r="N481" s="1"/>
       <c r="O481" s="1"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="7"/>
@@ -10269,7 +10426,7 @@
       <c r="N482" s="1"/>
       <c r="O482" s="1"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="7"/>
@@ -10286,7 +10443,7 @@
       <c r="N483" s="1"/>
       <c r="O483" s="1"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="7"/>
@@ -10303,7 +10460,7 @@
       <c r="N484" s="1"/>
       <c r="O484" s="1"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="7"/>
@@ -10320,7 +10477,7 @@
       <c r="N485" s="1"/>
       <c r="O485" s="1"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="7"/>
@@ -10337,7 +10494,7 @@
       <c r="N486" s="1"/>
       <c r="O486" s="1"/>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="7"/>
@@ -10354,7 +10511,7 @@
       <c r="N487" s="1"/>
       <c r="O487" s="1"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="7"/>
@@ -10371,7 +10528,7 @@
       <c r="N488" s="1"/>
       <c r="O488" s="1"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="7"/>
@@ -10388,7 +10545,7 @@
       <c r="N489" s="1"/>
       <c r="O489" s="1"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="7"/>
@@ -10405,7 +10562,7 @@
       <c r="N490" s="1"/>
       <c r="O490" s="1"/>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="7"/>
@@ -10422,7 +10579,7 @@
       <c r="N491" s="1"/>
       <c r="O491" s="1"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="7"/>
@@ -10439,7 +10596,7 @@
       <c r="N492" s="1"/>
       <c r="O492" s="1"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="7"/>
@@ -10456,7 +10613,7 @@
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="7"/>
@@ -10473,7 +10630,7 @@
       <c r="N494" s="1"/>
       <c r="O494" s="1"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="7"/>
@@ -10490,7 +10647,7 @@
       <c r="N495" s="1"/>
       <c r="O495" s="1"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="7"/>
@@ -10507,7 +10664,7 @@
       <c r="N496" s="1"/>
       <c r="O496" s="1"/>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="7"/>
@@ -10524,7 +10681,7 @@
       <c r="N497" s="1"/>
       <c r="O497" s="1"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="7"/>
@@ -10541,7 +10698,7 @@
       <c r="N498" s="1"/>
       <c r="O498" s="1"/>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="7"/>
@@ -10558,7 +10715,7 @@
       <c r="N499" s="1"/>
       <c r="O499" s="1"/>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="7"/>
@@ -10575,7 +10732,7 @@
       <c r="N500" s="1"/>
       <c r="O500" s="1"/>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="7"/>
@@ -10592,7 +10749,7 @@
       <c r="N501" s="1"/>
       <c r="O501" s="1"/>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="7"/>
@@ -10609,7 +10766,7 @@
       <c r="N502" s="1"/>
       <c r="O502" s="1"/>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="7"/>
@@ -10626,7 +10783,7 @@
       <c r="N503" s="1"/>
       <c r="O503" s="1"/>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="7"/>
@@ -10643,7 +10800,7 @@
       <c r="N504" s="1"/>
       <c r="O504" s="1"/>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="7"/>
@@ -10660,7 +10817,7 @@
       <c r="N505" s="1"/>
       <c r="O505" s="1"/>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="7"/>
@@ -10677,7 +10834,7 @@
       <c r="N506" s="1"/>
       <c r="O506" s="1"/>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="7"/>
@@ -10694,7 +10851,7 @@
       <c r="N507" s="1"/>
       <c r="O507" s="1"/>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="7"/>
@@ -10711,7 +10868,7 @@
       <c r="N508" s="1"/>
       <c r="O508" s="1"/>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="7"/>
@@ -10728,7 +10885,7 @@
       <c r="N509" s="1"/>
       <c r="O509" s="1"/>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="7"/>
@@ -10745,7 +10902,7 @@
       <c r="N510" s="1"/>
       <c r="O510" s="1"/>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="7"/>
@@ -10762,7 +10919,7 @@
       <c r="N511" s="1"/>
       <c r="O511" s="1"/>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="7"/>
@@ -10779,7 +10936,7 @@
       <c r="N512" s="1"/>
       <c r="O512" s="1"/>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="7"/>
@@ -10796,7 +10953,7 @@
       <c r="N513" s="1"/>
       <c r="O513" s="1"/>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="7"/>
@@ -10813,7 +10970,7 @@
       <c r="N514" s="1"/>
       <c r="O514" s="1"/>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="7"/>
@@ -10830,7 +10987,7 @@
       <c r="N515" s="1"/>
       <c r="O515" s="1"/>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="7"/>
@@ -10847,7 +11004,7 @@
       <c r="N516" s="1"/>
       <c r="O516" s="1"/>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="7"/>
@@ -10864,7 +11021,7 @@
       <c r="N517" s="1"/>
       <c r="O517" s="1"/>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="7"/>
@@ -10881,7 +11038,7 @@
       <c r="N518" s="1"/>
       <c r="O518" s="1"/>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="7"/>
@@ -10898,7 +11055,7 @@
       <c r="N519" s="1"/>
       <c r="O519" s="1"/>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="7"/>
@@ -10915,7 +11072,7 @@
       <c r="N520" s="1"/>
       <c r="O520" s="1"/>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="7"/>
@@ -10932,7 +11089,7 @@
       <c r="N521" s="1"/>
       <c r="O521" s="1"/>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="7"/>
@@ -10949,7 +11106,7 @@
       <c r="N522" s="1"/>
       <c r="O522" s="1"/>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="7"/>
@@ -10966,7 +11123,7 @@
       <c r="N523" s="1"/>
       <c r="O523" s="1"/>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="7"/>
@@ -10983,7 +11140,7 @@
       <c r="N524" s="1"/>
       <c r="O524" s="1"/>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="7"/>
@@ -11000,7 +11157,7 @@
       <c r="N525" s="1"/>
       <c r="O525" s="1"/>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="7"/>
@@ -11017,7 +11174,7 @@
       <c r="N526" s="1"/>
       <c r="O526" s="1"/>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="7"/>
@@ -11034,7 +11191,7 @@
       <c r="N527" s="1"/>
       <c r="O527" s="1"/>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="7"/>
@@ -11051,7 +11208,7 @@
       <c r="N528" s="1"/>
       <c r="O528" s="1"/>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="7"/>
@@ -11068,7 +11225,7 @@
       <c r="N529" s="1"/>
       <c r="O529" s="1"/>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="7"/>
@@ -11085,7 +11242,7 @@
       <c r="N530" s="1"/>
       <c r="O530" s="1"/>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="7"/>
@@ -11102,7 +11259,7 @@
       <c r="N531" s="1"/>
       <c r="O531" s="1"/>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="7"/>
@@ -11119,7 +11276,7 @@
       <c r="N532" s="1"/>
       <c r="O532" s="1"/>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="7"/>
@@ -11136,7 +11293,7 @@
       <c r="N533" s="1"/>
       <c r="O533" s="1"/>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="7"/>
@@ -11153,7 +11310,7 @@
       <c r="N534" s="1"/>
       <c r="O534" s="1"/>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="7"/>
@@ -11170,7 +11327,7 @@
       <c r="N535" s="1"/>
       <c r="O535" s="1"/>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="7"/>
@@ -11187,7 +11344,7 @@
       <c r="N536" s="1"/>
       <c r="O536" s="1"/>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="7"/>
@@ -11204,7 +11361,7 @@
       <c r="N537" s="1"/>
       <c r="O537" s="1"/>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="7"/>
@@ -11221,7 +11378,7 @@
       <c r="N538" s="1"/>
       <c r="O538" s="1"/>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="7"/>
@@ -11238,7 +11395,7 @@
       <c r="N539" s="1"/>
       <c r="O539" s="1"/>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="7"/>
@@ -11255,7 +11412,7 @@
       <c r="N540" s="1"/>
       <c r="O540" s="1"/>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="7"/>
@@ -11272,7 +11429,7 @@
       <c r="N541" s="1"/>
       <c r="O541" s="1"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="7"/>
@@ -11289,7 +11446,7 @@
       <c r="N542" s="1"/>
       <c r="O542" s="1"/>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="7"/>
@@ -11306,7 +11463,7 @@
       <c r="N543" s="1"/>
       <c r="O543" s="1"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="7"/>
@@ -11323,7 +11480,7 @@
       <c r="N544" s="1"/>
       <c r="O544" s="1"/>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="7"/>
@@ -11340,7 +11497,7 @@
       <c r="N545" s="1"/>
       <c r="O545" s="1"/>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="7"/>
@@ -11357,7 +11514,7 @@
       <c r="N546" s="1"/>
       <c r="O546" s="1"/>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="7"/>
@@ -11374,7 +11531,7 @@
       <c r="N547" s="1"/>
       <c r="O547" s="1"/>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="7"/>
@@ -11391,7 +11548,7 @@
       <c r="N548" s="1"/>
       <c r="O548" s="1"/>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="7"/>
@@ -11408,7 +11565,7 @@
       <c r="N549" s="1"/>
       <c r="O549" s="1"/>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="7"/>
@@ -11425,7 +11582,7 @@
       <c r="N550" s="1"/>
       <c r="O550" s="1"/>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="7"/>
@@ -11442,7 +11599,7 @@
       <c r="N551" s="1"/>
       <c r="O551" s="1"/>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="7"/>
@@ -11459,7 +11616,7 @@
       <c r="N552" s="1"/>
       <c r="O552" s="1"/>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="7"/>
@@ -11476,7 +11633,7 @@
       <c r="N553" s="1"/>
       <c r="O553" s="1"/>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="7"/>
@@ -11493,7 +11650,7 @@
       <c r="N554" s="1"/>
       <c r="O554" s="1"/>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="7"/>
@@ -11510,7 +11667,7 @@
       <c r="N555" s="1"/>
       <c r="O555" s="1"/>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="7"/>
@@ -11527,7 +11684,7 @@
       <c r="N556" s="1"/>
       <c r="O556" s="1"/>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="7"/>
@@ -11544,7 +11701,7 @@
       <c r="N557" s="1"/>
       <c r="O557" s="1"/>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="7"/>
@@ -11561,7 +11718,7 @@
       <c r="N558" s="1"/>
       <c r="O558" s="1"/>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="7"/>
@@ -11578,7 +11735,7 @@
       <c r="N559" s="1"/>
       <c r="O559" s="1"/>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="7"/>
@@ -11595,7 +11752,7 @@
       <c r="N560" s="1"/>
       <c r="O560" s="1"/>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="7"/>
@@ -11612,7 +11769,7 @@
       <c r="N561" s="1"/>
       <c r="O561" s="1"/>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="7"/>
@@ -11629,7 +11786,7 @@
       <c r="N562" s="1"/>
       <c r="O562" s="1"/>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="7"/>
@@ -11646,7 +11803,7 @@
       <c r="N563" s="1"/>
       <c r="O563" s="1"/>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="7"/>
@@ -11663,7 +11820,7 @@
       <c r="N564" s="1"/>
       <c r="O564" s="1"/>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="7"/>
@@ -11680,7 +11837,7 @@
       <c r="N565" s="1"/>
       <c r="O565" s="1"/>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="7"/>
@@ -11697,7 +11854,7 @@
       <c r="N566" s="1"/>
       <c r="O566" s="1"/>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="7"/>
@@ -11714,7 +11871,7 @@
       <c r="N567" s="1"/>
       <c r="O567" s="1"/>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="7"/>
@@ -11731,7 +11888,7 @@
       <c r="N568" s="1"/>
       <c r="O568" s="1"/>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="7"/>
@@ -11748,7 +11905,7 @@
       <c r="N569" s="1"/>
       <c r="O569" s="1"/>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="7"/>
@@ -11765,7 +11922,7 @@
       <c r="N570" s="1"/>
       <c r="O570" s="1"/>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="7"/>
@@ -11782,7 +11939,7 @@
       <c r="N571" s="1"/>
       <c r="O571" s="1"/>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="7"/>
@@ -11799,7 +11956,7 @@
       <c r="N572" s="1"/>
       <c r="O572" s="1"/>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="7"/>
@@ -11816,7 +11973,7 @@
       <c r="N573" s="1"/>
       <c r="O573" s="1"/>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="7"/>
@@ -11833,7 +11990,7 @@
       <c r="N574" s="1"/>
       <c r="O574" s="1"/>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="7"/>
@@ -11850,7 +12007,7 @@
       <c r="N575" s="1"/>
       <c r="O575" s="1"/>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="7"/>
@@ -11867,7 +12024,7 @@
       <c r="N576" s="1"/>
       <c r="O576" s="1"/>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="7"/>
@@ -11884,7 +12041,7 @@
       <c r="N577" s="1"/>
       <c r="O577" s="1"/>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="7"/>
@@ -11901,7 +12058,7 @@
       <c r="N578" s="1"/>
       <c r="O578" s="1"/>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="7"/>
@@ -11918,7 +12075,7 @@
       <c r="N579" s="1"/>
       <c r="O579" s="1"/>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="7"/>
@@ -11935,7 +12092,7 @@
       <c r="N580" s="1"/>
       <c r="O580" s="1"/>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="7"/>
@@ -11952,7 +12109,7 @@
       <c r="N581" s="1"/>
       <c r="O581" s="1"/>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="7"/>
@@ -11969,7 +12126,7 @@
       <c r="N582" s="1"/>
       <c r="O582" s="1"/>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="7"/>
@@ -11986,7 +12143,7 @@
       <c r="N583" s="1"/>
       <c r="O583" s="1"/>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="7"/>
@@ -12003,7 +12160,7 @@
       <c r="N584" s="1"/>
       <c r="O584" s="1"/>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="7"/>
@@ -12020,7 +12177,7 @@
       <c r="N585" s="1"/>
       <c r="O585" s="1"/>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="7"/>
@@ -12037,7 +12194,7 @@
       <c r="N586" s="1"/>
       <c r="O586" s="1"/>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="7"/>
@@ -12054,7 +12211,7 @@
       <c r="N587" s="1"/>
       <c r="O587" s="1"/>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="7"/>
@@ -12071,7 +12228,7 @@
       <c r="N588" s="1"/>
       <c r="O588" s="1"/>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="7"/>
@@ -12088,7 +12245,7 @@
       <c r="N589" s="1"/>
       <c r="O589" s="1"/>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="7"/>
@@ -12105,7 +12262,7 @@
       <c r="N590" s="1"/>
       <c r="O590" s="1"/>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="7"/>
@@ -12122,7 +12279,7 @@
       <c r="N591" s="1"/>
       <c r="O591" s="1"/>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="7"/>
@@ -12139,7 +12296,7 @@
       <c r="N592" s="1"/>
       <c r="O592" s="1"/>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="7"/>
@@ -12156,7 +12313,7 @@
       <c r="N593" s="1"/>
       <c r="O593" s="1"/>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="7"/>
@@ -12173,7 +12330,7 @@
       <c r="N594" s="1"/>
       <c r="O594" s="1"/>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="7"/>
@@ -12190,7 +12347,7 @@
       <c r="N595" s="1"/>
       <c r="O595" s="1"/>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="7"/>
@@ -12207,7 +12364,7 @@
       <c r="N596" s="1"/>
       <c r="O596" s="1"/>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="7"/>
@@ -12224,7 +12381,7 @@
       <c r="N597" s="1"/>
       <c r="O597" s="1"/>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="7"/>
@@ -12241,7 +12398,7 @@
       <c r="N598" s="1"/>
       <c r="O598" s="1"/>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="7"/>
@@ -12258,7 +12415,7 @@
       <c r="N599" s="1"/>
       <c r="O599" s="1"/>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="7"/>
@@ -12275,7 +12432,7 @@
       <c r="N600" s="1"/>
       <c r="O600" s="1"/>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="7"/>
@@ -12292,7 +12449,7 @@
       <c r="N601" s="1"/>
       <c r="O601" s="1"/>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="7"/>
@@ -12304,7 +12461,7 @@
       <c r="I602" s="1"/>
       <c r="K602" s="9"/>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="7"/>
@@ -12316,7 +12473,7 @@
       <c r="I603" s="1"/>
       <c r="K603" s="9"/>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="7"/>
@@ -12328,7 +12485,7 @@
       <c r="I604" s="1"/>
       <c r="K604" s="9"/>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="7"/>
@@ -12340,7 +12497,7 @@
       <c r="I605" s="1"/>
       <c r="K605" s="9"/>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="7"/>
@@ -12352,7 +12509,7 @@
       <c r="I606" s="1"/>
       <c r="K606" s="9"/>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="7"/>
@@ -12364,7 +12521,7 @@
       <c r="I607" s="1"/>
       <c r="K607" s="9"/>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="7"/>
@@ -12376,7 +12533,7 @@
       <c r="I608" s="1"/>
       <c r="K608" s="9"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="7"/>
@@ -12388,7 +12545,7 @@
       <c r="I609" s="1"/>
       <c r="K609" s="9"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="7"/>
@@ -12400,7 +12557,7 @@
       <c r="I610" s="1"/>
       <c r="K610" s="9"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="7"/>
@@ -12412,7 +12569,7 @@
       <c r="I611" s="1"/>
       <c r="K611" s="9"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="7"/>
@@ -12424,7 +12581,7 @@
       <c r="I612" s="1"/>
       <c r="K612" s="9"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="7"/>
@@ -12436,7 +12593,7 @@
       <c r="I613" s="1"/>
       <c r="K613" s="9"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="7"/>
@@ -12448,7 +12605,7 @@
       <c r="I614" s="1"/>
       <c r="K614" s="9"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="7"/>
@@ -12460,7 +12617,7 @@
       <c r="I615" s="1"/>
       <c r="K615" s="9"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="7"/>
@@ -12472,7 +12629,7 @@
       <c r="I616" s="1"/>
       <c r="K616" s="9"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="7"/>
@@ -12484,7 +12641,7 @@
       <c r="I617" s="1"/>
       <c r="K617" s="9"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="7"/>
@@ -12496,7 +12653,7 @@
       <c r="I618" s="1"/>
       <c r="K618" s="9"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="7"/>
@@ -12508,7 +12665,7 @@
       <c r="I619" s="1"/>
       <c r="K619" s="9"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="7"/>
@@ -12520,7 +12677,7 @@
       <c r="I620" s="1"/>
       <c r="K620" s="9"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="7"/>
@@ -12532,7 +12689,7 @@
       <c r="I621" s="1"/>
       <c r="K621" s="9"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="7"/>
@@ -12544,7 +12701,7 @@
       <c r="I622" s="1"/>
       <c r="K622" s="9"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="7"/>
@@ -12556,7 +12713,7 @@
       <c r="I623" s="1"/>
       <c r="K623" s="9"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="7"/>
@@ -12568,7 +12725,7 @@
       <c r="I624" s="1"/>
       <c r="K624" s="9"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="7"/>
@@ -12580,7 +12737,7 @@
       <c r="I625" s="1"/>
       <c r="K625" s="9"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="7"/>
@@ -12592,7 +12749,7 @@
       <c r="I626" s="1"/>
       <c r="K626" s="9"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="7"/>
@@ -12604,7 +12761,7 @@
       <c r="I627" s="1"/>
       <c r="K627" s="9"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="7"/>
@@ -12616,7 +12773,7 @@
       <c r="I628" s="1"/>
       <c r="K628" s="9"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="7"/>
@@ -12628,7 +12785,7 @@
       <c r="I629" s="1"/>
       <c r="K629" s="9"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="7"/>
@@ -12640,7 +12797,7 @@
       <c r="I630" s="1"/>
       <c r="K630" s="9"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="7"/>
@@ -12652,7 +12809,7 @@
       <c r="I631" s="1"/>
       <c r="K631" s="9"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="7"/>
@@ -12664,7 +12821,7 @@
       <c r="I632" s="1"/>
       <c r="K632" s="9"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="7"/>
@@ -12676,7 +12833,7 @@
       <c r="I633" s="1"/>
       <c r="K633" s="9"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="7"/>
@@ -12688,7 +12845,7 @@
       <c r="I634" s="1"/>
       <c r="K634" s="9"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="7"/>
@@ -12700,7 +12857,7 @@
       <c r="I635" s="1"/>
       <c r="K635" s="9"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="7"/>
@@ -12712,7 +12869,7 @@
       <c r="I636" s="1"/>
       <c r="K636" s="9"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="7"/>
@@ -12724,7 +12881,7 @@
       <c r="I637" s="1"/>
       <c r="K637" s="9"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="7"/>
@@ -12736,7 +12893,7 @@
       <c r="I638" s="1"/>
       <c r="K638" s="9"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="7"/>
@@ -12748,7 +12905,7 @@
       <c r="I639" s="1"/>
       <c r="K639" s="9"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="7"/>
@@ -12760,7 +12917,7 @@
       <c r="I640" s="1"/>
       <c r="K640" s="9"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="7"/>
@@ -12772,7 +12929,7 @@
       <c r="I641" s="1"/>
       <c r="K641" s="9"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="7"/>
@@ -12784,7 +12941,7 @@
       <c r="I642" s="1"/>
       <c r="K642" s="9"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="7"/>
@@ -12796,7 +12953,7 @@
       <c r="I643" s="1"/>
       <c r="K643" s="9"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="7"/>
@@ -12808,7 +12965,7 @@
       <c r="I644" s="1"/>
       <c r="K644" s="9"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="7"/>
@@ -12820,7 +12977,7 @@
       <c r="I645" s="1"/>
       <c r="K645" s="9"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="7"/>
@@ -12832,7 +12989,7 @@
       <c r="I646" s="1"/>
       <c r="K646" s="9"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="7"/>
@@ -12844,7 +13001,7 @@
       <c r="I647" s="1"/>
       <c r="K647" s="9"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="7"/>
@@ -12856,7 +13013,7 @@
       <c r="I648" s="1"/>
       <c r="K648" s="9"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="7"/>
@@ -12868,7 +13025,7 @@
       <c r="I649" s="1"/>
       <c r="K649" s="9"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="7"/>
@@ -12880,7 +13037,7 @@
       <c r="I650" s="1"/>
       <c r="K650" s="9"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="7"/>
@@ -12892,7 +13049,7 @@
       <c r="I651" s="1"/>
       <c r="K651" s="9"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="7"/>
@@ -12904,7 +13061,7 @@
       <c r="I652" s="1"/>
       <c r="K652" s="9"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="7"/>
@@ -12916,7 +13073,7 @@
       <c r="I653" s="1"/>
       <c r="K653" s="9"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="7"/>
@@ -12928,7 +13085,7 @@
       <c r="I654" s="1"/>
       <c r="K654" s="9"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="7"/>
@@ -12940,7 +13097,7 @@
       <c r="I655" s="1"/>
       <c r="K655" s="9"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="7"/>
@@ -12952,7 +13109,7 @@
       <c r="I656" s="1"/>
       <c r="K656" s="9"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="7"/>
@@ -12964,7 +13121,7 @@
       <c r="I657" s="1"/>
       <c r="K657" s="9"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="7"/>
@@ -12976,7 +13133,7 @@
       <c r="I658" s="1"/>
       <c r="K658" s="9"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="7"/>
@@ -12988,7 +13145,7 @@
       <c r="I659" s="1"/>
       <c r="K659" s="9"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="7"/>
@@ -13000,7 +13157,7 @@
       <c r="I660" s="1"/>
       <c r="K660" s="9"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="7"/>
@@ -13012,7 +13169,7 @@
       <c r="I661" s="1"/>
       <c r="K661" s="9"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="7"/>
@@ -13024,7 +13181,7 @@
       <c r="I662" s="1"/>
       <c r="K662" s="9"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="7"/>
@@ -13036,7 +13193,7 @@
       <c r="I663" s="1"/>
       <c r="K663" s="9"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="7"/>
@@ -13048,7 +13205,7 @@
       <c r="I664" s="1"/>
       <c r="K664" s="9"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="7"/>
@@ -13060,7 +13217,7 @@
       <c r="I665" s="1"/>
       <c r="K665" s="9"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="7"/>
@@ -13072,7 +13229,7 @@
       <c r="I666" s="1"/>
       <c r="K666" s="9"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="7"/>
@@ -13084,7 +13241,7 @@
       <c r="I667" s="1"/>
       <c r="K667" s="9"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="7"/>
@@ -13096,7 +13253,7 @@
       <c r="I668" s="1"/>
       <c r="K668" s="9"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="7"/>
@@ -13108,7 +13265,7 @@
       <c r="I669" s="1"/>
       <c r="K669" s="9"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="7"/>
@@ -13120,7 +13277,7 @@
       <c r="I670" s="1"/>
       <c r="K670" s="9"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="7"/>
@@ -13132,7 +13289,7 @@
       <c r="I671" s="1"/>
       <c r="K671" s="9"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="7"/>
@@ -13144,7 +13301,7 @@
       <c r="I672" s="1"/>
       <c r="K672" s="9"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="7"/>
@@ -13156,7 +13313,7 @@
       <c r="I673" s="1"/>
       <c r="K673" s="9"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="7"/>
@@ -13168,7 +13325,7 @@
       <c r="I674" s="1"/>
       <c r="K674" s="9"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="7"/>
@@ -13180,7 +13337,7 @@
       <c r="I675" s="1"/>
       <c r="K675" s="9"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="7"/>
@@ -13192,7 +13349,7 @@
       <c r="I676" s="1"/>
       <c r="K676" s="9"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="7"/>
@@ -13204,7 +13361,7 @@
       <c r="I677" s="1"/>
       <c r="K677" s="9"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="7"/>
@@ -13216,7 +13373,7 @@
       <c r="I678" s="1"/>
       <c r="K678" s="9"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="7"/>
@@ -13228,7 +13385,7 @@
       <c r="I679" s="1"/>
       <c r="K679" s="9"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="7"/>
@@ -13240,7 +13397,7 @@
       <c r="I680" s="1"/>
       <c r="K680" s="9"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="7"/>
@@ -13252,7 +13409,7 @@
       <c r="I681" s="1"/>
       <c r="K681" s="9"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="7"/>
@@ -13264,7 +13421,7 @@
       <c r="I682" s="1"/>
       <c r="K682" s="9"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="7"/>
@@ -13276,7 +13433,7 @@
       <c r="I683" s="1"/>
       <c r="K683" s="9"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="7"/>
@@ -13288,7 +13445,7 @@
       <c r="I684" s="1"/>
       <c r="K684" s="9"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="7"/>
@@ -13300,7 +13457,7 @@
       <c r="I685" s="1"/>
       <c r="K685" s="9"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="7"/>
@@ -13312,7 +13469,7 @@
       <c r="I686" s="1"/>
       <c r="K686" s="9"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="7"/>
@@ -13324,7 +13481,7 @@
       <c r="I687" s="1"/>
       <c r="K687" s="9"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="7"/>
@@ -13336,7 +13493,7 @@
       <c r="I688" s="1"/>
       <c r="K688" s="9"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="7"/>
@@ -13348,7 +13505,7 @@
       <c r="I689" s="1"/>
       <c r="K689" s="9"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="7"/>
@@ -13360,7 +13517,7 @@
       <c r="I690" s="1"/>
       <c r="K690" s="9"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="7"/>
@@ -13372,7 +13529,7 @@
       <c r="I691" s="1"/>
       <c r="K691" s="9"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="7"/>
@@ -13384,7 +13541,7 @@
       <c r="I692" s="1"/>
       <c r="K692" s="9"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="7"/>
@@ -13396,7 +13553,7 @@
       <c r="I693" s="1"/>
       <c r="K693" s="9"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="7"/>
@@ -13408,7 +13565,7 @@
       <c r="I694" s="1"/>
       <c r="K694" s="9"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="7"/>
@@ -13420,7 +13577,7 @@
       <c r="I695" s="1"/>
       <c r="K695" s="9"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="7"/>
@@ -13432,7 +13589,7 @@
       <c r="I696" s="1"/>
       <c r="K696" s="9"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="7"/>
@@ -13444,7 +13601,7 @@
       <c r="I697" s="1"/>
       <c r="K697" s="9"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="7"/>
@@ -13456,7 +13613,7 @@
       <c r="I698" s="1"/>
       <c r="K698" s="9"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="7"/>
@@ -13468,7 +13625,7 @@
       <c r="I699" s="1"/>
       <c r="K699" s="9"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="7"/>
@@ -13480,7 +13637,7 @@
       <c r="I700" s="1"/>
       <c r="K700" s="9"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="7"/>
@@ -13492,7 +13649,7 @@
       <c r="I701" s="1"/>
       <c r="K701" s="9"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="7"/>
@@ -13504,7 +13661,7 @@
       <c r="I702" s="1"/>
       <c r="K702" s="9"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="7"/>
@@ -13516,7 +13673,7 @@
       <c r="I703" s="1"/>
       <c r="K703" s="9"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="7"/>
@@ -13528,7 +13685,7 @@
       <c r="I704" s="1"/>
       <c r="K704" s="9"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="7"/>
@@ -13540,7 +13697,7 @@
       <c r="I705" s="1"/>
       <c r="K705" s="9"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="7"/>
@@ -13552,7 +13709,7 @@
       <c r="I706" s="1"/>
       <c r="K706" s="9"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="7"/>
@@ -13564,7 +13721,7 @@
       <c r="I707" s="1"/>
       <c r="K707" s="9"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="7"/>
@@ -13576,7 +13733,7 @@
       <c r="I708" s="1"/>
       <c r="K708" s="9"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="7"/>
@@ -13588,7 +13745,7 @@
       <c r="I709" s="1"/>
       <c r="K709" s="9"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="7"/>
@@ -13600,7 +13757,7 @@
       <c r="I710" s="1"/>
       <c r="K710" s="9"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="7"/>
@@ -13612,7 +13769,7 @@
       <c r="I711" s="1"/>
       <c r="K711" s="9"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="7"/>
@@ -13624,7 +13781,7 @@
       <c r="I712" s="1"/>
       <c r="K712" s="9"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="7"/>
@@ -13636,7 +13793,7 @@
       <c r="I713" s="1"/>
       <c r="K713" s="9"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="7"/>
@@ -13648,7 +13805,7 @@
       <c r="I714" s="1"/>
       <c r="K714" s="9"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="7"/>
@@ -13660,7 +13817,7 @@
       <c r="I715" s="1"/>
       <c r="K715" s="9"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="7"/>
@@ -13672,7 +13829,7 @@
       <c r="I716" s="1"/>
       <c r="K716" s="9"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="7"/>
@@ -13684,7 +13841,7 @@
       <c r="I717" s="1"/>
       <c r="K717" s="9"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="7"/>
@@ -13696,7 +13853,7 @@
       <c r="I718" s="1"/>
       <c r="K718" s="9"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="7"/>
@@ -13708,7 +13865,7 @@
       <c r="I719" s="1"/>
       <c r="K719" s="9"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="7"/>
@@ -13720,7 +13877,7 @@
       <c r="I720" s="1"/>
       <c r="K720" s="9"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="7"/>
@@ -13732,7 +13889,7 @@
       <c r="I721" s="1"/>
       <c r="K721" s="9"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="7"/>
@@ -13744,7 +13901,7 @@
       <c r="I722" s="1"/>
       <c r="K722" s="9"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="7"/>
@@ -13756,7 +13913,7 @@
       <c r="I723" s="1"/>
       <c r="K723" s="9"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="7"/>
@@ -13768,7 +13925,7 @@
       <c r="I724" s="1"/>
       <c r="K724" s="9"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="7"/>
@@ -13780,7 +13937,7 @@
       <c r="I725" s="1"/>
       <c r="K725" s="9"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="7"/>
@@ -13792,7 +13949,7 @@
       <c r="I726" s="1"/>
       <c r="K726" s="9"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="7"/>
@@ -13804,7 +13961,7 @@
       <c r="I727" s="1"/>
       <c r="K727" s="9"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="7"/>
@@ -13816,7 +13973,7 @@
       <c r="I728" s="1"/>
       <c r="K728" s="9"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="7"/>
@@ -13828,7 +13985,7 @@
       <c r="I729" s="1"/>
       <c r="K729" s="9"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="7"/>
@@ -13840,7 +13997,7 @@
       <c r="I730" s="1"/>
       <c r="K730" s="9"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="7"/>
@@ -13852,7 +14009,7 @@
       <c r="I731" s="1"/>
       <c r="K731" s="9"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="7"/>
@@ -13864,7 +14021,7 @@
       <c r="I732" s="1"/>
       <c r="K732" s="9"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="7"/>
@@ -13876,7 +14033,7 @@
       <c r="I733" s="1"/>
       <c r="K733" s="9"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="7"/>
@@ -13888,7 +14045,7 @@
       <c r="I734" s="1"/>
       <c r="K734" s="9"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="7"/>
@@ -13900,7 +14057,7 @@
       <c r="I735" s="1"/>
       <c r="K735" s="9"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="7"/>
@@ -13912,7 +14069,7 @@
       <c r="I736" s="1"/>
       <c r="K736" s="9"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="7"/>
@@ -13924,7 +14081,7 @@
       <c r="I737" s="1"/>
       <c r="K737" s="9"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="7"/>
@@ -13936,7 +14093,7 @@
       <c r="I738" s="1"/>
       <c r="K738" s="9"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="7"/>
@@ -13948,7 +14105,7 @@
       <c r="I739" s="1"/>
       <c r="K739" s="9"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="7"/>
@@ -13960,7 +14117,7 @@
       <c r="I740" s="1"/>
       <c r="K740" s="9"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="7"/>
@@ -13972,7 +14129,7 @@
       <c r="I741" s="1"/>
       <c r="K741" s="9"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="7"/>
@@ -13984,7 +14141,7 @@
       <c r="I742" s="1"/>
       <c r="K742" s="9"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="7"/>
@@ -13996,7 +14153,7 @@
       <c r="I743" s="1"/>
       <c r="K743" s="9"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="7"/>
@@ -14008,7 +14165,7 @@
       <c r="I744" s="1"/>
       <c r="K744" s="9"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="7"/>
@@ -14020,7 +14177,7 @@
       <c r="I745" s="1"/>
       <c r="K745" s="9"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="7"/>
@@ -14032,7 +14189,7 @@
       <c r="I746" s="1"/>
       <c r="K746" s="9"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="7"/>
@@ -14044,7 +14201,7 @@
       <c r="I747" s="1"/>
       <c r="K747" s="9"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="7"/>
@@ -14056,7 +14213,7 @@
       <c r="I748" s="1"/>
       <c r="K748" s="9"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="7"/>
@@ -14068,7 +14225,7 @@
       <c r="I749" s="1"/>
       <c r="K749" s="9"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="7"/>
@@ -14080,7 +14237,7 @@
       <c r="I750" s="1"/>
       <c r="K750" s="9"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="7"/>
@@ -14092,7 +14249,7 @@
       <c r="I751" s="1"/>
       <c r="K751" s="9"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="7"/>
@@ -14104,7 +14261,7 @@
       <c r="I752" s="1"/>
       <c r="K752" s="9"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="7"/>
@@ -14116,7 +14273,7 @@
       <c r="I753" s="1"/>
       <c r="K753" s="9"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="7"/>
@@ -14128,7 +14285,7 @@
       <c r="I754" s="1"/>
       <c r="K754" s="9"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="7"/>
@@ -14140,7 +14297,7 @@
       <c r="I755" s="1"/>
       <c r="K755" s="9"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="7"/>
@@ -14152,7 +14309,7 @@
       <c r="I756" s="1"/>
       <c r="K756" s="9"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="7"/>
@@ -14163,7 +14320,7 @@
       <c r="H757" s="1"/>
       <c r="I757" s="1"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="7"/>
@@ -14174,7 +14331,7 @@
       <c r="H758" s="1"/>
       <c r="I758" s="1"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="7"/>
@@ -14185,7 +14342,7 @@
       <c r="H759" s="1"/>
       <c r="I759" s="1"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="7"/>
@@ -14196,7 +14353,7 @@
       <c r="H760" s="1"/>
       <c r="I760" s="1"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="7"/>
@@ -14207,7 +14364,7 @@
       <c r="H761" s="1"/>
       <c r="I761" s="1"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="7"/>
@@ -14218,7 +14375,7 @@
       <c r="H762" s="1"/>
       <c r="I762" s="1"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="7"/>
@@ -14229,7 +14386,7 @@
       <c r="H763" s="1"/>
       <c r="I763" s="1"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="7"/>
@@ -14240,7 +14397,7 @@
       <c r="H764" s="1"/>
       <c r="I764" s="1"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="7"/>
@@ -14251,7 +14408,7 @@
       <c r="H765" s="1"/>
       <c r="I765" s="1"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="7"/>
@@ -14262,7 +14419,7 @@
       <c r="H766" s="1"/>
       <c r="I766" s="1"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="7"/>
@@ -14273,7 +14430,7 @@
       <c r="H767" s="1"/>
       <c r="I767" s="1"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="7"/>
@@ -14284,7 +14441,7 @@
       <c r="H768" s="1"/>
       <c r="I768" s="1"/>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="7"/>
@@ -14295,7 +14452,7 @@
       <c r="H769" s="1"/>
       <c r="I769" s="1"/>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="7"/>
@@ -14306,7 +14463,7 @@
       <c r="H770" s="1"/>
       <c r="I770" s="1"/>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="7"/>
@@ -14317,7 +14474,7 @@
       <c r="H771" s="1"/>
       <c r="I771" s="1"/>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="7"/>
@@ -14328,7 +14485,7 @@
       <c r="H772" s="1"/>
       <c r="I772" s="1"/>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="7"/>
@@ -14339,7 +14496,7 @@
       <c r="H773" s="1"/>
       <c r="I773" s="1"/>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="7"/>
@@ -14350,7 +14507,7 @@
       <c r="H774" s="1"/>
       <c r="I774" s="1"/>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="7"/>
@@ -14361,7 +14518,7 @@
       <c r="H775" s="1"/>
       <c r="I775" s="1"/>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="7"/>
@@ -14372,7 +14529,7 @@
       <c r="H776" s="1"/>
       <c r="I776" s="1"/>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="7"/>
@@ -14383,7 +14540,7 @@
       <c r="H777" s="1"/>
       <c r="I777" s="1"/>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="7"/>
@@ -14394,7 +14551,7 @@
       <c r="H778" s="1"/>
       <c r="I778" s="1"/>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="7"/>
@@ -14405,7 +14562,7 @@
       <c r="H779" s="1"/>
       <c r="I779" s="1"/>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="7"/>
@@ -14416,7 +14573,7 @@
       <c r="H780" s="1"/>
       <c r="I780" s="1"/>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="7"/>
@@ -14427,7 +14584,7 @@
       <c r="H781" s="1"/>
       <c r="I781" s="1"/>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="7"/>
@@ -14438,7 +14595,7 @@
       <c r="H782" s="1"/>
       <c r="I782" s="1"/>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="7"/>
@@ -14449,7 +14606,7 @@
       <c r="H783" s="1"/>
       <c r="I783" s="1"/>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="7"/>
@@ -14460,7 +14617,7 @@
       <c r="H784" s="1"/>
       <c r="I784" s="1"/>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="7"/>
@@ -14471,7 +14628,7 @@
       <c r="H785" s="1"/>
       <c r="I785" s="1"/>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="7"/>
@@ -14482,7 +14639,7 @@
       <c r="H786" s="1"/>
       <c r="I786" s="1"/>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="7"/>
@@ -14493,7 +14650,7 @@
       <c r="H787" s="1"/>
       <c r="I787" s="1"/>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="7"/>
@@ -14504,7 +14661,7 @@
       <c r="H788" s="1"/>
       <c r="I788" s="1"/>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="7"/>
@@ -14515,7 +14672,7 @@
       <c r="H789" s="1"/>
       <c r="I789" s="1"/>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="7"/>
@@ -14526,7 +14683,7 @@
       <c r="H790" s="1"/>
       <c r="I790" s="1"/>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="7"/>
@@ -14537,7 +14694,7 @@
       <c r="H791" s="1"/>
       <c r="I791" s="1"/>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="7"/>
@@ -14548,7 +14705,7 @@
       <c r="H792" s="1"/>
       <c r="I792" s="1"/>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="7"/>
@@ -14559,7 +14716,7 @@
       <c r="H793" s="1"/>
       <c r="I793" s="1"/>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="7"/>
@@ -14570,7 +14727,7 @@
       <c r="H794" s="1"/>
       <c r="I794" s="1"/>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="7"/>
@@ -14581,7 +14738,7 @@
       <c r="H795" s="1"/>
       <c r="I795" s="1"/>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="7"/>
@@ -14592,7 +14749,7 @@
       <c r="H796" s="1"/>
       <c r="I796" s="1"/>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="7"/>
@@ -14603,7 +14760,7 @@
       <c r="H797" s="1"/>
       <c r="I797" s="1"/>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="7"/>
@@ -14614,7 +14771,7 @@
       <c r="H798" s="1"/>
       <c r="I798" s="1"/>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="7"/>
@@ -14625,7 +14782,7 @@
       <c r="H799" s="1"/>
       <c r="I799" s="1"/>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="7"/>
@@ -14636,7 +14793,7 @@
       <c r="H800" s="1"/>
       <c r="I800" s="1"/>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="7"/>
@@ -14647,7 +14804,7 @@
       <c r="H801" s="1"/>
       <c r="I801" s="1"/>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="7"/>
@@ -14658,7 +14815,7 @@
       <c r="H802" s="1"/>
       <c r="I802" s="1"/>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="7"/>
@@ -14669,7 +14826,7 @@
       <c r="H803" s="1"/>
       <c r="I803" s="1"/>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="7"/>
@@ -14680,7 +14837,7 @@
       <c r="H804" s="1"/>
       <c r="I804" s="1"/>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="7"/>
@@ -14691,7 +14848,7 @@
       <c r="H805" s="1"/>
       <c r="I805" s="1"/>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="7"/>
@@ -14702,7 +14859,7 @@
       <c r="H806" s="1"/>
       <c r="I806" s="1"/>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="7"/>
@@ -14713,7 +14870,7 @@
       <c r="H807" s="1"/>
       <c r="I807" s="1"/>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="7"/>
@@ -14724,7 +14881,7 @@
       <c r="H808" s="1"/>
       <c r="I808" s="1"/>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="7"/>
@@ -14735,7 +14892,7 @@
       <c r="H809" s="1"/>
       <c r="I809" s="1"/>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="7"/>
@@ -14746,7 +14903,7 @@
       <c r="H810" s="1"/>
       <c r="I810" s="1"/>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="7"/>
@@ -14757,7 +14914,7 @@
       <c r="H811" s="1"/>
       <c r="I811" s="1"/>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="7"/>
@@ -14768,7 +14925,7 @@
       <c r="H812" s="1"/>
       <c r="I812" s="1"/>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="7"/>
@@ -14779,7 +14936,7 @@
       <c r="H813" s="1"/>
       <c r="I813" s="1"/>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="7"/>
@@ -14790,7 +14947,7 @@
       <c r="H814" s="1"/>
       <c r="I814" s="1"/>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="7"/>
@@ -14801,7 +14958,7 @@
       <c r="H815" s="1"/>
       <c r="I815" s="1"/>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="7"/>
@@ -14812,7 +14969,7 @@
       <c r="H816" s="1"/>
       <c r="I816" s="1"/>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="7"/>
@@ -14823,7 +14980,7 @@
       <c r="H817" s="1"/>
       <c r="I817" s="1"/>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="7"/>
@@ -14834,7 +14991,7 @@
       <c r="H818" s="1"/>
       <c r="I818" s="1"/>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="7"/>
@@ -14845,7 +15002,7 @@
       <c r="H819" s="1"/>
       <c r="I819" s="1"/>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="7"/>
@@ -14856,7 +15013,7 @@
       <c r="H820" s="1"/>
       <c r="I820" s="1"/>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="7"/>
@@ -14867,7 +15024,7 @@
       <c r="H821" s="1"/>
       <c r="I821" s="1"/>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
       <c r="C822" s="7"/>
@@ -14878,7 +15035,7 @@
       <c r="H822" s="1"/>
       <c r="I822" s="1"/>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="7"/>
@@ -14889,7 +15046,7 @@
       <c r="H823" s="1"/>
       <c r="I823" s="1"/>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="7"/>
@@ -14900,7 +15057,7 @@
       <c r="H824" s="1"/>
       <c r="I824" s="1"/>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="7"/>
@@ -14911,7 +15068,7 @@
       <c r="H825" s="1"/>
       <c r="I825" s="1"/>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
       <c r="C826" s="7"/>
@@ -14922,7 +15079,7 @@
       <c r="H826" s="1"/>
       <c r="I826" s="1"/>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="7"/>
@@ -14933,7 +15090,7 @@
       <c r="H827" s="1"/>
       <c r="I827" s="1"/>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
       <c r="C828" s="7"/>
@@ -14944,7 +15101,7 @@
       <c r="H828" s="1"/>
       <c r="I828" s="1"/>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="7"/>
@@ -14955,7 +15112,7 @@
       <c r="H829" s="1"/>
       <c r="I829" s="1"/>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
       <c r="C830" s="7"/>
@@ -14966,7 +15123,7 @@
       <c r="H830" s="1"/>
       <c r="I830" s="1"/>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="7"/>
@@ -14977,7 +15134,7 @@
       <c r="H831" s="1"/>
       <c r="I831" s="1"/>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
       <c r="C832" s="7"/>
@@ -14988,7 +15145,7 @@
       <c r="H832" s="1"/>
       <c r="I832" s="1"/>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="7"/>
@@ -14999,7 +15156,7 @@
       <c r="H833" s="1"/>
       <c r="I833" s="1"/>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
       <c r="C834" s="7"/>
@@ -15010,7 +15167,7 @@
       <c r="H834" s="1"/>
       <c r="I834" s="1"/>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="7"/>
@@ -15021,7 +15178,7 @@
       <c r="H835" s="1"/>
       <c r="I835" s="1"/>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
       <c r="C836" s="7"/>
@@ -15032,7 +15189,7 @@
       <c r="H836" s="1"/>
       <c r="I836" s="1"/>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="7"/>
@@ -15043,7 +15200,7 @@
       <c r="H837" s="1"/>
       <c r="I837" s="1"/>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
       <c r="C838" s="7"/>
@@ -15054,7 +15211,7 @@
       <c r="H838" s="1"/>
       <c r="I838" s="1"/>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="7"/>
@@ -15065,7 +15222,7 @@
       <c r="H839" s="1"/>
       <c r="I839" s="1"/>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
       <c r="C840" s="7"/>
@@ -15076,7 +15233,7 @@
       <c r="H840" s="1"/>
       <c r="I840" s="1"/>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B841" s="6"/>
       <c r="C841" s="7"/>
       <c r="E841" s="1"/>
@@ -15085,7 +15242,7 @@
       <c r="H841" s="1"/>
       <c r="I841" s="1"/>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B842" s="6"/>
       <c r="C842" s="7"/>
       <c r="E842" s="1"/>
@@ -15094,7 +15251,7 @@
       <c r="H842" s="1"/>
       <c r="I842" s="1"/>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B843" s="6"/>
       <c r="C843" s="7"/>
       <c r="E843" s="1"/>
@@ -15103,7 +15260,7 @@
       <c r="H843" s="1"/>
       <c r="I843" s="1"/>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B844" s="6"/>
       <c r="C844" s="7"/>
       <c r="E844" s="1"/>
@@ -15112,7 +15269,7 @@
       <c r="H844" s="1"/>
       <c r="I844" s="1"/>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B845" s="6"/>
       <c r="C845" s="7"/>
       <c r="E845" s="1"/>
@@ -15121,7 +15278,7 @@
       <c r="H845" s="1"/>
       <c r="I845" s="1"/>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B846" s="6"/>
       <c r="C846" s="7"/>
       <c r="E846" s="1"/>
@@ -15130,7 +15287,7 @@
       <c r="H846" s="1"/>
       <c r="I846" s="1"/>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B847" s="6"/>
       <c r="C847" s="7"/>
       <c r="E847" s="1"/>
@@ -15139,7 +15296,7 @@
       <c r="H847" s="1"/>
       <c r="I847" s="1"/>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B848" s="6"/>
       <c r="C848" s="7"/>
       <c r="E848" s="1"/>
@@ -15148,7 +15305,7 @@
       <c r="H848" s="1"/>
       <c r="I848" s="1"/>
     </row>
-    <row r="849" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B849" s="6"/>
       <c r="C849" s="7"/>
       <c r="E849" s="1"/>
@@ -15157,7 +15314,7 @@
       <c r="H849" s="1"/>
       <c r="I849" s="1"/>
     </row>
-    <row r="850" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B850" s="6"/>
       <c r="C850" s="7"/>
       <c r="E850" s="1"/>
@@ -15166,7 +15323,7 @@
       <c r="H850" s="1"/>
       <c r="I850" s="1"/>
     </row>
-    <row r="851" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B851" s="6"/>
       <c r="C851" s="7"/>
       <c r="E851" s="1"/>
@@ -15175,7 +15332,7 @@
       <c r="H851" s="1"/>
       <c r="I851" s="1"/>
     </row>
-    <row r="852" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B852" s="6"/>
       <c r="C852" s="7"/>
       <c r="E852" s="1"/>
@@ -15184,7 +15341,7 @@
       <c r="H852" s="1"/>
       <c r="I852" s="1"/>
     </row>
-    <row r="853" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B853" s="6"/>
       <c r="C853" s="7"/>
       <c r="E853" s="1"/>
@@ -15193,7 +15350,7 @@
       <c r="H853" s="1"/>
       <c r="I853" s="1"/>
     </row>
-    <row r="854" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B854" s="6"/>
       <c r="C854" s="7"/>
       <c r="E854" s="1"/>
@@ -15202,7 +15359,7 @@
       <c r="H854" s="1"/>
       <c r="I854" s="1"/>
     </row>
-    <row r="855" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B855" s="6"/>
       <c r="C855" s="7"/>
       <c r="E855" s="1"/>
@@ -15211,7 +15368,7 @@
       <c r="H855" s="1"/>
       <c r="I855" s="1"/>
     </row>
-    <row r="856" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B856" s="6"/>
       <c r="C856" s="7"/>
       <c r="E856" s="1"/>
@@ -15220,7 +15377,7 @@
       <c r="H856" s="1"/>
       <c r="I856" s="1"/>
     </row>
-    <row r="857" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B857" s="6"/>
       <c r="C857" s="7"/>
       <c r="E857" s="1"/>
@@ -15229,7 +15386,7 @@
       <c r="H857" s="1"/>
       <c r="I857" s="1"/>
     </row>
-    <row r="858" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B858" s="6"/>
       <c r="C858" s="7"/>
       <c r="E858" s="1"/>
@@ -15238,7 +15395,7 @@
       <c r="H858" s="1"/>
       <c r="I858" s="1"/>
     </row>
-    <row r="859" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B859" s="6"/>
       <c r="C859" s="7"/>
       <c r="E859" s="1"/>
@@ -15247,7 +15404,7 @@
       <c r="H859" s="1"/>
       <c r="I859" s="1"/>
     </row>
-    <row r="860" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B860" s="6"/>
       <c r="C860" s="7"/>
       <c r="E860" s="1"/>
@@ -15256,7 +15413,7 @@
       <c r="H860" s="1"/>
       <c r="I860" s="1"/>
     </row>
-    <row r="861" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B861" s="6"/>
       <c r="C861" s="7"/>
       <c r="E861" s="1"/>
@@ -15265,7 +15422,7 @@
       <c r="H861" s="1"/>
       <c r="I861" s="1"/>
     </row>
-    <row r="862" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B862" s="6"/>
       <c r="C862" s="7"/>
       <c r="E862" s="1"/>
@@ -15274,7 +15431,7 @@
       <c r="H862" s="1"/>
       <c r="I862" s="1"/>
     </row>
-    <row r="863" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B863" s="6"/>
       <c r="C863" s="7"/>
       <c r="E863" s="1"/>
@@ -15283,7 +15440,7 @@
       <c r="H863" s="1"/>
       <c r="I863" s="1"/>
     </row>
-    <row r="864" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B864" s="6"/>
       <c r="C864" s="7"/>
       <c r="E864" s="1"/>
@@ -15292,7 +15449,7 @@
       <c r="H864" s="1"/>
       <c r="I864" s="1"/>
     </row>
-    <row r="865" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B865" s="6"/>
       <c r="C865" s="7"/>
       <c r="E865" s="1"/>
@@ -15301,7 +15458,7 @@
       <c r="H865" s="1"/>
       <c r="I865" s="1"/>
     </row>
-    <row r="866" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B866" s="6"/>
       <c r="C866" s="7"/>
       <c r="E866" s="1"/>
@@ -15310,7 +15467,7 @@
       <c r="H866" s="1"/>
       <c r="I866" s="1"/>
     </row>
-    <row r="867" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B867" s="6"/>
       <c r="C867" s="7"/>
       <c r="E867" s="1"/>
@@ -15319,7 +15476,7 @@
       <c r="H867" s="1"/>
       <c r="I867" s="1"/>
     </row>
-    <row r="868" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B868" s="6"/>
       <c r="C868" s="7"/>
       <c r="E868" s="1"/>
@@ -15328,7 +15485,7 @@
       <c r="H868" s="1"/>
       <c r="I868" s="1"/>
     </row>
-    <row r="869" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B869" s="6"/>
       <c r="C869" s="7"/>
       <c r="E869" s="1"/>
@@ -15337,7 +15494,7 @@
       <c r="H869" s="1"/>
       <c r="I869" s="1"/>
     </row>
-    <row r="870" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B870" s="6"/>
       <c r="C870" s="7"/>
       <c r="E870" s="1"/>
@@ -15346,7 +15503,7 @@
       <c r="H870" s="1"/>
       <c r="I870" s="1"/>
     </row>
-    <row r="871" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B871" s="6"/>
       <c r="C871" s="7"/>
       <c r="E871" s="1"/>
@@ -15355,7 +15512,7 @@
       <c r="H871" s="1"/>
       <c r="I871" s="1"/>
     </row>
-    <row r="872" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B872" s="6"/>
       <c r="C872" s="7"/>
       <c r="E872" s="1"/>
@@ -15364,7 +15521,7 @@
       <c r="H872" s="1"/>
       <c r="I872" s="1"/>
     </row>
-    <row r="873" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B873" s="6"/>
       <c r="C873" s="7"/>
       <c r="E873" s="1"/>
@@ -15373,7 +15530,7 @@
       <c r="H873" s="1"/>
       <c r="I873" s="1"/>
     </row>
-    <row r="874" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B874" s="6"/>
       <c r="C874" s="7"/>
       <c r="E874" s="1"/>
@@ -15382,7 +15539,7 @@
       <c r="H874" s="1"/>
       <c r="I874" s="1"/>
     </row>
-    <row r="875" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B875" s="6"/>
       <c r="C875" s="7"/>
       <c r="E875" s="1"/>
@@ -15391,7 +15548,7 @@
       <c r="H875" s="1"/>
       <c r="I875" s="1"/>
     </row>
-    <row r="876" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B876" s="6"/>
       <c r="C876" s="7"/>
       <c r="E876" s="1"/>
@@ -15400,7 +15557,7 @@
       <c r="H876" s="1"/>
       <c r="I876" s="1"/>
     </row>
-    <row r="877" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B877" s="6"/>
       <c r="C877" s="7"/>
       <c r="E877" s="1"/>
@@ -15409,7 +15566,7 @@
       <c r="H877" s="1"/>
       <c r="I877" s="1"/>
     </row>
-    <row r="878" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B878" s="6"/>
       <c r="C878" s="7"/>
       <c r="E878" s="1"/>
@@ -15418,7 +15575,7 @@
       <c r="H878" s="1"/>
       <c r="I878" s="1"/>
     </row>
-    <row r="879" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B879" s="6"/>
       <c r="C879" s="7"/>
       <c r="E879" s="1"/>
@@ -15427,7 +15584,7 @@
       <c r="H879" s="1"/>
       <c r="I879" s="1"/>
     </row>
-    <row r="880" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B880" s="6"/>
       <c r="C880" s="7"/>
       <c r="E880" s="1"/>
@@ -15436,7 +15593,7 @@
       <c r="H880" s="1"/>
       <c r="I880" s="1"/>
     </row>
-    <row r="881" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B881" s="6"/>
       <c r="C881" s="7"/>
       <c r="E881" s="1"/>
@@ -15445,7 +15602,7 @@
       <c r="H881" s="1"/>
       <c r="I881" s="1"/>
     </row>
-    <row r="882" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B882" s="6"/>
       <c r="C882" s="7"/>
       <c r="E882" s="1"/>
@@ -15454,7 +15611,7 @@
       <c r="H882" s="1"/>
       <c r="I882" s="1"/>
     </row>
-    <row r="883" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B883" s="6"/>
       <c r="C883" s="7"/>
       <c r="E883" s="1"/>
@@ -15463,7 +15620,7 @@
       <c r="H883" s="1"/>
       <c r="I883" s="1"/>
     </row>
-    <row r="884" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B884" s="6"/>
       <c r="C884" s="7"/>
       <c r="E884" s="1"/>
@@ -15472,7 +15629,7 @@
       <c r="H884" s="1"/>
       <c r="I884" s="1"/>
     </row>
-    <row r="885" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B885" s="6"/>
       <c r="C885" s="7"/>
       <c r="E885" s="1"/>
@@ -15481,7 +15638,7 @@
       <c r="H885" s="1"/>
       <c r="I885" s="1"/>
     </row>
-    <row r="886" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B886" s="6"/>
       <c r="C886" s="7"/>
       <c r="E886" s="1"/>
@@ -15490,7 +15647,7 @@
       <c r="H886" s="1"/>
       <c r="I886" s="1"/>
     </row>
-    <row r="887" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B887" s="6"/>
       <c r="C887" s="7"/>
       <c r="E887" s="1"/>
@@ -15499,7 +15656,7 @@
       <c r="H887" s="1"/>
       <c r="I887" s="1"/>
     </row>
-    <row r="888" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B888" s="6"/>
       <c r="C888" s="7"/>
       <c r="E888" s="1"/>
@@ -15508,7 +15665,7 @@
       <c r="H888" s="1"/>
       <c r="I888" s="1"/>
     </row>
-    <row r="889" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B889" s="6"/>
       <c r="C889" s="7"/>
       <c r="E889" s="1"/>
@@ -15517,7 +15674,7 @@
       <c r="H889" s="1"/>
       <c r="I889" s="1"/>
     </row>
-    <row r="890" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B890" s="6"/>
       <c r="C890" s="7"/>
       <c r="E890" s="1"/>
@@ -15526,7 +15683,7 @@
       <c r="H890" s="1"/>
       <c r="I890" s="1"/>
     </row>
-    <row r="891" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B891" s="6"/>
       <c r="C891" s="7"/>
       <c r="E891" s="1"/>
@@ -15535,7 +15692,7 @@
       <c r="H891" s="1"/>
       <c r="I891" s="1"/>
     </row>
-    <row r="892" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B892" s="6"/>
       <c r="C892" s="7"/>
       <c r="E892" s="1"/>
@@ -15544,7 +15701,7 @@
       <c r="H892" s="1"/>
       <c r="I892" s="1"/>
     </row>
-    <row r="893" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B893" s="6"/>
       <c r="C893" s="7"/>
       <c r="E893" s="1"/>
@@ -15553,7 +15710,7 @@
       <c r="H893" s="1"/>
       <c r="I893" s="1"/>
     </row>
-    <row r="894" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B894" s="6"/>
       <c r="C894" s="7"/>
       <c r="E894" s="1"/>
@@ -15562,7 +15719,7 @@
       <c r="H894" s="1"/>
       <c r="I894" s="1"/>
     </row>
-    <row r="895" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B895" s="6"/>
       <c r="C895" s="7"/>
       <c r="E895" s="1"/>
@@ -15571,7 +15728,7 @@
       <c r="H895" s="1"/>
       <c r="I895" s="1"/>
     </row>
-    <row r="896" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B896" s="6"/>
       <c r="C896" s="7"/>
       <c r="E896" s="1"/>
@@ -15580,7 +15737,7 @@
       <c r="H896" s="1"/>
       <c r="I896" s="1"/>
     </row>
-    <row r="897" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B897" s="6"/>
       <c r="C897" s="7"/>
       <c r="E897" s="1"/>
@@ -15589,7 +15746,7 @@
       <c r="H897" s="1"/>
       <c r="I897" s="1"/>
     </row>
-    <row r="898" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B898" s="6"/>
       <c r="C898" s="7"/>
       <c r="E898" s="1"/>
@@ -15598,7 +15755,7 @@
       <c r="H898" s="1"/>
       <c r="I898" s="1"/>
     </row>
-    <row r="899" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B899" s="6"/>
       <c r="C899" s="7"/>
       <c r="E899" s="1"/>
@@ -15607,7 +15764,7 @@
       <c r="H899" s="1"/>
       <c r="I899" s="1"/>
     </row>
-    <row r="900" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B900" s="6"/>
       <c r="C900" s="7"/>
       <c r="E900" s="1"/>
@@ -15616,7 +15773,7 @@
       <c r="H900" s="1"/>
       <c r="I900" s="1"/>
     </row>
-    <row r="901" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B901" s="6"/>
       <c r="C901" s="7"/>
       <c r="E901" s="1"/>
@@ -15625,7 +15782,7 @@
       <c r="H901" s="1"/>
       <c r="I901" s="1"/>
     </row>
-    <row r="902" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B902" s="6"/>
       <c r="C902" s="7"/>
       <c r="E902" s="1"/>
@@ -15634,7 +15791,7 @@
       <c r="H902" s="1"/>
       <c r="I902" s="1"/>
     </row>
-    <row r="903" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B903" s="6"/>
       <c r="C903" s="7"/>
       <c r="E903" s="1"/>
@@ -15643,7 +15800,7 @@
       <c r="H903" s="1"/>
       <c r="I903" s="1"/>
     </row>
-    <row r="904" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B904" s="6"/>
       <c r="C904" s="7"/>
       <c r="E904" s="1"/>
@@ -15652,7 +15809,7 @@
       <c r="H904" s="1"/>
       <c r="I904" s="1"/>
     </row>
-    <row r="905" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B905" s="6"/>
       <c r="C905" s="7"/>
       <c r="E905" s="1"/>
@@ -15661,7 +15818,7 @@
       <c r="H905" s="1"/>
       <c r="I905" s="1"/>
     </row>
-    <row r="906" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B906" s="6"/>
       <c r="C906" s="7"/>
       <c r="E906" s="1"/>
@@ -15670,7 +15827,7 @@
       <c r="H906" s="1"/>
       <c r="I906" s="1"/>
     </row>
-    <row r="907" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B907" s="6"/>
       <c r="C907" s="7"/>
       <c r="E907" s="1"/>
@@ -15679,7 +15836,7 @@
       <c r="H907" s="1"/>
       <c r="I907" s="1"/>
     </row>
-    <row r="908" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B908" s="6"/>
       <c r="C908" s="7"/>
       <c r="E908" s="1"/>
@@ -15688,7 +15845,7 @@
       <c r="H908" s="1"/>
       <c r="I908" s="1"/>
     </row>
-    <row r="909" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B909" s="6"/>
       <c r="C909" s="7"/>
       <c r="E909" s="1"/>
@@ -15697,7 +15854,7 @@
       <c r="H909" s="1"/>
       <c r="I909" s="1"/>
     </row>
-    <row r="910" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B910" s="6"/>
       <c r="C910" s="7"/>
       <c r="E910" s="1"/>
@@ -15706,7 +15863,7 @@
       <c r="H910" s="1"/>
       <c r="I910" s="1"/>
     </row>
-    <row r="911" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B911" s="6"/>
       <c r="C911" s="7"/>
       <c r="E911" s="1"/>
@@ -15715,7 +15872,7 @@
       <c r="H911" s="1"/>
       <c r="I911" s="1"/>
     </row>
-    <row r="912" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B912" s="6"/>
       <c r="C912" s="7"/>
       <c r="E912" s="1"/>
@@ -15724,7 +15881,7 @@
       <c r="H912" s="1"/>
       <c r="I912" s="1"/>
     </row>
-    <row r="913" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B913" s="6"/>
       <c r="C913" s="7"/>
       <c r="E913" s="1"/>
@@ -15733,7 +15890,7 @@
       <c r="H913" s="1"/>
       <c r="I913" s="1"/>
     </row>
-    <row r="914" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B914" s="6"/>
       <c r="C914" s="7"/>
       <c r="E914" s="1"/>
@@ -15742,7 +15899,7 @@
       <c r="H914" s="1"/>
       <c r="I914" s="1"/>
     </row>
-    <row r="915" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B915" s="6"/>
       <c r="C915" s="7"/>
       <c r="E915" s="1"/>
@@ -15751,7 +15908,7 @@
       <c r="H915" s="1"/>
       <c r="I915" s="1"/>
     </row>
-    <row r="916" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B916" s="6"/>
       <c r="C916" s="7"/>
       <c r="E916" s="1"/>
@@ -15760,7 +15917,7 @@
       <c r="H916" s="1"/>
       <c r="I916" s="1"/>
     </row>
-    <row r="917" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B917" s="6"/>
       <c r="C917" s="7"/>
       <c r="E917" s="1"/>
@@ -15769,7 +15926,7 @@
       <c r="H917" s="1"/>
       <c r="I917" s="1"/>
     </row>
-    <row r="918" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B918" s="6"/>
       <c r="C918" s="7"/>
       <c r="E918" s="1"/>
@@ -15778,7 +15935,7 @@
       <c r="H918" s="1"/>
       <c r="I918" s="1"/>
     </row>
-    <row r="919" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B919" s="6"/>
       <c r="C919" s="7"/>
       <c r="E919" s="1"/>
@@ -15787,7 +15944,7 @@
       <c r="H919" s="1"/>
       <c r="I919" s="1"/>
     </row>
-    <row r="920" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B920" s="6"/>
       <c r="C920" s="7"/>
       <c r="E920" s="1"/>
@@ -15796,7 +15953,7 @@
       <c r="H920" s="1"/>
       <c r="I920" s="1"/>
     </row>
-    <row r="921" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B921" s="6"/>
       <c r="C921" s="7"/>
       <c r="E921" s="1"/>
@@ -15805,7 +15962,7 @@
       <c r="H921" s="1"/>
       <c r="I921" s="1"/>
     </row>
-    <row r="922" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B922" s="6"/>
       <c r="C922" s="7"/>
       <c r="E922" s="1"/>
@@ -15814,7 +15971,7 @@
       <c r="H922" s="1"/>
       <c r="I922" s="1"/>
     </row>
-    <row r="923" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B923" s="6"/>
       <c r="C923" s="7"/>
       <c r="E923" s="1"/>
@@ -15823,7 +15980,7 @@
       <c r="H923" s="1"/>
       <c r="I923" s="1"/>
     </row>
-    <row r="924" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B924" s="6"/>
       <c r="C924" s="7"/>
       <c r="E924" s="1"/>
@@ -15832,7 +15989,7 @@
       <c r="H924" s="1"/>
       <c r="I924" s="1"/>
     </row>
-    <row r="925" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B925" s="6"/>
       <c r="C925" s="7"/>
       <c r="E925" s="1"/>
@@ -15841,7 +15998,7 @@
       <c r="H925" s="1"/>
       <c r="I925" s="1"/>
     </row>
-    <row r="926" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B926" s="6"/>
       <c r="C926" s="7"/>
       <c r="E926" s="1"/>
@@ -15850,7 +16007,7 @@
       <c r="H926" s="1"/>
       <c r="I926" s="1"/>
     </row>
-    <row r="927" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B927" s="6"/>
       <c r="C927" s="7"/>
       <c r="E927" s="1"/>
@@ -15859,7 +16016,7 @@
       <c r="H927" s="1"/>
       <c r="I927" s="1"/>
     </row>
-    <row r="928" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B928" s="6"/>
       <c r="C928" s="7"/>
       <c r="E928" s="1"/>
@@ -15868,7 +16025,7 @@
       <c r="H928" s="1"/>
       <c r="I928" s="1"/>
     </row>
-    <row r="929" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B929" s="6"/>
       <c r="C929" s="7"/>
       <c r="E929" s="1"/>
@@ -15877,7 +16034,7 @@
       <c r="H929" s="1"/>
       <c r="I929" s="1"/>
     </row>
-    <row r="930" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B930" s="6"/>
       <c r="C930" s="7"/>
       <c r="E930" s="1"/>
@@ -15886,7 +16043,7 @@
       <c r="H930" s="1"/>
       <c r="I930" s="1"/>
     </row>
-    <row r="931" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B931" s="6"/>
       <c r="C931" s="7"/>
       <c r="E931" s="1"/>
@@ -15895,7 +16052,7 @@
       <c r="H931" s="1"/>
       <c r="I931" s="1"/>
     </row>
-    <row r="932" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B932" s="6"/>
       <c r="C932" s="7"/>
       <c r="E932" s="1"/>
@@ -15904,7 +16061,7 @@
       <c r="H932" s="1"/>
       <c r="I932" s="1"/>
     </row>
-    <row r="933" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B933" s="6"/>
       <c r="C933" s="7"/>
       <c r="E933" s="1"/>
@@ -15913,7 +16070,7 @@
       <c r="H933" s="1"/>
       <c r="I933" s="1"/>
     </row>
-    <row r="934" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B934" s="6"/>
       <c r="C934" s="7"/>
       <c r="E934" s="1"/>
@@ -15922,7 +16079,7 @@
       <c r="H934" s="1"/>
       <c r="I934" s="1"/>
     </row>
-    <row r="935" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B935" s="6"/>
       <c r="C935" s="7"/>
       <c r="E935" s="1"/>

--- a/data/spike.xlsx
+++ b/data/spike.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727481A4-E34D-4E0E-B6E3-A40D27F41370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCB0C70-D109-4264-8FB6-7A9C024A871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="10932" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="2685" windowWidth="20730" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="63">
   <si>
     <t>players</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>08/10/2024</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
   </si>
 </sst>
 </file>
@@ -615,16 +618,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="11" max="11" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -651,7 +654,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -682,7 +685,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -727,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -772,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -817,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -862,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -907,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -952,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
@@ -1711,7 +1714,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -1750,7 +1753,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1792,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +1831,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -1867,7 +1870,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -1906,7 +1909,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
@@ -1945,7 +1948,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -1984,7 +1987,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
@@ -2023,7 +2026,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
@@ -2062,7 +2065,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>17</v>
       </c>
@@ -2101,7 +2104,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>12</v>
       </c>
@@ -2140,7 +2143,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -2179,7 +2182,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -2218,7 +2221,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2257,7 +2260,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -2296,7 +2299,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
@@ -2335,7 +2338,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>12</v>
       </c>
@@ -2374,7 +2377,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>12</v>
       </c>
@@ -2413,7 +2416,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2452,7 +2455,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>
@@ -2491,7 +2494,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
@@ -2530,7 +2533,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2569,7 +2572,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -2608,7 +2611,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>11</v>
       </c>
@@ -2647,7 +2650,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
@@ -2686,7 +2689,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>12</v>
       </c>
@@ -2725,7 +2728,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>13</v>
       </c>
@@ -2764,7 +2767,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>13</v>
       </c>
@@ -2803,7 +2806,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>12</v>
       </c>
@@ -2842,7 +2845,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>17</v>
       </c>
@@ -2881,7 +2884,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>17</v>
       </c>
@@ -2920,7 +2923,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>17</v>
       </c>
@@ -2959,7 +2962,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>12</v>
       </c>
@@ -2998,7 +3001,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>12</v>
       </c>
@@ -3037,7 +3040,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>11</v>
       </c>
@@ -3076,7 +3079,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>12</v>
       </c>
@@ -3115,7 +3118,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
@@ -3154,7 +3157,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -3193,7 +3196,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>12</v>
       </c>
@@ -3232,7 +3235,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>12</v>
       </c>
@@ -3271,7 +3274,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>12</v>
       </c>
@@ -3310,7 +3313,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>12</v>
       </c>
@@ -3349,7 +3352,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>12</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" ref="E68" si="2">IF(F68&gt;G68,1,0)</f>
+        <f t="shared" ref="E68:E75" si="2">IF(F68&gt;G68,1,0)</f>
         <v>1</v>
       </c>
       <c r="F68" s="5">
@@ -3380,7 +3383,7 @@
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="9" t="str">
-        <f t="shared" ref="K68" si="3">IF(OR(OR(AND(OR(A68=B68,A68=C68,A68=D68,B68=C68,B68=D68,C68=D68),OR(A68&lt;&gt;"",D68&lt;&gt;"")),H68&gt;MAX(F68:G68),B68=C68),OR(AND(ISBLANK(A68)=FALSE,ISNA(VLOOKUP(A68,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B68,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C68,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D68)=FALSE,ISNA(VLOOKUP(D68,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A68:D68)=1,COUNTBLANK(A68:D68)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K68:K75" si="3">IF(OR(OR(AND(OR(A68=B68,A68=C68,A68=D68,B68=C68,B68=D68,C68=D68),OR(A68&lt;&gt;"",D68&lt;&gt;"")),H68&gt;MAX(F68:G68),B68=C68),OR(AND(ISBLANK(A68)=FALSE,ISNA(VLOOKUP(A68,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B68,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C68,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D68)=FALSE,ISNA(VLOOKUP(D68,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A68:D68)=1,COUNTBLANK(A68:D68)=3))),"ERREUR","")</f>
         <v/>
       </c>
       <c r="L68" s="1"/>
@@ -3388,126 +3391,280 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>11</v>
+      </c>
+      <c r="G69" s="5">
+        <v>7</v>
+      </c>
+      <c r="H69" s="1">
+        <v>11</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J69" s="1"/>
-      <c r="K69" s="9"/>
+      <c r="K69" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
+        <v>11</v>
+      </c>
+      <c r="G70" s="5">
+        <v>5</v>
+      </c>
+      <c r="H70" s="1">
+        <v>11</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J70" s="1"/>
-      <c r="K70" s="9"/>
+      <c r="K70" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>11</v>
+      </c>
+      <c r="G71" s="5">
+        <v>3</v>
+      </c>
+      <c r="H71" s="1">
+        <v>11</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J71" s="1"/>
-      <c r="K71" s="9"/>
+      <c r="K71" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>11</v>
+      </c>
+      <c r="G72" s="5">
+        <v>4</v>
+      </c>
+      <c r="H72" s="1">
+        <v>11</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J72" s="1"/>
-      <c r="K72" s="9"/>
+      <c r="K72" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>11</v>
+      </c>
+      <c r="G73" s="5">
+        <v>9</v>
+      </c>
+      <c r="H73" s="1">
+        <v>11</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J73" s="1"/>
-      <c r="K73" s="9"/>
+      <c r="K73" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F74" s="5">
+        <v>11</v>
+      </c>
+      <c r="G74" s="5">
+        <v>5</v>
+      </c>
+      <c r="H74" s="1">
+        <v>11</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J74" s="1"/>
-      <c r="K74" s="9"/>
+      <c r="K74" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F75" s="5">
+        <v>16</v>
+      </c>
+      <c r="G75" s="5">
+        <v>14</v>
+      </c>
+      <c r="H75" s="1">
+        <v>11</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J75" s="1"/>
-      <c r="K75" s="9"/>
+      <c r="K75" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
@@ -3524,7 +3681,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
@@ -3541,7 +3698,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
@@ -3558,7 +3715,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
@@ -3575,7 +3732,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
@@ -3592,7 +3749,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
@@ -3609,7 +3766,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
@@ -3626,7 +3783,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
@@ -3643,7 +3800,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
@@ -3660,7 +3817,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
@@ -3677,7 +3834,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
@@ -3694,7 +3851,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
@@ -3711,7 +3868,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
@@ -3728,7 +3885,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
@@ -3745,7 +3902,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
@@ -3762,7 +3919,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
@@ -3779,7 +3936,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
@@ -3796,7 +3953,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
@@ -3813,7 +3970,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
@@ -3830,7 +3987,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
@@ -3847,7 +4004,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
@@ -3864,7 +4021,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
@@ -3881,7 +4038,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
@@ -3898,7 +4055,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
@@ -3915,7 +4072,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
@@ -3932,7 +4089,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
@@ -3949,7 +4106,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
@@ -3966,7 +4123,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
@@ -3983,7 +4140,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
@@ -4000,7 +4157,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
@@ -4017,7 +4174,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
@@ -4034,7 +4191,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
@@ -4051,7 +4208,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
@@ -4068,7 +4225,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
@@ -4085,7 +4242,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
@@ -4102,7 +4259,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
@@ -4119,7 +4276,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
@@ -4136,7 +4293,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
@@ -4153,7 +4310,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
@@ -4170,7 +4327,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
@@ -4187,7 +4344,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
@@ -4204,7 +4361,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
@@ -4221,7 +4378,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
@@ -4238,7 +4395,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
@@ -4255,7 +4412,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
@@ -4272,7 +4429,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
@@ -4289,7 +4446,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
@@ -4306,7 +4463,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
@@ -4323,7 +4480,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
@@ -4340,7 +4497,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
@@ -4357,7 +4514,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
@@ -4374,7 +4531,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
@@ -4391,7 +4548,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
@@ -4408,7 +4565,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
@@ -4425,7 +4582,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
@@ -4442,7 +4599,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
@@ -4459,7 +4616,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
@@ -4476,7 +4633,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
@@ -4493,7 +4650,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
@@ -4510,7 +4667,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
@@ -4527,7 +4684,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
@@ -4544,7 +4701,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
@@ -4561,7 +4718,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
@@ -4578,7 +4735,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
@@ -4595,7 +4752,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
@@ -4612,7 +4769,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
@@ -4629,7 +4786,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
@@ -4646,7 +4803,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
@@ -4663,7 +4820,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
@@ -4680,7 +4837,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="7"/>
@@ -4697,7 +4854,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="7"/>
@@ -4714,7 +4871,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
@@ -4731,7 +4888,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
@@ -4748,7 +4905,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="7"/>
@@ -4765,7 +4922,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="7"/>
@@ -4782,7 +4939,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="7"/>
@@ -4799,7 +4956,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
@@ -4816,7 +4973,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="7"/>
@@ -4833,7 +4990,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="7"/>
@@ -4850,7 +5007,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="7"/>
@@ -4867,7 +5024,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="7"/>
@@ -4884,7 +5041,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="7"/>
@@ -4901,7 +5058,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="7"/>
@@ -4918,7 +5075,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="7"/>
@@ -4935,7 +5092,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="7"/>
@@ -4952,7 +5109,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="7"/>
@@ -4969,7 +5126,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="7"/>
@@ -4986,7 +5143,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="7"/>
@@ -5003,7 +5160,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="7"/>
@@ -5020,7 +5177,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="7"/>
@@ -5037,7 +5194,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="7"/>
@@ -5054,7 +5211,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="7"/>
@@ -5071,7 +5228,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="7"/>
@@ -5088,7 +5245,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="7"/>
@@ -5105,7 +5262,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="7"/>
@@ -5122,7 +5279,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="7"/>
@@ -5139,7 +5296,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="7"/>
@@ -5156,7 +5313,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="7"/>
@@ -5173,7 +5330,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="7"/>
@@ -5190,7 +5347,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="7"/>
@@ -5207,7 +5364,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
@@ -5224,7 +5381,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
@@ -5241,7 +5398,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="7"/>
@@ -5258,7 +5415,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="7"/>
@@ -5275,7 +5432,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
@@ -5292,7 +5449,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="7"/>
@@ -5309,7 +5466,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="7"/>
@@ -5326,7 +5483,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="7"/>
@@ -5343,7 +5500,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
@@ -5360,7 +5517,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="7"/>
@@ -5377,7 +5534,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
@@ -5394,7 +5551,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="7"/>
@@ -5411,7 +5568,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="7"/>
@@ -5428,7 +5585,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="7"/>
@@ -5445,7 +5602,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="7"/>
@@ -5462,7 +5619,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="7"/>
@@ -5479,7 +5636,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="7"/>
@@ -5496,7 +5653,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="7"/>
@@ -5513,7 +5670,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="7"/>
@@ -5530,7 +5687,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="7"/>
@@ -5547,7 +5704,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="7"/>
@@ -5564,7 +5721,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="7"/>
@@ -5581,7 +5738,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="7"/>
@@ -5598,7 +5755,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="7"/>
@@ -5615,7 +5772,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="7"/>
@@ -5632,7 +5789,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="7"/>
@@ -5649,7 +5806,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="7"/>
@@ -5666,7 +5823,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="7"/>
@@ -5683,7 +5840,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="7"/>
@@ -5700,7 +5857,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="7"/>
@@ -5717,7 +5874,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="7"/>
@@ -5734,7 +5891,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="7"/>
@@ -5751,7 +5908,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="7"/>
@@ -5768,7 +5925,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="7"/>
@@ -5785,7 +5942,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="7"/>
@@ -5802,7 +5959,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="7"/>
@@ -5819,7 +5976,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="7"/>
@@ -5836,7 +5993,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="7"/>
@@ -5853,7 +6010,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="7"/>
@@ -5870,7 +6027,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="7"/>
@@ -5887,7 +6044,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="7"/>
@@ -5904,7 +6061,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="7"/>
@@ -5921,7 +6078,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="7"/>
@@ -5938,7 +6095,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="7"/>
@@ -5955,7 +6112,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="7"/>
@@ -5972,7 +6129,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="7"/>
@@ -5989,7 +6146,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="7"/>
@@ -6006,7 +6163,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="7"/>
@@ -6023,7 +6180,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="7"/>
@@ -6040,7 +6197,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="7"/>
@@ -6057,7 +6214,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="7"/>
@@ -6074,7 +6231,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="7"/>
@@ -6091,7 +6248,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="7"/>
@@ -6108,7 +6265,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="7"/>
@@ -6125,7 +6282,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="7"/>
@@ -6142,7 +6299,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="7"/>
@@ -6159,7 +6316,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="7"/>
@@ -6176,7 +6333,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="7"/>
@@ -6193,7 +6350,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="7"/>
@@ -6210,7 +6367,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="7"/>
@@ -6227,7 +6384,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="7"/>
@@ -6244,7 +6401,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="7"/>
@@ -6261,7 +6418,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="7"/>
@@ -6278,7 +6435,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="7"/>
@@ -6295,7 +6452,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="7"/>
@@ -6312,7 +6469,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="7"/>
@@ -6329,7 +6486,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="7"/>
@@ -6346,7 +6503,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="7"/>
@@ -6363,7 +6520,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="7"/>
@@ -6380,7 +6537,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="7"/>
@@ -6397,7 +6554,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="7"/>
@@ -6414,7 +6571,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="7"/>
@@ -6431,7 +6588,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="7"/>
@@ -6448,7 +6605,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="7"/>
@@ -6465,7 +6622,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="7"/>
@@ -6482,7 +6639,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="7"/>
@@ -6499,7 +6656,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="7"/>
@@ -6516,7 +6673,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="7"/>
@@ -6533,7 +6690,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="7"/>
@@ -6550,7 +6707,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="7"/>
@@ -6567,7 +6724,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="7"/>
@@ -6584,7 +6741,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="7"/>
@@ -6601,7 +6758,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="7"/>
@@ -6618,7 +6775,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="7"/>
@@ -6635,7 +6792,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="7"/>
@@ -6652,7 +6809,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="7"/>
@@ -6669,7 +6826,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="7"/>
@@ -6686,7 +6843,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="7"/>
@@ -6703,7 +6860,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="7"/>
@@ -6720,7 +6877,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="7"/>
@@ -6737,7 +6894,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="7"/>
@@ -6754,7 +6911,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="7"/>
@@ -6771,7 +6928,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="7"/>
@@ -6788,7 +6945,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="7"/>
@@ -6805,7 +6962,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="7"/>
@@ -6822,7 +6979,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="7"/>
@@ -6839,7 +6996,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="7"/>
@@ -6856,7 +7013,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="7"/>
@@ -6873,7 +7030,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="7"/>
@@ -6890,7 +7047,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="7"/>
@@ -6907,7 +7064,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="7"/>
@@ -6924,7 +7081,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="7"/>
@@ -6941,7 +7098,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="7"/>
@@ -6958,7 +7115,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="7"/>
@@ -6975,7 +7132,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="7"/>
@@ -6992,7 +7149,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="7"/>
@@ -7009,7 +7166,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="7"/>
@@ -7026,7 +7183,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="7"/>
@@ -7043,7 +7200,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="7"/>
@@ -7060,7 +7217,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="7"/>
@@ -7077,7 +7234,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="7"/>
@@ -7094,7 +7251,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="7"/>
@@ -7111,7 +7268,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="7"/>
@@ -7128,7 +7285,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="7"/>
@@ -7145,7 +7302,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="7"/>
@@ -7162,7 +7319,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="7"/>
@@ -7179,7 +7336,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="7"/>
@@ -7196,7 +7353,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="7"/>
@@ -7213,7 +7370,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="7"/>
@@ -7230,7 +7387,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="7"/>
@@ -7247,7 +7404,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="7"/>
@@ -7264,7 +7421,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="7"/>
@@ -7281,7 +7438,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="7"/>
@@ -7298,7 +7455,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="7"/>
@@ -7315,7 +7472,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="7"/>
@@ -7332,7 +7489,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="7"/>
@@ -7349,7 +7506,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="7"/>
@@ -7366,7 +7523,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="7"/>
@@ -7383,7 +7540,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="7"/>
@@ -7400,7 +7557,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="7"/>
@@ -7417,7 +7574,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="7"/>
@@ -7434,7 +7591,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="7"/>
@@ -7451,7 +7608,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="7"/>
@@ -7468,7 +7625,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="7"/>
@@ -7485,7 +7642,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="7"/>
@@ -7502,7 +7659,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="7"/>
@@ -7519,7 +7676,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="7"/>
@@ -7536,7 +7693,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="7"/>
@@ -7553,7 +7710,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="7"/>
@@ -7570,7 +7727,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="7"/>
@@ -7587,7 +7744,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="7"/>
@@ -7604,7 +7761,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="7"/>
@@ -7621,7 +7778,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="7"/>
@@ -7638,7 +7795,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="7"/>
@@ -7655,7 +7812,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="7"/>
@@ -7672,7 +7829,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="7"/>
@@ -7689,7 +7846,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="7"/>
@@ -7706,7 +7863,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="7"/>
@@ -7723,7 +7880,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="7"/>
@@ -7740,7 +7897,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="7"/>
@@ -7757,7 +7914,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="7"/>
@@ -7774,7 +7931,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="7"/>
@@ -7791,7 +7948,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="7"/>
@@ -7808,7 +7965,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="7"/>
@@ -7825,7 +7982,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="7"/>
@@ -7842,7 +7999,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="7"/>
@@ -7859,7 +8016,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="7"/>
@@ -7876,7 +8033,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="7"/>
@@ -7893,7 +8050,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="7"/>
@@ -7910,7 +8067,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="7"/>
@@ -7927,7 +8084,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="7"/>
@@ -7944,7 +8101,7 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="7"/>
@@ -7961,7 +8118,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="7"/>
@@ -7978,7 +8135,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="7"/>
@@ -7995,7 +8152,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="7"/>
@@ -8012,7 +8169,7 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="7"/>
@@ -8029,7 +8186,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="7"/>
@@ -8046,7 +8203,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="7"/>
@@ -8063,7 +8220,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="7"/>
@@ -8080,7 +8237,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="7"/>
@@ -8097,7 +8254,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="7"/>
@@ -8114,7 +8271,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="7"/>
@@ -8131,7 +8288,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="7"/>
@@ -8148,7 +8305,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="7"/>
@@ -8165,7 +8322,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="7"/>
@@ -8182,7 +8339,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="7"/>
@@ -8199,7 +8356,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="7"/>
@@ -8216,7 +8373,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="7"/>
@@ -8233,7 +8390,7 @@
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="7"/>
@@ -8250,7 +8407,7 @@
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="7"/>
@@ -8267,7 +8424,7 @@
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="7"/>
@@ -8284,7 +8441,7 @@
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="7"/>
@@ -8301,7 +8458,7 @@
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="7"/>
@@ -8318,7 +8475,7 @@
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="7"/>
@@ -8335,7 +8492,7 @@
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="7"/>
@@ -8352,7 +8509,7 @@
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="7"/>
@@ -8369,7 +8526,7 @@
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="7"/>
@@ -8386,7 +8543,7 @@
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="7"/>
@@ -8403,7 +8560,7 @@
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="7"/>
@@ -8420,7 +8577,7 @@
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="7"/>
@@ -8437,7 +8594,7 @@
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="7"/>
@@ -8454,7 +8611,7 @@
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="7"/>
@@ -8471,7 +8628,7 @@
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="7"/>
@@ -8488,7 +8645,7 @@
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="7"/>
@@ -8505,7 +8662,7 @@
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="7"/>
@@ -8522,7 +8679,7 @@
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="7"/>
@@ -8539,7 +8696,7 @@
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="7"/>
@@ -8556,7 +8713,7 @@
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="7"/>
@@ -8573,7 +8730,7 @@
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="7"/>
@@ -8590,7 +8747,7 @@
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="7"/>
@@ -8607,7 +8764,7 @@
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="7"/>
@@ -8624,7 +8781,7 @@
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="7"/>
@@ -8641,7 +8798,7 @@
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="7"/>
@@ -8658,7 +8815,7 @@
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="7"/>
@@ -8675,7 +8832,7 @@
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="7"/>
@@ -8692,7 +8849,7 @@
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="7"/>
@@ -8709,7 +8866,7 @@
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="7"/>
@@ -8726,7 +8883,7 @@
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="7"/>
@@ -8743,7 +8900,7 @@
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="7"/>
@@ -8760,7 +8917,7 @@
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="7"/>
@@ -8777,7 +8934,7 @@
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="7"/>
@@ -8794,7 +8951,7 @@
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="7"/>
@@ -8811,7 +8968,7 @@
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="7"/>
@@ -8828,7 +8985,7 @@
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="7"/>
@@ -8845,7 +9002,7 @@
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="7"/>
@@ -8862,7 +9019,7 @@
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="7"/>
@@ -8879,7 +9036,7 @@
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="7"/>
@@ -8896,7 +9053,7 @@
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="7"/>
@@ -8913,7 +9070,7 @@
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="7"/>
@@ -8930,7 +9087,7 @@
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="7"/>
@@ -8947,7 +9104,7 @@
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="7"/>
@@ -8964,7 +9121,7 @@
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="7"/>
@@ -8981,7 +9138,7 @@
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="7"/>
@@ -8998,7 +9155,7 @@
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="7"/>
@@ -9015,7 +9172,7 @@
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="7"/>
@@ -9032,7 +9189,7 @@
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="7"/>
@@ -9049,7 +9206,7 @@
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="7"/>
@@ -9066,7 +9223,7 @@
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="7"/>
@@ -9083,7 +9240,7 @@
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="7"/>
@@ -9100,7 +9257,7 @@
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="7"/>
@@ -9117,7 +9274,7 @@
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="7"/>
@@ -9134,7 +9291,7 @@
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="7"/>
@@ -9151,7 +9308,7 @@
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="7"/>
@@ -9168,7 +9325,7 @@
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="7"/>
@@ -9185,7 +9342,7 @@
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="7"/>
@@ -9202,7 +9359,7 @@
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="7"/>
@@ -9219,7 +9376,7 @@
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="7"/>
@@ -9236,7 +9393,7 @@
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="7"/>
@@ -9253,7 +9410,7 @@
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="7"/>
@@ -9270,7 +9427,7 @@
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="7"/>
@@ -9287,7 +9444,7 @@
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="7"/>
@@ -9304,7 +9461,7 @@
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="7"/>
@@ -9321,7 +9478,7 @@
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="7"/>
@@ -9338,7 +9495,7 @@
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="7"/>
@@ -9355,7 +9512,7 @@
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="7"/>
@@ -9372,7 +9529,7 @@
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="7"/>
@@ -9389,7 +9546,7 @@
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="7"/>
@@ -9406,7 +9563,7 @@
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="7"/>
@@ -9423,7 +9580,7 @@
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="7"/>
@@ -9440,7 +9597,7 @@
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="7"/>
@@ -9457,7 +9614,7 @@
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="7"/>
@@ -9474,7 +9631,7 @@
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="7"/>
@@ -9491,7 +9648,7 @@
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="7"/>
@@ -9508,7 +9665,7 @@
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="7"/>
@@ -9525,7 +9682,7 @@
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="7"/>
@@ -9542,7 +9699,7 @@
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="7"/>
@@ -9559,7 +9716,7 @@
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="7"/>
@@ -9576,7 +9733,7 @@
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="7"/>
@@ -9593,7 +9750,7 @@
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="7"/>
@@ -9610,7 +9767,7 @@
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="7"/>
@@ -9627,7 +9784,7 @@
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="7"/>
@@ -9644,7 +9801,7 @@
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="7"/>
@@ -9661,7 +9818,7 @@
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="7"/>
@@ -9678,7 +9835,7 @@
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="7"/>
@@ -9695,7 +9852,7 @@
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="7"/>
@@ -9712,7 +9869,7 @@
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="7"/>
@@ -9729,7 +9886,7 @@
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="7"/>
@@ -9746,7 +9903,7 @@
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="7"/>
@@ -9763,7 +9920,7 @@
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="7"/>
@@ -9780,7 +9937,7 @@
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="7"/>
@@ -9797,7 +9954,7 @@
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="7"/>
@@ -9814,7 +9971,7 @@
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="7"/>
@@ -9831,7 +9988,7 @@
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="7"/>
@@ -9848,7 +10005,7 @@
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="7"/>
@@ -9865,7 +10022,7 @@
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="7"/>
@@ -9882,7 +10039,7 @@
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="7"/>
@@ -9899,7 +10056,7 @@
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="7"/>
@@ -9916,7 +10073,7 @@
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="7"/>
@@ -9933,7 +10090,7 @@
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="7"/>
@@ -9950,7 +10107,7 @@
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="7"/>
@@ -9967,7 +10124,7 @@
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="7"/>
@@ -9984,7 +10141,7 @@
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="7"/>
@@ -10001,7 +10158,7 @@
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="7"/>
@@ -10018,7 +10175,7 @@
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="7"/>
@@ -10035,7 +10192,7 @@
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="7"/>
@@ -10052,7 +10209,7 @@
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="7"/>
@@ -10069,7 +10226,7 @@
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="7"/>
@@ -10086,7 +10243,7 @@
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="7"/>
@@ -10103,7 +10260,7 @@
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="7"/>
@@ -10120,7 +10277,7 @@
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="7"/>
@@ -10137,7 +10294,7 @@
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="7"/>
@@ -10154,7 +10311,7 @@
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="7"/>
@@ -10171,7 +10328,7 @@
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="7"/>
@@ -10188,7 +10345,7 @@
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="7"/>
@@ -10205,7 +10362,7 @@
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="7"/>
@@ -10222,7 +10379,7 @@
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="7"/>
@@ -10239,7 +10396,7 @@
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="7"/>
@@ -10256,7 +10413,7 @@
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="7"/>
@@ -10273,7 +10430,7 @@
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="7"/>
@@ -10290,7 +10447,7 @@
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="7"/>
@@ -10307,7 +10464,7 @@
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="7"/>
@@ -10324,7 +10481,7 @@
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="7"/>
@@ -10341,7 +10498,7 @@
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="7"/>
@@ -10358,7 +10515,7 @@
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="7"/>
@@ -10375,7 +10532,7 @@
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="7"/>
@@ -10392,7 +10549,7 @@
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="7"/>
@@ -10409,7 +10566,7 @@
       <c r="N481" s="1"/>
       <c r="O481" s="1"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="7"/>
@@ -10426,7 +10583,7 @@
       <c r="N482" s="1"/>
       <c r="O482" s="1"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="7"/>
@@ -10443,7 +10600,7 @@
       <c r="N483" s="1"/>
       <c r="O483" s="1"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="7"/>
@@ -10460,7 +10617,7 @@
       <c r="N484" s="1"/>
       <c r="O484" s="1"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="7"/>
@@ -10477,7 +10634,7 @@
       <c r="N485" s="1"/>
       <c r="O485" s="1"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="7"/>
@@ -10494,7 +10651,7 @@
       <c r="N486" s="1"/>
       <c r="O486" s="1"/>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="7"/>
@@ -10511,7 +10668,7 @@
       <c r="N487" s="1"/>
       <c r="O487" s="1"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="7"/>
@@ -10528,7 +10685,7 @@
       <c r="N488" s="1"/>
       <c r="O488" s="1"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="7"/>
@@ -10545,7 +10702,7 @@
       <c r="N489" s="1"/>
       <c r="O489" s="1"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="7"/>
@@ -10562,7 +10719,7 @@
       <c r="N490" s="1"/>
       <c r="O490" s="1"/>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="7"/>
@@ -10579,7 +10736,7 @@
       <c r="N491" s="1"/>
       <c r="O491" s="1"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="7"/>
@@ -10596,7 +10753,7 @@
       <c r="N492" s="1"/>
       <c r="O492" s="1"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="7"/>
@@ -10613,7 +10770,7 @@
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="7"/>
@@ -10630,7 +10787,7 @@
       <c r="N494" s="1"/>
       <c r="O494" s="1"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="7"/>
@@ -10647,7 +10804,7 @@
       <c r="N495" s="1"/>
       <c r="O495" s="1"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="7"/>
@@ -10664,7 +10821,7 @@
       <c r="N496" s="1"/>
       <c r="O496" s="1"/>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="7"/>
@@ -10681,7 +10838,7 @@
       <c r="N497" s="1"/>
       <c r="O497" s="1"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="7"/>
@@ -10698,7 +10855,7 @@
       <c r="N498" s="1"/>
       <c r="O498" s="1"/>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="7"/>
@@ -10715,7 +10872,7 @@
       <c r="N499" s="1"/>
       <c r="O499" s="1"/>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="7"/>
@@ -10732,7 +10889,7 @@
       <c r="N500" s="1"/>
       <c r="O500" s="1"/>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="7"/>
@@ -10749,7 +10906,7 @@
       <c r="N501" s="1"/>
       <c r="O501" s="1"/>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="7"/>
@@ -10766,7 +10923,7 @@
       <c r="N502" s="1"/>
       <c r="O502" s="1"/>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="7"/>
@@ -10783,7 +10940,7 @@
       <c r="N503" s="1"/>
       <c r="O503" s="1"/>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="7"/>
@@ -10800,7 +10957,7 @@
       <c r="N504" s="1"/>
       <c r="O504" s="1"/>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="7"/>
@@ -10817,7 +10974,7 @@
       <c r="N505" s="1"/>
       <c r="O505" s="1"/>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="7"/>
@@ -10834,7 +10991,7 @@
       <c r="N506" s="1"/>
       <c r="O506" s="1"/>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="7"/>
@@ -10851,7 +11008,7 @@
       <c r="N507" s="1"/>
       <c r="O507" s="1"/>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="7"/>
@@ -10868,7 +11025,7 @@
       <c r="N508" s="1"/>
       <c r="O508" s="1"/>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="7"/>
@@ -10885,7 +11042,7 @@
       <c r="N509" s="1"/>
       <c r="O509" s="1"/>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="7"/>
@@ -10902,7 +11059,7 @@
       <c r="N510" s="1"/>
       <c r="O510" s="1"/>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="7"/>
@@ -10919,7 +11076,7 @@
       <c r="N511" s="1"/>
       <c r="O511" s="1"/>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="7"/>
@@ -10936,7 +11093,7 @@
       <c r="N512" s="1"/>
       <c r="O512" s="1"/>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="7"/>
@@ -10953,7 +11110,7 @@
       <c r="N513" s="1"/>
       <c r="O513" s="1"/>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="7"/>
@@ -10970,7 +11127,7 @@
       <c r="N514" s="1"/>
       <c r="O514" s="1"/>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="7"/>
@@ -10987,7 +11144,7 @@
       <c r="N515" s="1"/>
       <c r="O515" s="1"/>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="7"/>
@@ -11004,7 +11161,7 @@
       <c r="N516" s="1"/>
       <c r="O516" s="1"/>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="7"/>
@@ -11021,7 +11178,7 @@
       <c r="N517" s="1"/>
       <c r="O517" s="1"/>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="7"/>
@@ -11038,7 +11195,7 @@
       <c r="N518" s="1"/>
       <c r="O518" s="1"/>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="7"/>
@@ -11055,7 +11212,7 @@
       <c r="N519" s="1"/>
       <c r="O519" s="1"/>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="7"/>
@@ -11072,7 +11229,7 @@
       <c r="N520" s="1"/>
       <c r="O520" s="1"/>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="7"/>
@@ -11089,7 +11246,7 @@
       <c r="N521" s="1"/>
       <c r="O521" s="1"/>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="7"/>
@@ -11106,7 +11263,7 @@
       <c r="N522" s="1"/>
       <c r="O522" s="1"/>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="7"/>
@@ -11123,7 +11280,7 @@
       <c r="N523" s="1"/>
       <c r="O523" s="1"/>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="7"/>
@@ -11140,7 +11297,7 @@
       <c r="N524" s="1"/>
       <c r="O524" s="1"/>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="7"/>
@@ -11157,7 +11314,7 @@
       <c r="N525" s="1"/>
       <c r="O525" s="1"/>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="7"/>
@@ -11174,7 +11331,7 @@
       <c r="N526" s="1"/>
       <c r="O526" s="1"/>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="7"/>
@@ -11191,7 +11348,7 @@
       <c r="N527" s="1"/>
       <c r="O527" s="1"/>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="7"/>
@@ -11208,7 +11365,7 @@
       <c r="N528" s="1"/>
       <c r="O528" s="1"/>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="7"/>
@@ -11225,7 +11382,7 @@
       <c r="N529" s="1"/>
       <c r="O529" s="1"/>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="7"/>
@@ -11242,7 +11399,7 @@
       <c r="N530" s="1"/>
       <c r="O530" s="1"/>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="7"/>
@@ -11259,7 +11416,7 @@
       <c r="N531" s="1"/>
       <c r="O531" s="1"/>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="7"/>
@@ -11276,7 +11433,7 @@
       <c r="N532" s="1"/>
       <c r="O532" s="1"/>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="7"/>
@@ -11293,7 +11450,7 @@
       <c r="N533" s="1"/>
       <c r="O533" s="1"/>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="7"/>
@@ -11310,7 +11467,7 @@
       <c r="N534" s="1"/>
       <c r="O534" s="1"/>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="7"/>
@@ -11327,7 +11484,7 @@
       <c r="N535" s="1"/>
       <c r="O535" s="1"/>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="7"/>
@@ -11344,7 +11501,7 @@
       <c r="N536" s="1"/>
       <c r="O536" s="1"/>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="7"/>
@@ -11361,7 +11518,7 @@
       <c r="N537" s="1"/>
       <c r="O537" s="1"/>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="7"/>
@@ -11378,7 +11535,7 @@
       <c r="N538" s="1"/>
       <c r="O538" s="1"/>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="7"/>
@@ -11395,7 +11552,7 @@
       <c r="N539" s="1"/>
       <c r="O539" s="1"/>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="7"/>
@@ -11412,7 +11569,7 @@
       <c r="N540" s="1"/>
       <c r="O540" s="1"/>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="7"/>
@@ -11429,7 +11586,7 @@
       <c r="N541" s="1"/>
       <c r="O541" s="1"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="7"/>
@@ -11446,7 +11603,7 @@
       <c r="N542" s="1"/>
       <c r="O542" s="1"/>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="7"/>
@@ -11463,7 +11620,7 @@
       <c r="N543" s="1"/>
       <c r="O543" s="1"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="7"/>
@@ -11480,7 +11637,7 @@
       <c r="N544" s="1"/>
       <c r="O544" s="1"/>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="7"/>
@@ -11497,7 +11654,7 @@
       <c r="N545" s="1"/>
       <c r="O545" s="1"/>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="7"/>
@@ -11514,7 +11671,7 @@
       <c r="N546" s="1"/>
       <c r="O546" s="1"/>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="7"/>
@@ -11531,7 +11688,7 @@
       <c r="N547" s="1"/>
       <c r="O547" s="1"/>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="7"/>
@@ -11548,7 +11705,7 @@
       <c r="N548" s="1"/>
       <c r="O548" s="1"/>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="7"/>
@@ -11565,7 +11722,7 @@
       <c r="N549" s="1"/>
       <c r="O549" s="1"/>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="7"/>
@@ -11582,7 +11739,7 @@
       <c r="N550" s="1"/>
       <c r="O550" s="1"/>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="7"/>
@@ -11599,7 +11756,7 @@
       <c r="N551" s="1"/>
       <c r="O551" s="1"/>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="7"/>
@@ -11616,7 +11773,7 @@
       <c r="N552" s="1"/>
       <c r="O552" s="1"/>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="7"/>
@@ -11633,7 +11790,7 @@
       <c r="N553" s="1"/>
       <c r="O553" s="1"/>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="7"/>
@@ -11650,7 +11807,7 @@
       <c r="N554" s="1"/>
       <c r="O554" s="1"/>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="7"/>
@@ -11667,7 +11824,7 @@
       <c r="N555" s="1"/>
       <c r="O555" s="1"/>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="7"/>
@@ -11684,7 +11841,7 @@
       <c r="N556" s="1"/>
       <c r="O556" s="1"/>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="7"/>
@@ -11701,7 +11858,7 @@
       <c r="N557" s="1"/>
       <c r="O557" s="1"/>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="7"/>
@@ -11718,7 +11875,7 @@
       <c r="N558" s="1"/>
       <c r="O558" s="1"/>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="7"/>
@@ -11735,7 +11892,7 @@
       <c r="N559" s="1"/>
       <c r="O559" s="1"/>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="7"/>
@@ -11752,7 +11909,7 @@
       <c r="N560" s="1"/>
       <c r="O560" s="1"/>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="7"/>
@@ -11769,7 +11926,7 @@
       <c r="N561" s="1"/>
       <c r="O561" s="1"/>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="7"/>
@@ -11786,7 +11943,7 @@
       <c r="N562" s="1"/>
       <c r="O562" s="1"/>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="7"/>
@@ -11803,7 +11960,7 @@
       <c r="N563" s="1"/>
       <c r="O563" s="1"/>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="7"/>
@@ -11820,7 +11977,7 @@
       <c r="N564" s="1"/>
       <c r="O564" s="1"/>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="7"/>
@@ -11837,7 +11994,7 @@
       <c r="N565" s="1"/>
       <c r="O565" s="1"/>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="7"/>
@@ -11854,7 +12011,7 @@
       <c r="N566" s="1"/>
       <c r="O566" s="1"/>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="7"/>
@@ -11871,7 +12028,7 @@
       <c r="N567" s="1"/>
       <c r="O567" s="1"/>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="7"/>
@@ -11888,7 +12045,7 @@
       <c r="N568" s="1"/>
       <c r="O568" s="1"/>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="7"/>
@@ -11905,7 +12062,7 @@
       <c r="N569" s="1"/>
       <c r="O569" s="1"/>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="7"/>
@@ -11922,7 +12079,7 @@
       <c r="N570" s="1"/>
       <c r="O570" s="1"/>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="7"/>
@@ -11939,7 +12096,7 @@
       <c r="N571" s="1"/>
       <c r="O571" s="1"/>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="7"/>
@@ -11956,7 +12113,7 @@
       <c r="N572" s="1"/>
       <c r="O572" s="1"/>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="7"/>
@@ -11973,7 +12130,7 @@
       <c r="N573" s="1"/>
       <c r="O573" s="1"/>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="7"/>
@@ -11990,7 +12147,7 @@
       <c r="N574" s="1"/>
       <c r="O574" s="1"/>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="7"/>
@@ -12007,7 +12164,7 @@
       <c r="N575" s="1"/>
       <c r="O575" s="1"/>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="7"/>
@@ -12024,7 +12181,7 @@
       <c r="N576" s="1"/>
       <c r="O576" s="1"/>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="7"/>
@@ -12041,7 +12198,7 @@
       <c r="N577" s="1"/>
       <c r="O577" s="1"/>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="7"/>
@@ -12058,7 +12215,7 @@
       <c r="N578" s="1"/>
       <c r="O578" s="1"/>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="7"/>
@@ -12075,7 +12232,7 @@
       <c r="N579" s="1"/>
       <c r="O579" s="1"/>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="7"/>
@@ -12092,7 +12249,7 @@
       <c r="N580" s="1"/>
       <c r="O580" s="1"/>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="7"/>
@@ -12109,7 +12266,7 @@
       <c r="N581" s="1"/>
       <c r="O581" s="1"/>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="7"/>
@@ -12126,7 +12283,7 @@
       <c r="N582" s="1"/>
       <c r="O582" s="1"/>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="7"/>
@@ -12143,7 +12300,7 @@
       <c r="N583" s="1"/>
       <c r="O583" s="1"/>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="7"/>
@@ -12160,7 +12317,7 @@
       <c r="N584" s="1"/>
       <c r="O584" s="1"/>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="7"/>
@@ -12177,7 +12334,7 @@
       <c r="N585" s="1"/>
       <c r="O585" s="1"/>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="7"/>
@@ -12194,7 +12351,7 @@
       <c r="N586" s="1"/>
       <c r="O586" s="1"/>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="7"/>
@@ -12211,7 +12368,7 @@
       <c r="N587" s="1"/>
       <c r="O587" s="1"/>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="7"/>
@@ -12228,7 +12385,7 @@
       <c r="N588" s="1"/>
       <c r="O588" s="1"/>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="7"/>
@@ -12245,7 +12402,7 @@
       <c r="N589" s="1"/>
       <c r="O589" s="1"/>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="7"/>
@@ -12262,7 +12419,7 @@
       <c r="N590" s="1"/>
       <c r="O590" s="1"/>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="7"/>
@@ -12279,7 +12436,7 @@
       <c r="N591" s="1"/>
       <c r="O591" s="1"/>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="7"/>
@@ -12296,7 +12453,7 @@
       <c r="N592" s="1"/>
       <c r="O592" s="1"/>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="7"/>
@@ -12313,7 +12470,7 @@
       <c r="N593" s="1"/>
       <c r="O593" s="1"/>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="7"/>
@@ -12330,7 +12487,7 @@
       <c r="N594" s="1"/>
       <c r="O594" s="1"/>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="7"/>
@@ -12347,7 +12504,7 @@
       <c r="N595" s="1"/>
       <c r="O595" s="1"/>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="7"/>
@@ -12364,7 +12521,7 @@
       <c r="N596" s="1"/>
       <c r="O596" s="1"/>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="7"/>
@@ -12381,7 +12538,7 @@
       <c r="N597" s="1"/>
       <c r="O597" s="1"/>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="7"/>
@@ -12398,7 +12555,7 @@
       <c r="N598" s="1"/>
       <c r="O598" s="1"/>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="7"/>
@@ -12415,7 +12572,7 @@
       <c r="N599" s="1"/>
       <c r="O599" s="1"/>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="7"/>
@@ -12432,7 +12589,7 @@
       <c r="N600" s="1"/>
       <c r="O600" s="1"/>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="7"/>
@@ -12449,7 +12606,7 @@
       <c r="N601" s="1"/>
       <c r="O601" s="1"/>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="7"/>
@@ -12461,7 +12618,7 @@
       <c r="I602" s="1"/>
       <c r="K602" s="9"/>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="7"/>
@@ -12473,7 +12630,7 @@
       <c r="I603" s="1"/>
       <c r="K603" s="9"/>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="7"/>
@@ -12485,7 +12642,7 @@
       <c r="I604" s="1"/>
       <c r="K604" s="9"/>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="7"/>
@@ -12497,7 +12654,7 @@
       <c r="I605" s="1"/>
       <c r="K605" s="9"/>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="7"/>
@@ -12509,7 +12666,7 @@
       <c r="I606" s="1"/>
       <c r="K606" s="9"/>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="7"/>
@@ -12521,7 +12678,7 @@
       <c r="I607" s="1"/>
       <c r="K607" s="9"/>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="7"/>
@@ -12533,7 +12690,7 @@
       <c r="I608" s="1"/>
       <c r="K608" s="9"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="7"/>
@@ -12545,7 +12702,7 @@
       <c r="I609" s="1"/>
       <c r="K609" s="9"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="7"/>
@@ -12557,7 +12714,7 @@
       <c r="I610" s="1"/>
       <c r="K610" s="9"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="7"/>
@@ -12569,7 +12726,7 @@
       <c r="I611" s="1"/>
       <c r="K611" s="9"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="7"/>
@@ -12581,7 +12738,7 @@
       <c r="I612" s="1"/>
       <c r="K612" s="9"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="7"/>
@@ -12593,7 +12750,7 @@
       <c r="I613" s="1"/>
       <c r="K613" s="9"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="7"/>
@@ -12605,7 +12762,7 @@
       <c r="I614" s="1"/>
       <c r="K614" s="9"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="7"/>
@@ -12617,7 +12774,7 @@
       <c r="I615" s="1"/>
       <c r="K615" s="9"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="7"/>
@@ -12629,7 +12786,7 @@
       <c r="I616" s="1"/>
       <c r="K616" s="9"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="7"/>
@@ -12641,7 +12798,7 @@
       <c r="I617" s="1"/>
       <c r="K617" s="9"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="7"/>
@@ -12653,7 +12810,7 @@
       <c r="I618" s="1"/>
       <c r="K618" s="9"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="7"/>
@@ -12665,7 +12822,7 @@
       <c r="I619" s="1"/>
       <c r="K619" s="9"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="7"/>
@@ -12677,7 +12834,7 @@
       <c r="I620" s="1"/>
       <c r="K620" s="9"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="7"/>
@@ -12689,7 +12846,7 @@
       <c r="I621" s="1"/>
       <c r="K621" s="9"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="7"/>
@@ -12701,7 +12858,7 @@
       <c r="I622" s="1"/>
       <c r="K622" s="9"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="7"/>
@@ -12713,7 +12870,7 @@
       <c r="I623" s="1"/>
       <c r="K623" s="9"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="7"/>
@@ -12725,7 +12882,7 @@
       <c r="I624" s="1"/>
       <c r="K624" s="9"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="7"/>
@@ -12737,7 +12894,7 @@
       <c r="I625" s="1"/>
       <c r="K625" s="9"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="7"/>
@@ -12749,7 +12906,7 @@
       <c r="I626" s="1"/>
       <c r="K626" s="9"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="7"/>
@@ -12761,7 +12918,7 @@
       <c r="I627" s="1"/>
       <c r="K627" s="9"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="7"/>
@@ -12773,7 +12930,7 @@
       <c r="I628" s="1"/>
       <c r="K628" s="9"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="7"/>
@@ -12785,7 +12942,7 @@
       <c r="I629" s="1"/>
       <c r="K629" s="9"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="7"/>
@@ -12797,7 +12954,7 @@
       <c r="I630" s="1"/>
       <c r="K630" s="9"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="7"/>
@@ -12809,7 +12966,7 @@
       <c r="I631" s="1"/>
       <c r="K631" s="9"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="7"/>
@@ -12821,7 +12978,7 @@
       <c r="I632" s="1"/>
       <c r="K632" s="9"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="7"/>
@@ -12833,7 +12990,7 @@
       <c r="I633" s="1"/>
       <c r="K633" s="9"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="7"/>
@@ -12845,7 +13002,7 @@
       <c r="I634" s="1"/>
       <c r="K634" s="9"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="7"/>
@@ -12857,7 +13014,7 @@
       <c r="I635" s="1"/>
       <c r="K635" s="9"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="7"/>
@@ -12869,7 +13026,7 @@
       <c r="I636" s="1"/>
       <c r="K636" s="9"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="7"/>
@@ -12881,7 +13038,7 @@
       <c r="I637" s="1"/>
       <c r="K637" s="9"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="7"/>
@@ -12893,7 +13050,7 @@
       <c r="I638" s="1"/>
       <c r="K638" s="9"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="7"/>
@@ -12905,7 +13062,7 @@
       <c r="I639" s="1"/>
       <c r="K639" s="9"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="7"/>
@@ -12917,7 +13074,7 @@
       <c r="I640" s="1"/>
       <c r="K640" s="9"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="7"/>
@@ -12929,7 +13086,7 @@
       <c r="I641" s="1"/>
       <c r="K641" s="9"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="7"/>
@@ -12941,7 +13098,7 @@
       <c r="I642" s="1"/>
       <c r="K642" s="9"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="7"/>
@@ -12953,7 +13110,7 @@
       <c r="I643" s="1"/>
       <c r="K643" s="9"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="7"/>
@@ -12965,7 +13122,7 @@
       <c r="I644" s="1"/>
       <c r="K644" s="9"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="7"/>
@@ -12977,7 +13134,7 @@
       <c r="I645" s="1"/>
       <c r="K645" s="9"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="7"/>
@@ -12989,7 +13146,7 @@
       <c r="I646" s="1"/>
       <c r="K646" s="9"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="7"/>
@@ -13001,7 +13158,7 @@
       <c r="I647" s="1"/>
       <c r="K647" s="9"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="7"/>
@@ -13013,7 +13170,7 @@
       <c r="I648" s="1"/>
       <c r="K648" s="9"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="7"/>
@@ -13025,7 +13182,7 @@
       <c r="I649" s="1"/>
       <c r="K649" s="9"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="7"/>
@@ -13037,7 +13194,7 @@
       <c r="I650" s="1"/>
       <c r="K650" s="9"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="7"/>
@@ -13049,7 +13206,7 @@
       <c r="I651" s="1"/>
       <c r="K651" s="9"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="7"/>
@@ -13061,7 +13218,7 @@
       <c r="I652" s="1"/>
       <c r="K652" s="9"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="7"/>
@@ -13073,7 +13230,7 @@
       <c r="I653" s="1"/>
       <c r="K653" s="9"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="7"/>
@@ -13085,7 +13242,7 @@
       <c r="I654" s="1"/>
       <c r="K654" s="9"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="7"/>
@@ -13097,7 +13254,7 @@
       <c r="I655" s="1"/>
       <c r="K655" s="9"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="7"/>
@@ -13109,7 +13266,7 @@
       <c r="I656" s="1"/>
       <c r="K656" s="9"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="7"/>
@@ -13121,7 +13278,7 @@
       <c r="I657" s="1"/>
       <c r="K657" s="9"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="7"/>
@@ -13133,7 +13290,7 @@
       <c r="I658" s="1"/>
       <c r="K658" s="9"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="7"/>
@@ -13145,7 +13302,7 @@
       <c r="I659" s="1"/>
       <c r="K659" s="9"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="7"/>
@@ -13157,7 +13314,7 @@
       <c r="I660" s="1"/>
       <c r="K660" s="9"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="7"/>
@@ -13169,7 +13326,7 @@
       <c r="I661" s="1"/>
       <c r="K661" s="9"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="7"/>
@@ -13181,7 +13338,7 @@
       <c r="I662" s="1"/>
       <c r="K662" s="9"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="7"/>
@@ -13193,7 +13350,7 @@
       <c r="I663" s="1"/>
       <c r="K663" s="9"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="7"/>
@@ -13205,7 +13362,7 @@
       <c r="I664" s="1"/>
       <c r="K664" s="9"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="7"/>
@@ -13217,7 +13374,7 @@
       <c r="I665" s="1"/>
       <c r="K665" s="9"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="7"/>
@@ -13229,7 +13386,7 @@
       <c r="I666" s="1"/>
       <c r="K666" s="9"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="7"/>
@@ -13241,7 +13398,7 @@
       <c r="I667" s="1"/>
       <c r="K667" s="9"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="7"/>
@@ -13253,7 +13410,7 @@
       <c r="I668" s="1"/>
       <c r="K668" s="9"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="7"/>
@@ -13265,7 +13422,7 @@
       <c r="I669" s="1"/>
       <c r="K669" s="9"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="7"/>
@@ -13277,7 +13434,7 @@
       <c r="I670" s="1"/>
       <c r="K670" s="9"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="7"/>
@@ -13289,7 +13446,7 @@
       <c r="I671" s="1"/>
       <c r="K671" s="9"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="7"/>
@@ -13301,7 +13458,7 @@
       <c r="I672" s="1"/>
       <c r="K672" s="9"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="7"/>
@@ -13313,7 +13470,7 @@
       <c r="I673" s="1"/>
       <c r="K673" s="9"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="7"/>
@@ -13325,7 +13482,7 @@
       <c r="I674" s="1"/>
       <c r="K674" s="9"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="7"/>
@@ -13337,7 +13494,7 @@
       <c r="I675" s="1"/>
       <c r="K675" s="9"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="7"/>
@@ -13349,7 +13506,7 @@
       <c r="I676" s="1"/>
       <c r="K676" s="9"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="7"/>
@@ -13361,7 +13518,7 @@
       <c r="I677" s="1"/>
       <c r="K677" s="9"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="7"/>
@@ -13373,7 +13530,7 @@
       <c r="I678" s="1"/>
       <c r="K678" s="9"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="7"/>
@@ -13385,7 +13542,7 @@
       <c r="I679" s="1"/>
       <c r="K679" s="9"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="7"/>
@@ -13397,7 +13554,7 @@
       <c r="I680" s="1"/>
       <c r="K680" s="9"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="7"/>
@@ -13409,7 +13566,7 @@
       <c r="I681" s="1"/>
       <c r="K681" s="9"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="7"/>
@@ -13421,7 +13578,7 @@
       <c r="I682" s="1"/>
       <c r="K682" s="9"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="7"/>
@@ -13433,7 +13590,7 @@
       <c r="I683" s="1"/>
       <c r="K683" s="9"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="7"/>
@@ -13445,7 +13602,7 @@
       <c r="I684" s="1"/>
       <c r="K684" s="9"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="7"/>
@@ -13457,7 +13614,7 @@
       <c r="I685" s="1"/>
       <c r="K685" s="9"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="7"/>
@@ -13469,7 +13626,7 @@
       <c r="I686" s="1"/>
       <c r="K686" s="9"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="7"/>
@@ -13481,7 +13638,7 @@
       <c r="I687" s="1"/>
       <c r="K687" s="9"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="7"/>
@@ -13493,7 +13650,7 @@
       <c r="I688" s="1"/>
       <c r="K688" s="9"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="7"/>
@@ -13505,7 +13662,7 @@
       <c r="I689" s="1"/>
       <c r="K689" s="9"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="7"/>
@@ -13517,7 +13674,7 @@
       <c r="I690" s="1"/>
       <c r="K690" s="9"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="7"/>
@@ -13529,7 +13686,7 @@
       <c r="I691" s="1"/>
       <c r="K691" s="9"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="7"/>
@@ -13541,7 +13698,7 @@
       <c r="I692" s="1"/>
       <c r="K692" s="9"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="7"/>
@@ -13553,7 +13710,7 @@
       <c r="I693" s="1"/>
       <c r="K693" s="9"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="7"/>
@@ -13565,7 +13722,7 @@
       <c r="I694" s="1"/>
       <c r="K694" s="9"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="7"/>
@@ -13577,7 +13734,7 @@
       <c r="I695" s="1"/>
       <c r="K695" s="9"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="7"/>
@@ -13589,7 +13746,7 @@
       <c r="I696" s="1"/>
       <c r="K696" s="9"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="7"/>
@@ -13601,7 +13758,7 @@
       <c r="I697" s="1"/>
       <c r="K697" s="9"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="7"/>
@@ -13613,7 +13770,7 @@
       <c r="I698" s="1"/>
       <c r="K698" s="9"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="7"/>
@@ -13625,7 +13782,7 @@
       <c r="I699" s="1"/>
       <c r="K699" s="9"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="7"/>
@@ -13637,7 +13794,7 @@
       <c r="I700" s="1"/>
       <c r="K700" s="9"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="7"/>
@@ -13649,7 +13806,7 @@
       <c r="I701" s="1"/>
       <c r="K701" s="9"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="7"/>
@@ -13661,7 +13818,7 @@
       <c r="I702" s="1"/>
       <c r="K702" s="9"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="7"/>
@@ -13673,7 +13830,7 @@
       <c r="I703" s="1"/>
       <c r="K703" s="9"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="7"/>
@@ -13685,7 +13842,7 @@
       <c r="I704" s="1"/>
       <c r="K704" s="9"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="7"/>
@@ -13697,7 +13854,7 @@
       <c r="I705" s="1"/>
       <c r="K705" s="9"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="7"/>
@@ -13709,7 +13866,7 @@
       <c r="I706" s="1"/>
       <c r="K706" s="9"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="7"/>
@@ -13721,7 +13878,7 @@
       <c r="I707" s="1"/>
       <c r="K707" s="9"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="7"/>
@@ -13733,7 +13890,7 @@
       <c r="I708" s="1"/>
       <c r="K708" s="9"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="7"/>
@@ -13745,7 +13902,7 @@
       <c r="I709" s="1"/>
       <c r="K709" s="9"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="7"/>
@@ -13757,7 +13914,7 @@
       <c r="I710" s="1"/>
       <c r="K710" s="9"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="7"/>
@@ -13769,7 +13926,7 @@
       <c r="I711" s="1"/>
       <c r="K711" s="9"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="7"/>
@@ -13781,7 +13938,7 @@
       <c r="I712" s="1"/>
       <c r="K712" s="9"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="7"/>
@@ -13793,7 +13950,7 @@
       <c r="I713" s="1"/>
       <c r="K713" s="9"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="7"/>
@@ -13805,7 +13962,7 @@
       <c r="I714" s="1"/>
       <c r="K714" s="9"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="7"/>
@@ -13817,7 +13974,7 @@
       <c r="I715" s="1"/>
       <c r="K715" s="9"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="7"/>
@@ -13829,7 +13986,7 @@
       <c r="I716" s="1"/>
       <c r="K716" s="9"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="7"/>
@@ -13841,7 +13998,7 @@
       <c r="I717" s="1"/>
       <c r="K717" s="9"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="7"/>
@@ -13853,7 +14010,7 @@
       <c r="I718" s="1"/>
       <c r="K718" s="9"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="7"/>
@@ -13865,7 +14022,7 @@
       <c r="I719" s="1"/>
       <c r="K719" s="9"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="7"/>
@@ -13877,7 +14034,7 @@
       <c r="I720" s="1"/>
       <c r="K720" s="9"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="7"/>
@@ -13889,7 +14046,7 @@
       <c r="I721" s="1"/>
       <c r="K721" s="9"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="7"/>
@@ -13901,7 +14058,7 @@
       <c r="I722" s="1"/>
       <c r="K722" s="9"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="7"/>
@@ -13913,7 +14070,7 @@
       <c r="I723" s="1"/>
       <c r="K723" s="9"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="7"/>
@@ -13925,7 +14082,7 @@
       <c r="I724" s="1"/>
       <c r="K724" s="9"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="7"/>
@@ -13937,7 +14094,7 @@
       <c r="I725" s="1"/>
       <c r="K725" s="9"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="7"/>
@@ -13949,7 +14106,7 @@
       <c r="I726" s="1"/>
       <c r="K726" s="9"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="7"/>
@@ -13961,7 +14118,7 @@
       <c r="I727" s="1"/>
       <c r="K727" s="9"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="7"/>
@@ -13973,7 +14130,7 @@
       <c r="I728" s="1"/>
       <c r="K728" s="9"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="7"/>
@@ -13985,7 +14142,7 @@
       <c r="I729" s="1"/>
       <c r="K729" s="9"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="7"/>
@@ -13997,7 +14154,7 @@
       <c r="I730" s="1"/>
       <c r="K730" s="9"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="7"/>
@@ -14009,7 +14166,7 @@
       <c r="I731" s="1"/>
       <c r="K731" s="9"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="7"/>
@@ -14021,7 +14178,7 @@
       <c r="I732" s="1"/>
       <c r="K732" s="9"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="7"/>
@@ -14033,7 +14190,7 @@
       <c r="I733" s="1"/>
       <c r="K733" s="9"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="7"/>
@@ -14045,7 +14202,7 @@
       <c r="I734" s="1"/>
       <c r="K734" s="9"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="7"/>
@@ -14057,7 +14214,7 @@
       <c r="I735" s="1"/>
       <c r="K735" s="9"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="7"/>
@@ -14069,7 +14226,7 @@
       <c r="I736" s="1"/>
       <c r="K736" s="9"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="7"/>
@@ -14081,7 +14238,7 @@
       <c r="I737" s="1"/>
       <c r="K737" s="9"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="7"/>
@@ -14093,7 +14250,7 @@
       <c r="I738" s="1"/>
       <c r="K738" s="9"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="7"/>
@@ -14105,7 +14262,7 @@
       <c r="I739" s="1"/>
       <c r="K739" s="9"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="7"/>
@@ -14117,7 +14274,7 @@
       <c r="I740" s="1"/>
       <c r="K740" s="9"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="7"/>
@@ -14129,7 +14286,7 @@
       <c r="I741" s="1"/>
       <c r="K741" s="9"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="7"/>
@@ -14141,7 +14298,7 @@
       <c r="I742" s="1"/>
       <c r="K742" s="9"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="7"/>
@@ -14153,7 +14310,7 @@
       <c r="I743" s="1"/>
       <c r="K743" s="9"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="7"/>
@@ -14165,7 +14322,7 @@
       <c r="I744" s="1"/>
       <c r="K744" s="9"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="7"/>
@@ -14177,7 +14334,7 @@
       <c r="I745" s="1"/>
       <c r="K745" s="9"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="7"/>
@@ -14189,7 +14346,7 @@
       <c r="I746" s="1"/>
       <c r="K746" s="9"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="7"/>
@@ -14201,7 +14358,7 @@
       <c r="I747" s="1"/>
       <c r="K747" s="9"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="7"/>
@@ -14213,7 +14370,7 @@
       <c r="I748" s="1"/>
       <c r="K748" s="9"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="7"/>
@@ -14225,7 +14382,7 @@
       <c r="I749" s="1"/>
       <c r="K749" s="9"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="7"/>
@@ -14237,7 +14394,7 @@
       <c r="I750" s="1"/>
       <c r="K750" s="9"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="7"/>
@@ -14249,7 +14406,7 @@
       <c r="I751" s="1"/>
       <c r="K751" s="9"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="7"/>
@@ -14261,7 +14418,7 @@
       <c r="I752" s="1"/>
       <c r="K752" s="9"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="7"/>
@@ -14273,7 +14430,7 @@
       <c r="I753" s="1"/>
       <c r="K753" s="9"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="7"/>
@@ -14285,7 +14442,7 @@
       <c r="I754" s="1"/>
       <c r="K754" s="9"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="7"/>
@@ -14297,7 +14454,7 @@
       <c r="I755" s="1"/>
       <c r="K755" s="9"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="7"/>
@@ -14309,7 +14466,7 @@
       <c r="I756" s="1"/>
       <c r="K756" s="9"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="7"/>
@@ -14320,7 +14477,7 @@
       <c r="H757" s="1"/>
       <c r="I757" s="1"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="7"/>
@@ -14331,7 +14488,7 @@
       <c r="H758" s="1"/>
       <c r="I758" s="1"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="7"/>
@@ -14342,7 +14499,7 @@
       <c r="H759" s="1"/>
       <c r="I759" s="1"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="7"/>
@@ -14353,7 +14510,7 @@
       <c r="H760" s="1"/>
       <c r="I760" s="1"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="7"/>
@@ -14364,7 +14521,7 @@
       <c r="H761" s="1"/>
       <c r="I761" s="1"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="7"/>
@@ -14375,7 +14532,7 @@
       <c r="H762" s="1"/>
       <c r="I762" s="1"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="7"/>
@@ -14386,7 +14543,7 @@
       <c r="H763" s="1"/>
       <c r="I763" s="1"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="7"/>
@@ -14397,7 +14554,7 @@
       <c r="H764" s="1"/>
       <c r="I764" s="1"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="7"/>
@@ -14408,7 +14565,7 @@
       <c r="H765" s="1"/>
       <c r="I765" s="1"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="7"/>
@@ -14419,7 +14576,7 @@
       <c r="H766" s="1"/>
       <c r="I766" s="1"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="7"/>
@@ -14430,7 +14587,7 @@
       <c r="H767" s="1"/>
       <c r="I767" s="1"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="7"/>
@@ -14441,7 +14598,7 @@
       <c r="H768" s="1"/>
       <c r="I768" s="1"/>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="7"/>
@@ -14452,7 +14609,7 @@
       <c r="H769" s="1"/>
       <c r="I769" s="1"/>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="7"/>
@@ -14463,7 +14620,7 @@
       <c r="H770" s="1"/>
       <c r="I770" s="1"/>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="7"/>
@@ -14474,7 +14631,7 @@
       <c r="H771" s="1"/>
       <c r="I771" s="1"/>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="7"/>
@@ -14485,7 +14642,7 @@
       <c r="H772" s="1"/>
       <c r="I772" s="1"/>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="7"/>
@@ -14496,7 +14653,7 @@
       <c r="H773" s="1"/>
       <c r="I773" s="1"/>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="7"/>
@@ -14507,7 +14664,7 @@
       <c r="H774" s="1"/>
       <c r="I774" s="1"/>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="7"/>
@@ -14518,7 +14675,7 @@
       <c r="H775" s="1"/>
       <c r="I775" s="1"/>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="7"/>
@@ -14529,7 +14686,7 @@
       <c r="H776" s="1"/>
       <c r="I776" s="1"/>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="7"/>
@@ -14540,7 +14697,7 @@
       <c r="H777" s="1"/>
       <c r="I777" s="1"/>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="7"/>
@@ -14551,7 +14708,7 @@
       <c r="H778" s="1"/>
       <c r="I778" s="1"/>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="7"/>
@@ -14562,7 +14719,7 @@
       <c r="H779" s="1"/>
       <c r="I779" s="1"/>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="7"/>
@@ -14573,7 +14730,7 @@
       <c r="H780" s="1"/>
       <c r="I780" s="1"/>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="7"/>
@@ -14584,7 +14741,7 @@
       <c r="H781" s="1"/>
       <c r="I781" s="1"/>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="7"/>
@@ -14595,7 +14752,7 @@
       <c r="H782" s="1"/>
       <c r="I782" s="1"/>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="7"/>
@@ -14606,7 +14763,7 @@
       <c r="H783" s="1"/>
       <c r="I783" s="1"/>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="7"/>
@@ -14617,7 +14774,7 @@
       <c r="H784" s="1"/>
       <c r="I784" s="1"/>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="7"/>
@@ -14628,7 +14785,7 @@
       <c r="H785" s="1"/>
       <c r="I785" s="1"/>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="7"/>
@@ -14639,7 +14796,7 @@
       <c r="H786" s="1"/>
       <c r="I786" s="1"/>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="7"/>
@@ -14650,7 +14807,7 @@
       <c r="H787" s="1"/>
       <c r="I787" s="1"/>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="7"/>
@@ -14661,7 +14818,7 @@
       <c r="H788" s="1"/>
       <c r="I788" s="1"/>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="7"/>
@@ -14672,7 +14829,7 @@
       <c r="H789" s="1"/>
       <c r="I789" s="1"/>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="7"/>
@@ -14683,7 +14840,7 @@
       <c r="H790" s="1"/>
       <c r="I790" s="1"/>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="7"/>
@@ -14694,7 +14851,7 @@
       <c r="H791" s="1"/>
       <c r="I791" s="1"/>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="7"/>
@@ -14705,7 +14862,7 @@
       <c r="H792" s="1"/>
       <c r="I792" s="1"/>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="7"/>
@@ -14716,7 +14873,7 @@
       <c r="H793" s="1"/>
       <c r="I793" s="1"/>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="7"/>
@@ -14727,7 +14884,7 @@
       <c r="H794" s="1"/>
       <c r="I794" s="1"/>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="7"/>
@@ -14738,7 +14895,7 @@
       <c r="H795" s="1"/>
       <c r="I795" s="1"/>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="7"/>
@@ -14749,7 +14906,7 @@
       <c r="H796" s="1"/>
       <c r="I796" s="1"/>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="7"/>
@@ -14760,7 +14917,7 @@
       <c r="H797" s="1"/>
       <c r="I797" s="1"/>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="7"/>
@@ -14771,7 +14928,7 @@
       <c r="H798" s="1"/>
       <c r="I798" s="1"/>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="7"/>
@@ -14782,7 +14939,7 @@
       <c r="H799" s="1"/>
       <c r="I799" s="1"/>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="7"/>
@@ -14793,7 +14950,7 @@
       <c r="H800" s="1"/>
       <c r="I800" s="1"/>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="7"/>
@@ -14804,7 +14961,7 @@
       <c r="H801" s="1"/>
       <c r="I801" s="1"/>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="7"/>
@@ -14815,7 +14972,7 @@
       <c r="H802" s="1"/>
       <c r="I802" s="1"/>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="7"/>
@@ -14826,7 +14983,7 @@
       <c r="H803" s="1"/>
       <c r="I803" s="1"/>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="7"/>
@@ -14837,7 +14994,7 @@
       <c r="H804" s="1"/>
       <c r="I804" s="1"/>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="7"/>
@@ -14848,7 +15005,7 @@
       <c r="H805" s="1"/>
       <c r="I805" s="1"/>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="7"/>
@@ -14859,7 +15016,7 @@
       <c r="H806" s="1"/>
       <c r="I806" s="1"/>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="7"/>
@@ -14870,7 +15027,7 @@
       <c r="H807" s="1"/>
       <c r="I807" s="1"/>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="7"/>
@@ -14881,7 +15038,7 @@
       <c r="H808" s="1"/>
       <c r="I808" s="1"/>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="7"/>
@@ -14892,7 +15049,7 @@
       <c r="H809" s="1"/>
       <c r="I809" s="1"/>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="7"/>
@@ -14903,7 +15060,7 @@
       <c r="H810" s="1"/>
       <c r="I810" s="1"/>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="7"/>
@@ -14914,7 +15071,7 @@
       <c r="H811" s="1"/>
       <c r="I811" s="1"/>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="7"/>
@@ -14925,7 +15082,7 @@
       <c r="H812" s="1"/>
       <c r="I812" s="1"/>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="7"/>
@@ -14936,7 +15093,7 @@
       <c r="H813" s="1"/>
       <c r="I813" s="1"/>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="7"/>
@@ -14947,7 +15104,7 @@
       <c r="H814" s="1"/>
       <c r="I814" s="1"/>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="7"/>
@@ -14958,7 +15115,7 @@
       <c r="H815" s="1"/>
       <c r="I815" s="1"/>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="7"/>
@@ -14969,7 +15126,7 @@
       <c r="H816" s="1"/>
       <c r="I816" s="1"/>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="7"/>
@@ -14980,7 +15137,7 @@
       <c r="H817" s="1"/>
       <c r="I817" s="1"/>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="7"/>
@@ -14991,7 +15148,7 @@
       <c r="H818" s="1"/>
       <c r="I818" s="1"/>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="7"/>
@@ -15002,7 +15159,7 @@
       <c r="H819" s="1"/>
       <c r="I819" s="1"/>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="7"/>
@@ -15013,7 +15170,7 @@
       <c r="H820" s="1"/>
       <c r="I820" s="1"/>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="7"/>
@@ -15024,7 +15181,7 @@
       <c r="H821" s="1"/>
       <c r="I821" s="1"/>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
       <c r="C822" s="7"/>
@@ -15035,7 +15192,7 @@
       <c r="H822" s="1"/>
       <c r="I822" s="1"/>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="7"/>
@@ -15046,7 +15203,7 @@
       <c r="H823" s="1"/>
       <c r="I823" s="1"/>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="7"/>
@@ -15057,7 +15214,7 @@
       <c r="H824" s="1"/>
       <c r="I824" s="1"/>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="7"/>
@@ -15068,7 +15225,7 @@
       <c r="H825" s="1"/>
       <c r="I825" s="1"/>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
       <c r="C826" s="7"/>
@@ -15079,7 +15236,7 @@
       <c r="H826" s="1"/>
       <c r="I826" s="1"/>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="7"/>
@@ -15090,7 +15247,7 @@
       <c r="H827" s="1"/>
       <c r="I827" s="1"/>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
       <c r="C828" s="7"/>
@@ -15101,7 +15258,7 @@
       <c r="H828" s="1"/>
       <c r="I828" s="1"/>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="7"/>
@@ -15112,7 +15269,7 @@
       <c r="H829" s="1"/>
       <c r="I829" s="1"/>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
       <c r="C830" s="7"/>
@@ -15123,7 +15280,7 @@
       <c r="H830" s="1"/>
       <c r="I830" s="1"/>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="7"/>
@@ -15134,7 +15291,7 @@
       <c r="H831" s="1"/>
       <c r="I831" s="1"/>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
       <c r="C832" s="7"/>
@@ -15145,7 +15302,7 @@
       <c r="H832" s="1"/>
       <c r="I832" s="1"/>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="7"/>
@@ -15156,7 +15313,7 @@
       <c r="H833" s="1"/>
       <c r="I833" s="1"/>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
       <c r="C834" s="7"/>
@@ -15167,7 +15324,7 @@
       <c r="H834" s="1"/>
       <c r="I834" s="1"/>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="7"/>
@@ -15178,7 +15335,7 @@
       <c r="H835" s="1"/>
       <c r="I835" s="1"/>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
       <c r="C836" s="7"/>
@@ -15189,7 +15346,7 @@
       <c r="H836" s="1"/>
       <c r="I836" s="1"/>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="7"/>
@@ -15200,7 +15357,7 @@
       <c r="H837" s="1"/>
       <c r="I837" s="1"/>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
       <c r="C838" s="7"/>
@@ -15211,7 +15368,7 @@
       <c r="H838" s="1"/>
       <c r="I838" s="1"/>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="7"/>
@@ -15222,7 +15379,7 @@
       <c r="H839" s="1"/>
       <c r="I839" s="1"/>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
       <c r="C840" s="7"/>
@@ -15233,7 +15390,7 @@
       <c r="H840" s="1"/>
       <c r="I840" s="1"/>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B841" s="6"/>
       <c r="C841" s="7"/>
       <c r="E841" s="1"/>
@@ -15242,7 +15399,7 @@
       <c r="H841" s="1"/>
       <c r="I841" s="1"/>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B842" s="6"/>
       <c r="C842" s="7"/>
       <c r="E842" s="1"/>
@@ -15251,7 +15408,7 @@
       <c r="H842" s="1"/>
       <c r="I842" s="1"/>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B843" s="6"/>
       <c r="C843" s="7"/>
       <c r="E843" s="1"/>
@@ -15260,7 +15417,7 @@
       <c r="H843" s="1"/>
       <c r="I843" s="1"/>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B844" s="6"/>
       <c r="C844" s="7"/>
       <c r="E844" s="1"/>
@@ -15269,7 +15426,7 @@
       <c r="H844" s="1"/>
       <c r="I844" s="1"/>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B845" s="6"/>
       <c r="C845" s="7"/>
       <c r="E845" s="1"/>
@@ -15278,7 +15435,7 @@
       <c r="H845" s="1"/>
       <c r="I845" s="1"/>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B846" s="6"/>
       <c r="C846" s="7"/>
       <c r="E846" s="1"/>
@@ -15287,7 +15444,7 @@
       <c r="H846" s="1"/>
       <c r="I846" s="1"/>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B847" s="6"/>
       <c r="C847" s="7"/>
       <c r="E847" s="1"/>
@@ -15296,7 +15453,7 @@
       <c r="H847" s="1"/>
       <c r="I847" s="1"/>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B848" s="6"/>
       <c r="C848" s="7"/>
       <c r="E848" s="1"/>
@@ -15305,7 +15462,7 @@
       <c r="H848" s="1"/>
       <c r="I848" s="1"/>
     </row>
-    <row r="849" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="849" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B849" s="6"/>
       <c r="C849" s="7"/>
       <c r="E849" s="1"/>
@@ -15314,7 +15471,7 @@
       <c r="H849" s="1"/>
       <c r="I849" s="1"/>
     </row>
-    <row r="850" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="850" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B850" s="6"/>
       <c r="C850" s="7"/>
       <c r="E850" s="1"/>
@@ -15323,7 +15480,7 @@
       <c r="H850" s="1"/>
       <c r="I850" s="1"/>
     </row>
-    <row r="851" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="851" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B851" s="6"/>
       <c r="C851" s="7"/>
       <c r="E851" s="1"/>
@@ -15332,7 +15489,7 @@
       <c r="H851" s="1"/>
       <c r="I851" s="1"/>
     </row>
-    <row r="852" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="852" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B852" s="6"/>
       <c r="C852" s="7"/>
       <c r="E852" s="1"/>
@@ -15341,7 +15498,7 @@
       <c r="H852" s="1"/>
       <c r="I852" s="1"/>
     </row>
-    <row r="853" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="853" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B853" s="6"/>
       <c r="C853" s="7"/>
       <c r="E853" s="1"/>
@@ -15350,7 +15507,7 @@
       <c r="H853" s="1"/>
       <c r="I853" s="1"/>
     </row>
-    <row r="854" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="854" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B854" s="6"/>
       <c r="C854" s="7"/>
       <c r="E854" s="1"/>
@@ -15359,7 +15516,7 @@
       <c r="H854" s="1"/>
       <c r="I854" s="1"/>
     </row>
-    <row r="855" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="855" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B855" s="6"/>
       <c r="C855" s="7"/>
       <c r="E855" s="1"/>
@@ -15368,7 +15525,7 @@
       <c r="H855" s="1"/>
       <c r="I855" s="1"/>
     </row>
-    <row r="856" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="856" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B856" s="6"/>
       <c r="C856" s="7"/>
       <c r="E856" s="1"/>
@@ -15377,7 +15534,7 @@
       <c r="H856" s="1"/>
       <c r="I856" s="1"/>
     </row>
-    <row r="857" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="857" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B857" s="6"/>
       <c r="C857" s="7"/>
       <c r="E857" s="1"/>
@@ -15386,7 +15543,7 @@
       <c r="H857" s="1"/>
       <c r="I857" s="1"/>
     </row>
-    <row r="858" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="858" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B858" s="6"/>
       <c r="C858" s="7"/>
       <c r="E858" s="1"/>
@@ -15395,7 +15552,7 @@
       <c r="H858" s="1"/>
       <c r="I858" s="1"/>
     </row>
-    <row r="859" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="859" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B859" s="6"/>
       <c r="C859" s="7"/>
       <c r="E859" s="1"/>
@@ -15404,7 +15561,7 @@
       <c r="H859" s="1"/>
       <c r="I859" s="1"/>
     </row>
-    <row r="860" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="860" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B860" s="6"/>
       <c r="C860" s="7"/>
       <c r="E860" s="1"/>
@@ -15413,7 +15570,7 @@
       <c r="H860" s="1"/>
       <c r="I860" s="1"/>
     </row>
-    <row r="861" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="861" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B861" s="6"/>
       <c r="C861" s="7"/>
       <c r="E861" s="1"/>
@@ -15422,7 +15579,7 @@
       <c r="H861" s="1"/>
       <c r="I861" s="1"/>
     </row>
-    <row r="862" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="862" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B862" s="6"/>
       <c r="C862" s="7"/>
       <c r="E862" s="1"/>
@@ -15431,7 +15588,7 @@
       <c r="H862" s="1"/>
       <c r="I862" s="1"/>
     </row>
-    <row r="863" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="863" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B863" s="6"/>
       <c r="C863" s="7"/>
       <c r="E863" s="1"/>
@@ -15440,7 +15597,7 @@
       <c r="H863" s="1"/>
       <c r="I863" s="1"/>
     </row>
-    <row r="864" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="864" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B864" s="6"/>
       <c r="C864" s="7"/>
       <c r="E864" s="1"/>
@@ -15449,7 +15606,7 @@
       <c r="H864" s="1"/>
       <c r="I864" s="1"/>
     </row>
-    <row r="865" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B865" s="6"/>
       <c r="C865" s="7"/>
       <c r="E865" s="1"/>
@@ -15458,7 +15615,7 @@
       <c r="H865" s="1"/>
       <c r="I865" s="1"/>
     </row>
-    <row r="866" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="866" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B866" s="6"/>
       <c r="C866" s="7"/>
       <c r="E866" s="1"/>
@@ -15467,7 +15624,7 @@
       <c r="H866" s="1"/>
       <c r="I866" s="1"/>
     </row>
-    <row r="867" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="867" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B867" s="6"/>
       <c r="C867" s="7"/>
       <c r="E867" s="1"/>
@@ -15476,7 +15633,7 @@
       <c r="H867" s="1"/>
       <c r="I867" s="1"/>
     </row>
-    <row r="868" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="868" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B868" s="6"/>
       <c r="C868" s="7"/>
       <c r="E868" s="1"/>
@@ -15485,7 +15642,7 @@
       <c r="H868" s="1"/>
       <c r="I868" s="1"/>
     </row>
-    <row r="869" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="869" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B869" s="6"/>
       <c r="C869" s="7"/>
       <c r="E869" s="1"/>
@@ -15494,7 +15651,7 @@
       <c r="H869" s="1"/>
       <c r="I869" s="1"/>
     </row>
-    <row r="870" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="870" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B870" s="6"/>
       <c r="C870" s="7"/>
       <c r="E870" s="1"/>
@@ -15503,7 +15660,7 @@
       <c r="H870" s="1"/>
       <c r="I870" s="1"/>
     </row>
-    <row r="871" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="871" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B871" s="6"/>
       <c r="C871" s="7"/>
       <c r="E871" s="1"/>
@@ -15512,7 +15669,7 @@
       <c r="H871" s="1"/>
       <c r="I871" s="1"/>
     </row>
-    <row r="872" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="872" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B872" s="6"/>
       <c r="C872" s="7"/>
       <c r="E872" s="1"/>
@@ -15521,7 +15678,7 @@
       <c r="H872" s="1"/>
       <c r="I872" s="1"/>
     </row>
-    <row r="873" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="873" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B873" s="6"/>
       <c r="C873" s="7"/>
       <c r="E873" s="1"/>
@@ -15530,7 +15687,7 @@
       <c r="H873" s="1"/>
       <c r="I873" s="1"/>
     </row>
-    <row r="874" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="874" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B874" s="6"/>
       <c r="C874" s="7"/>
       <c r="E874" s="1"/>
@@ -15539,7 +15696,7 @@
       <c r="H874" s="1"/>
       <c r="I874" s="1"/>
     </row>
-    <row r="875" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="875" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B875" s="6"/>
       <c r="C875" s="7"/>
       <c r="E875" s="1"/>
@@ -15548,7 +15705,7 @@
       <c r="H875" s="1"/>
       <c r="I875" s="1"/>
     </row>
-    <row r="876" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="876" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B876" s="6"/>
       <c r="C876" s="7"/>
       <c r="E876" s="1"/>
@@ -15557,7 +15714,7 @@
       <c r="H876" s="1"/>
       <c r="I876" s="1"/>
     </row>
-    <row r="877" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="877" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B877" s="6"/>
       <c r="C877" s="7"/>
       <c r="E877" s="1"/>
@@ -15566,7 +15723,7 @@
       <c r="H877" s="1"/>
       <c r="I877" s="1"/>
     </row>
-    <row r="878" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="878" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B878" s="6"/>
       <c r="C878" s="7"/>
       <c r="E878" s="1"/>
@@ -15575,7 +15732,7 @@
       <c r="H878" s="1"/>
       <c r="I878" s="1"/>
     </row>
-    <row r="879" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="879" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B879" s="6"/>
       <c r="C879" s="7"/>
       <c r="E879" s="1"/>
@@ -15584,7 +15741,7 @@
       <c r="H879" s="1"/>
       <c r="I879" s="1"/>
     </row>
-    <row r="880" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="880" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B880" s="6"/>
       <c r="C880" s="7"/>
       <c r="E880" s="1"/>
@@ -15593,7 +15750,7 @@
       <c r="H880" s="1"/>
       <c r="I880" s="1"/>
     </row>
-    <row r="881" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="881" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B881" s="6"/>
       <c r="C881" s="7"/>
       <c r="E881" s="1"/>
@@ -15602,7 +15759,7 @@
       <c r="H881" s="1"/>
       <c r="I881" s="1"/>
     </row>
-    <row r="882" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="882" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B882" s="6"/>
       <c r="C882" s="7"/>
       <c r="E882" s="1"/>
@@ -15611,7 +15768,7 @@
       <c r="H882" s="1"/>
       <c r="I882" s="1"/>
     </row>
-    <row r="883" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="883" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B883" s="6"/>
       <c r="C883" s="7"/>
       <c r="E883" s="1"/>
@@ -15620,7 +15777,7 @@
       <c r="H883" s="1"/>
       <c r="I883" s="1"/>
     </row>
-    <row r="884" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="884" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B884" s="6"/>
       <c r="C884" s="7"/>
       <c r="E884" s="1"/>
@@ -15629,7 +15786,7 @@
       <c r="H884" s="1"/>
       <c r="I884" s="1"/>
     </row>
-    <row r="885" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="885" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B885" s="6"/>
       <c r="C885" s="7"/>
       <c r="E885" s="1"/>
@@ -15638,7 +15795,7 @@
       <c r="H885" s="1"/>
       <c r="I885" s="1"/>
     </row>
-    <row r="886" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="886" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B886" s="6"/>
       <c r="C886" s="7"/>
       <c r="E886" s="1"/>
@@ -15647,7 +15804,7 @@
       <c r="H886" s="1"/>
       <c r="I886" s="1"/>
     </row>
-    <row r="887" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="887" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B887" s="6"/>
       <c r="C887" s="7"/>
       <c r="E887" s="1"/>
@@ -15656,7 +15813,7 @@
       <c r="H887" s="1"/>
       <c r="I887" s="1"/>
     </row>
-    <row r="888" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="888" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B888" s="6"/>
       <c r="C888" s="7"/>
       <c r="E888" s="1"/>
@@ -15665,7 +15822,7 @@
       <c r="H888" s="1"/>
       <c r="I888" s="1"/>
     </row>
-    <row r="889" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="889" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B889" s="6"/>
       <c r="C889" s="7"/>
       <c r="E889" s="1"/>
@@ -15674,7 +15831,7 @@
       <c r="H889" s="1"/>
       <c r="I889" s="1"/>
     </row>
-    <row r="890" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="890" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B890" s="6"/>
       <c r="C890" s="7"/>
       <c r="E890" s="1"/>
@@ -15683,7 +15840,7 @@
       <c r="H890" s="1"/>
       <c r="I890" s="1"/>
     </row>
-    <row r="891" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="891" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B891" s="6"/>
       <c r="C891" s="7"/>
       <c r="E891" s="1"/>
@@ -15692,7 +15849,7 @@
       <c r="H891" s="1"/>
       <c r="I891" s="1"/>
     </row>
-    <row r="892" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="892" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B892" s="6"/>
       <c r="C892" s="7"/>
       <c r="E892" s="1"/>
@@ -15701,7 +15858,7 @@
       <c r="H892" s="1"/>
       <c r="I892" s="1"/>
     </row>
-    <row r="893" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="893" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B893" s="6"/>
       <c r="C893" s="7"/>
       <c r="E893" s="1"/>
@@ -15710,7 +15867,7 @@
       <c r="H893" s="1"/>
       <c r="I893" s="1"/>
     </row>
-    <row r="894" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="894" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B894" s="6"/>
       <c r="C894" s="7"/>
       <c r="E894" s="1"/>
@@ -15719,7 +15876,7 @@
       <c r="H894" s="1"/>
       <c r="I894" s="1"/>
     </row>
-    <row r="895" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="895" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B895" s="6"/>
       <c r="C895" s="7"/>
       <c r="E895" s="1"/>
@@ -15728,7 +15885,7 @@
       <c r="H895" s="1"/>
       <c r="I895" s="1"/>
     </row>
-    <row r="896" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="896" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B896" s="6"/>
       <c r="C896" s="7"/>
       <c r="E896" s="1"/>
@@ -15737,7 +15894,7 @@
       <c r="H896" s="1"/>
       <c r="I896" s="1"/>
     </row>
-    <row r="897" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="897" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B897" s="6"/>
       <c r="C897" s="7"/>
       <c r="E897" s="1"/>
@@ -15746,7 +15903,7 @@
       <c r="H897" s="1"/>
       <c r="I897" s="1"/>
     </row>
-    <row r="898" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="898" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B898" s="6"/>
       <c r="C898" s="7"/>
       <c r="E898" s="1"/>
@@ -15755,7 +15912,7 @@
       <c r="H898" s="1"/>
       <c r="I898" s="1"/>
     </row>
-    <row r="899" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="899" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B899" s="6"/>
       <c r="C899" s="7"/>
       <c r="E899" s="1"/>
@@ -15764,7 +15921,7 @@
       <c r="H899" s="1"/>
       <c r="I899" s="1"/>
     </row>
-    <row r="900" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="900" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B900" s="6"/>
       <c r="C900" s="7"/>
       <c r="E900" s="1"/>
@@ -15773,7 +15930,7 @@
       <c r="H900" s="1"/>
       <c r="I900" s="1"/>
     </row>
-    <row r="901" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="901" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B901" s="6"/>
       <c r="C901" s="7"/>
       <c r="E901" s="1"/>
@@ -15782,7 +15939,7 @@
       <c r="H901" s="1"/>
       <c r="I901" s="1"/>
     </row>
-    <row r="902" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="902" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B902" s="6"/>
       <c r="C902" s="7"/>
       <c r="E902" s="1"/>
@@ -15791,7 +15948,7 @@
       <c r="H902" s="1"/>
       <c r="I902" s="1"/>
     </row>
-    <row r="903" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="903" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B903" s="6"/>
       <c r="C903" s="7"/>
       <c r="E903" s="1"/>
@@ -15800,7 +15957,7 @@
       <c r="H903" s="1"/>
       <c r="I903" s="1"/>
     </row>
-    <row r="904" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="904" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B904" s="6"/>
       <c r="C904" s="7"/>
       <c r="E904" s="1"/>
@@ -15809,7 +15966,7 @@
       <c r="H904" s="1"/>
       <c r="I904" s="1"/>
     </row>
-    <row r="905" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="905" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B905" s="6"/>
       <c r="C905" s="7"/>
       <c r="E905" s="1"/>
@@ -15818,7 +15975,7 @@
       <c r="H905" s="1"/>
       <c r="I905" s="1"/>
     </row>
-    <row r="906" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="906" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B906" s="6"/>
       <c r="C906" s="7"/>
       <c r="E906" s="1"/>
@@ -15827,7 +15984,7 @@
       <c r="H906" s="1"/>
       <c r="I906" s="1"/>
     </row>
-    <row r="907" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="907" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B907" s="6"/>
       <c r="C907" s="7"/>
       <c r="E907" s="1"/>
@@ -15836,7 +15993,7 @@
       <c r="H907" s="1"/>
       <c r="I907" s="1"/>
     </row>
-    <row r="908" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="908" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B908" s="6"/>
       <c r="C908" s="7"/>
       <c r="E908" s="1"/>
@@ -15845,7 +16002,7 @@
       <c r="H908" s="1"/>
       <c r="I908" s="1"/>
     </row>
-    <row r="909" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="909" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B909" s="6"/>
       <c r="C909" s="7"/>
       <c r="E909" s="1"/>
@@ -15854,7 +16011,7 @@
       <c r="H909" s="1"/>
       <c r="I909" s="1"/>
     </row>
-    <row r="910" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="910" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B910" s="6"/>
       <c r="C910" s="7"/>
       <c r="E910" s="1"/>
@@ -15863,7 +16020,7 @@
       <c r="H910" s="1"/>
       <c r="I910" s="1"/>
     </row>
-    <row r="911" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="911" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B911" s="6"/>
       <c r="C911" s="7"/>
       <c r="E911" s="1"/>
@@ -15872,7 +16029,7 @@
       <c r="H911" s="1"/>
       <c r="I911" s="1"/>
     </row>
-    <row r="912" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="912" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B912" s="6"/>
       <c r="C912" s="7"/>
       <c r="E912" s="1"/>
@@ -15881,7 +16038,7 @@
       <c r="H912" s="1"/>
       <c r="I912" s="1"/>
     </row>
-    <row r="913" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="913" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B913" s="6"/>
       <c r="C913" s="7"/>
       <c r="E913" s="1"/>
@@ -15890,7 +16047,7 @@
       <c r="H913" s="1"/>
       <c r="I913" s="1"/>
     </row>
-    <row r="914" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="914" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B914" s="6"/>
       <c r="C914" s="7"/>
       <c r="E914" s="1"/>
@@ -15899,7 +16056,7 @@
       <c r="H914" s="1"/>
       <c r="I914" s="1"/>
     </row>
-    <row r="915" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="915" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B915" s="6"/>
       <c r="C915" s="7"/>
       <c r="E915" s="1"/>
@@ -15908,7 +16065,7 @@
       <c r="H915" s="1"/>
       <c r="I915" s="1"/>
     </row>
-    <row r="916" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="916" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B916" s="6"/>
       <c r="C916" s="7"/>
       <c r="E916" s="1"/>
@@ -15917,7 +16074,7 @@
       <c r="H916" s="1"/>
       <c r="I916" s="1"/>
     </row>
-    <row r="917" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="917" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B917" s="6"/>
       <c r="C917" s="7"/>
       <c r="E917" s="1"/>
@@ -15926,7 +16083,7 @@
       <c r="H917" s="1"/>
       <c r="I917" s="1"/>
     </row>
-    <row r="918" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="918" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B918" s="6"/>
       <c r="C918" s="7"/>
       <c r="E918" s="1"/>
@@ -15935,7 +16092,7 @@
       <c r="H918" s="1"/>
       <c r="I918" s="1"/>
     </row>
-    <row r="919" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="919" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B919" s="6"/>
       <c r="C919" s="7"/>
       <c r="E919" s="1"/>
@@ -15944,7 +16101,7 @@
       <c r="H919" s="1"/>
       <c r="I919" s="1"/>
     </row>
-    <row r="920" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="920" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B920" s="6"/>
       <c r="C920" s="7"/>
       <c r="E920" s="1"/>
@@ -15953,7 +16110,7 @@
       <c r="H920" s="1"/>
       <c r="I920" s="1"/>
     </row>
-    <row r="921" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="921" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B921" s="6"/>
       <c r="C921" s="7"/>
       <c r="E921" s="1"/>
@@ -15962,7 +16119,7 @@
       <c r="H921" s="1"/>
       <c r="I921" s="1"/>
     </row>
-    <row r="922" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="922" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B922" s="6"/>
       <c r="C922" s="7"/>
       <c r="E922" s="1"/>
@@ -15971,7 +16128,7 @@
       <c r="H922" s="1"/>
       <c r="I922" s="1"/>
     </row>
-    <row r="923" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="923" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B923" s="6"/>
       <c r="C923" s="7"/>
       <c r="E923" s="1"/>
@@ -15980,7 +16137,7 @@
       <c r="H923" s="1"/>
       <c r="I923" s="1"/>
     </row>
-    <row r="924" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="924" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B924" s="6"/>
       <c r="C924" s="7"/>
       <c r="E924" s="1"/>
@@ -15989,7 +16146,7 @@
       <c r="H924" s="1"/>
       <c r="I924" s="1"/>
     </row>
-    <row r="925" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="925" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B925" s="6"/>
       <c r="C925" s="7"/>
       <c r="E925" s="1"/>
@@ -15998,7 +16155,7 @@
       <c r="H925" s="1"/>
       <c r="I925" s="1"/>
     </row>
-    <row r="926" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="926" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B926" s="6"/>
       <c r="C926" s="7"/>
       <c r="E926" s="1"/>
@@ -16007,7 +16164,7 @@
       <c r="H926" s="1"/>
       <c r="I926" s="1"/>
     </row>
-    <row r="927" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="927" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B927" s="6"/>
       <c r="C927" s="7"/>
       <c r="E927" s="1"/>
@@ -16016,7 +16173,7 @@
       <c r="H927" s="1"/>
       <c r="I927" s="1"/>
     </row>
-    <row r="928" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="928" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B928" s="6"/>
       <c r="C928" s="7"/>
       <c r="E928" s="1"/>
@@ -16025,7 +16182,7 @@
       <c r="H928" s="1"/>
       <c r="I928" s="1"/>
     </row>
-    <row r="929" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="929" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B929" s="6"/>
       <c r="C929" s="7"/>
       <c r="E929" s="1"/>
@@ -16034,7 +16191,7 @@
       <c r="H929" s="1"/>
       <c r="I929" s="1"/>
     </row>
-    <row r="930" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="930" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B930" s="6"/>
       <c r="C930" s="7"/>
       <c r="E930" s="1"/>
@@ -16043,7 +16200,7 @@
       <c r="H930" s="1"/>
       <c r="I930" s="1"/>
     </row>
-    <row r="931" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="931" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B931" s="6"/>
       <c r="C931" s="7"/>
       <c r="E931" s="1"/>
@@ -16052,7 +16209,7 @@
       <c r="H931" s="1"/>
       <c r="I931" s="1"/>
     </row>
-    <row r="932" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="932" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B932" s="6"/>
       <c r="C932" s="7"/>
       <c r="E932" s="1"/>
@@ -16061,7 +16218,7 @@
       <c r="H932" s="1"/>
       <c r="I932" s="1"/>
     </row>
-    <row r="933" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="933" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B933" s="6"/>
       <c r="C933" s="7"/>
       <c r="E933" s="1"/>
@@ -16070,7 +16227,7 @@
       <c r="H933" s="1"/>
       <c r="I933" s="1"/>
     </row>
-    <row r="934" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="934" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B934" s="6"/>
       <c r="C934" s="7"/>
       <c r="E934" s="1"/>
@@ -16079,7 +16236,7 @@
       <c r="H934" s="1"/>
       <c r="I934" s="1"/>
     </row>
-    <row r="935" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="935" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B935" s="6"/>
       <c r="C935" s="7"/>
       <c r="E935" s="1"/>

--- a/data/spike.xlsx
+++ b/data/spike.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCB0C70-D109-4264-8FB6-7A9C024A871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECFB36F-9557-4747-BDA0-6A017998ACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="2685" windowWidth="20730" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="64">
   <si>
     <t>players</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>10/10/2024</t>
+  </si>
+  <si>
+    <t>22/10/2024</t>
   </si>
 </sst>
 </file>
@@ -618,16 +621,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="8.85546875" style="10"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -654,7 +657,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -685,7 +688,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -730,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -775,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -820,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -865,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -910,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -955,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
@@ -1714,7 +1717,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -1753,7 +1756,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>12</v>
       </c>
@@ -1792,7 +1795,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
@@ -1831,7 +1834,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -1870,7 +1873,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -1909,7 +1912,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
@@ -1948,7 +1951,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -1987,7 +1990,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
@@ -2026,7 +2029,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
@@ -2065,7 +2068,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>17</v>
       </c>
@@ -2104,7 +2107,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>12</v>
       </c>
@@ -2143,7 +2146,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -2182,7 +2185,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -2221,7 +2224,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2260,7 +2263,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -2299,7 +2302,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
@@ -2338,7 +2341,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>12</v>
       </c>
@@ -2377,7 +2380,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>12</v>
       </c>
@@ -2416,7 +2419,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2455,7 +2458,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>
@@ -2494,7 +2497,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
@@ -2533,7 +2536,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2572,7 +2575,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -2611,7 +2614,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>11</v>
       </c>
@@ -2650,7 +2653,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
@@ -2689,7 +2692,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2731,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>13</v>
       </c>
@@ -2767,7 +2770,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>13</v>
       </c>
@@ -2806,7 +2809,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>12</v>
       </c>
@@ -2845,7 +2848,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>17</v>
       </c>
@@ -2884,7 +2887,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>17</v>
       </c>
@@ -2923,7 +2926,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>17</v>
       </c>
@@ -2962,7 +2965,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>12</v>
       </c>
@@ -3001,7 +3004,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>12</v>
       </c>
@@ -3040,7 +3043,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>11</v>
       </c>
@@ -3079,7 +3082,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3121,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
@@ -3157,7 +3160,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -3196,7 +3199,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>12</v>
       </c>
@@ -3235,7 +3238,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>12</v>
       </c>
@@ -3274,7 +3277,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>12</v>
       </c>
@@ -3313,7 +3316,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>12</v>
       </c>
@@ -3352,7 +3355,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>12</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" ref="E68:E75" si="2">IF(F68&gt;G68,1,0)</f>
+        <f t="shared" ref="E68:E85" si="2">IF(F68&gt;G68,1,0)</f>
         <v>1</v>
       </c>
       <c r="F68" s="5">
@@ -3383,7 +3386,7 @@
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="9" t="str">
-        <f t="shared" ref="K68:K75" si="3">IF(OR(OR(AND(OR(A68=B68,A68=C68,A68=D68,B68=C68,B68=D68,C68=D68),OR(A68&lt;&gt;"",D68&lt;&gt;"")),H68&gt;MAX(F68:G68),B68=C68),OR(AND(ISBLANK(A68)=FALSE,ISNA(VLOOKUP(A68,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B68,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C68,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D68)=FALSE,ISNA(VLOOKUP(D68,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A68:D68)=1,COUNTBLANK(A68:D68)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K68:K85" si="3">IF(OR(OR(AND(OR(A68=B68,A68=C68,A68=D68,B68=C68,B68=D68,C68=D68),OR(A68&lt;&gt;"",D68&lt;&gt;"")),H68&gt;MAX(F68:G68),B68=C68),OR(AND(ISBLANK(A68)=FALSE,ISNA(VLOOKUP(A68,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B68,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C68,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D68)=FALSE,ISNA(VLOOKUP(D68,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A68:D68)=1,COUNTBLANK(A68:D68)=3))),"ERREUR","")</f>
         <v/>
       </c>
       <c r="L68" s="1"/>
@@ -3391,7 +3394,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>12</v>
       </c>
@@ -3430,7 +3433,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>13</v>
       </c>
@@ -3469,7 +3472,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>11</v>
       </c>
@@ -3508,7 +3511,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
@@ -3547,7 +3550,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>12</v>
       </c>
@@ -3586,7 +3589,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>39</v>
       </c>
@@ -3625,7 +3628,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>12</v>
       </c>
@@ -3664,177 +3667,397 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>11</v>
+      </c>
+      <c r="G76" s="5">
+        <v>7</v>
+      </c>
+      <c r="H76" s="1">
+        <v>11</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J76" s="1"/>
-      <c r="K76" s="9"/>
+      <c r="K76" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>11</v>
+      </c>
+      <c r="G77" s="5">
+        <v>5</v>
+      </c>
+      <c r="H77" s="1">
+        <v>11</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J77" s="1"/>
-      <c r="K77" s="9"/>
+      <c r="K77" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F78" s="5">
+        <v>11</v>
+      </c>
+      <c r="G78" s="5">
+        <v>3</v>
+      </c>
+      <c r="H78" s="1">
+        <v>11</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J78" s="1"/>
-      <c r="K78" s="9"/>
+      <c r="K78" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F79" s="5">
+        <v>14</v>
+      </c>
+      <c r="G79" s="5">
+        <v>12</v>
+      </c>
+      <c r="H79" s="1">
+        <v>11</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J79" s="1"/>
-      <c r="K79" s="9"/>
+      <c r="K79" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F80" s="5">
+        <v>11</v>
+      </c>
+      <c r="G80" s="5">
+        <v>6</v>
+      </c>
+      <c r="H80" s="1">
+        <v>11</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J80" s="1"/>
-      <c r="K80" s="9"/>
+      <c r="K80" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F81" s="5">
+        <v>11</v>
+      </c>
+      <c r="G81" s="5">
+        <v>8</v>
+      </c>
+      <c r="H81" s="1">
+        <v>11</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J81" s="1"/>
-      <c r="K81" s="9"/>
+      <c r="K81" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F82" s="5">
+        <v>11</v>
+      </c>
+      <c r="G82" s="5">
+        <v>7</v>
+      </c>
+      <c r="H82" s="1">
+        <v>11</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J82" s="1"/>
-      <c r="K82" s="9"/>
+      <c r="K82" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F83" s="5">
+        <v>11</v>
+      </c>
+      <c r="G83" s="5">
+        <v>8</v>
+      </c>
+      <c r="H83" s="1">
+        <v>11</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J83" s="1"/>
-      <c r="K83" s="9"/>
+      <c r="K83" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F84" s="5">
+        <v>11</v>
+      </c>
+      <c r="G84" s="5">
+        <v>9</v>
+      </c>
+      <c r="H84" s="1">
+        <v>11</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J84" s="1"/>
-      <c r="K84" s="9"/>
+      <c r="K84" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F85" s="5">
+        <v>21</v>
+      </c>
+      <c r="G85" s="5">
+        <v>14</v>
+      </c>
+      <c r="H85" s="1">
+        <v>21</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J85" s="1"/>
-      <c r="K85" s="9"/>
+      <c r="K85" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
@@ -3851,7 +4074,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
@@ -3868,7 +4091,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
@@ -3885,7 +4108,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
@@ -3902,7 +4125,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
@@ -3919,7 +4142,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
@@ -3936,7 +4159,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
@@ -3953,7 +4176,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
@@ -3970,7 +4193,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
@@ -3987,7 +4210,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
@@ -4004,7 +4227,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
@@ -4021,7 +4244,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
@@ -4038,7 +4261,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
@@ -4055,7 +4278,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
@@ -4072,7 +4295,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
@@ -4089,7 +4312,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
@@ -4106,7 +4329,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
@@ -4123,7 +4346,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
@@ -4140,7 +4363,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
@@ -4157,7 +4380,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
@@ -4174,7 +4397,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
@@ -4191,7 +4414,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
@@ -4208,7 +4431,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
@@ -4225,7 +4448,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
@@ -4242,7 +4465,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
@@ -4259,7 +4482,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
@@ -4276,7 +4499,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
@@ -4293,7 +4516,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
@@ -4310,7 +4533,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
@@ -4327,7 +4550,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
@@ -4344,7 +4567,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
@@ -4361,7 +4584,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
@@ -4378,7 +4601,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
@@ -4395,7 +4618,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
@@ -4412,7 +4635,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
@@ -4429,7 +4652,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
@@ -4446,7 +4669,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
@@ -4463,7 +4686,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
@@ -4480,7 +4703,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
@@ -4497,7 +4720,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
@@ -4514,7 +4737,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
@@ -4531,7 +4754,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
@@ -4548,7 +4771,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
@@ -4565,7 +4788,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
@@ -4582,7 +4805,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
@@ -4599,7 +4822,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
@@ -4616,7 +4839,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
@@ -4633,7 +4856,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
@@ -4650,7 +4873,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
@@ -4667,7 +4890,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
@@ -4684,7 +4907,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
@@ -4701,7 +4924,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
@@ -4718,7 +4941,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
@@ -4735,7 +4958,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
@@ -4752,7 +4975,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
@@ -4769,7 +4992,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
@@ -4786,7 +5009,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
@@ -4803,7 +5026,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
@@ -4820,7 +5043,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
@@ -4837,7 +5060,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="7"/>
@@ -4854,7 +5077,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="7"/>
@@ -4871,7 +5094,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
@@ -4888,7 +5111,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
@@ -4905,7 +5128,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="7"/>
@@ -4922,7 +5145,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="7"/>
@@ -4939,7 +5162,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="7"/>
@@ -4956,7 +5179,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
@@ -4973,7 +5196,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="7"/>
@@ -4990,7 +5213,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="7"/>
@@ -5007,7 +5230,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="7"/>
@@ -5024,7 +5247,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="7"/>
@@ -5041,7 +5264,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="7"/>
@@ -5058,7 +5281,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="7"/>
@@ -5075,7 +5298,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="7"/>
@@ -5092,7 +5315,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="7"/>
@@ -5109,7 +5332,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="7"/>
@@ -5126,7 +5349,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="7"/>
@@ -5143,7 +5366,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="7"/>
@@ -5160,7 +5383,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="7"/>
@@ -5177,7 +5400,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="7"/>
@@ -5194,7 +5417,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="7"/>
@@ -5211,7 +5434,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="7"/>
@@ -5228,7 +5451,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="7"/>
@@ -5245,7 +5468,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="7"/>
@@ -5262,7 +5485,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="7"/>
@@ -5279,7 +5502,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="7"/>
@@ -5296,7 +5519,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="7"/>
@@ -5313,7 +5536,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="7"/>
@@ -5330,7 +5553,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="7"/>
@@ -5347,7 +5570,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="7"/>
@@ -5364,7 +5587,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
@@ -5381,7 +5604,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
@@ -5398,7 +5621,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="7"/>
@@ -5415,7 +5638,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="7"/>
@@ -5432,7 +5655,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
@@ -5449,7 +5672,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="7"/>
@@ -5466,7 +5689,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="7"/>
@@ -5483,7 +5706,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="7"/>
@@ -5500,7 +5723,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
@@ -5517,7 +5740,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="7"/>
@@ -5534,7 +5757,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
@@ -5551,7 +5774,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="7"/>
@@ -5568,7 +5791,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="7"/>
@@ -5585,7 +5808,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="7"/>
@@ -5602,7 +5825,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="7"/>
@@ -5619,7 +5842,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="7"/>
@@ -5636,7 +5859,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="7"/>
@@ -5653,7 +5876,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="7"/>
@@ -5670,7 +5893,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="7"/>
@@ -5687,7 +5910,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="7"/>
@@ -5704,7 +5927,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="7"/>
@@ -5721,7 +5944,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="7"/>
@@ -5738,7 +5961,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="7"/>
@@ -5755,7 +5978,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="7"/>
@@ -5772,7 +5995,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="7"/>
@@ -5789,7 +6012,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="7"/>
@@ -5806,7 +6029,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="7"/>
@@ -5823,7 +6046,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="7"/>
@@ -5840,7 +6063,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="7"/>
@@ -5857,7 +6080,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="7"/>
@@ -5874,7 +6097,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="7"/>
@@ -5891,7 +6114,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="7"/>
@@ -5908,7 +6131,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="7"/>
@@ -5925,7 +6148,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="7"/>
@@ -5942,7 +6165,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="7"/>
@@ -5959,7 +6182,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="7"/>
@@ -5976,7 +6199,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="7"/>
@@ -5993,7 +6216,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="7"/>
@@ -6010,7 +6233,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="7"/>
@@ -6027,7 +6250,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="7"/>
@@ -6044,7 +6267,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="7"/>
@@ -6061,7 +6284,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="7"/>
@@ -6078,7 +6301,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="7"/>
@@ -6095,7 +6318,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="7"/>
@@ -6112,7 +6335,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="7"/>
@@ -6129,7 +6352,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="7"/>
@@ -6146,7 +6369,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="7"/>
@@ -6163,7 +6386,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="7"/>
@@ -6180,7 +6403,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="7"/>
@@ -6197,7 +6420,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="7"/>
@@ -6214,7 +6437,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="7"/>
@@ -6231,7 +6454,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="7"/>
@@ -6248,7 +6471,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="7"/>
@@ -6265,7 +6488,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="7"/>
@@ -6282,7 +6505,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="7"/>
@@ -6299,7 +6522,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="7"/>
@@ -6316,7 +6539,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="7"/>
@@ -6333,7 +6556,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="7"/>
@@ -6350,7 +6573,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="7"/>
@@ -6367,7 +6590,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="7"/>
@@ -6384,7 +6607,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="7"/>
@@ -6401,7 +6624,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="7"/>
@@ -6418,7 +6641,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="7"/>
@@ -6435,7 +6658,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="7"/>
@@ -6452,7 +6675,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="7"/>
@@ -6469,7 +6692,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="7"/>
@@ -6486,7 +6709,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="7"/>
@@ -6503,7 +6726,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="7"/>
@@ -6520,7 +6743,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="7"/>
@@ -6537,7 +6760,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="7"/>
@@ -6554,7 +6777,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="7"/>
@@ -6571,7 +6794,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="7"/>
@@ -6588,7 +6811,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="7"/>
@@ -6605,7 +6828,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="7"/>
@@ -6622,7 +6845,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="7"/>
@@ -6639,7 +6862,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="7"/>
@@ -6656,7 +6879,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="7"/>
@@ -6673,7 +6896,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="7"/>
@@ -6690,7 +6913,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="7"/>
@@ -6707,7 +6930,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="7"/>
@@ -6724,7 +6947,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="7"/>
@@ -6741,7 +6964,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="7"/>
@@ -6758,7 +6981,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="7"/>
@@ -6775,7 +6998,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="7"/>
@@ -6792,7 +7015,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="7"/>
@@ -6809,7 +7032,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="7"/>
@@ -6826,7 +7049,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="7"/>
@@ -6843,7 +7066,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="7"/>
@@ -6860,7 +7083,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="7"/>
@@ -6877,7 +7100,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="7"/>
@@ -6894,7 +7117,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="7"/>
@@ -6911,7 +7134,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="7"/>
@@ -6928,7 +7151,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="7"/>
@@ -6945,7 +7168,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="7"/>
@@ -6962,7 +7185,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="7"/>
@@ -6979,7 +7202,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="7"/>
@@ -6996,7 +7219,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="7"/>
@@ -7013,7 +7236,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="7"/>
@@ -7030,7 +7253,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="7"/>
@@ -7047,7 +7270,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="7"/>
@@ -7064,7 +7287,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="7"/>
@@ -7081,7 +7304,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="7"/>
@@ -7098,7 +7321,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="7"/>
@@ -7115,7 +7338,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="7"/>
@@ -7132,7 +7355,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="7"/>
@@ -7149,7 +7372,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="7"/>
@@ -7166,7 +7389,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="7"/>
@@ -7183,7 +7406,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="7"/>
@@ -7200,7 +7423,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="7"/>
@@ -7217,7 +7440,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="7"/>
@@ -7234,7 +7457,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="7"/>
@@ -7251,7 +7474,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="7"/>
@@ -7268,7 +7491,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="7"/>
@@ -7285,7 +7508,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="7"/>
@@ -7302,7 +7525,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="7"/>
@@ -7319,7 +7542,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="7"/>
@@ -7336,7 +7559,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="7"/>
@@ -7353,7 +7576,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="7"/>
@@ -7370,7 +7593,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="7"/>
@@ -7387,7 +7610,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="7"/>
@@ -7404,7 +7627,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="7"/>
@@ -7421,7 +7644,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="7"/>
@@ -7438,7 +7661,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="7"/>
@@ -7455,7 +7678,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="7"/>
@@ -7472,7 +7695,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="7"/>
@@ -7489,7 +7712,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="7"/>
@@ -7506,7 +7729,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="7"/>
@@ -7523,7 +7746,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="7"/>
@@ -7540,7 +7763,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="7"/>
@@ -7557,7 +7780,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="7"/>
@@ -7574,7 +7797,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="7"/>
@@ -7591,7 +7814,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="7"/>
@@ -7608,7 +7831,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="7"/>
@@ -7625,7 +7848,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="7"/>
@@ -7642,7 +7865,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="7"/>
@@ -7659,7 +7882,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="7"/>
@@ -7676,7 +7899,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="7"/>
@@ -7693,7 +7916,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="7"/>
@@ -7710,7 +7933,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="7"/>
@@ -7727,7 +7950,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="7"/>
@@ -7744,7 +7967,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="7"/>
@@ -7761,7 +7984,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="7"/>
@@ -7778,7 +8001,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="7"/>
@@ -7795,7 +8018,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="7"/>
@@ -7812,7 +8035,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="7"/>
@@ -7829,7 +8052,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="7"/>
@@ -7846,7 +8069,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="7"/>
@@ -7863,7 +8086,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="7"/>
@@ -7880,7 +8103,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="7"/>
@@ -7897,7 +8120,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="7"/>
@@ -7914,7 +8137,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="7"/>
@@ -7931,7 +8154,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="7"/>
@@ -7948,7 +8171,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="7"/>
@@ -7965,7 +8188,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="7"/>
@@ -7982,7 +8205,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="7"/>
@@ -7999,7 +8222,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="7"/>
@@ -8016,7 +8239,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="7"/>
@@ -8033,7 +8256,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="7"/>
@@ -8050,7 +8273,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="7"/>
@@ -8067,7 +8290,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="7"/>
@@ -8084,7 +8307,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="7"/>
@@ -8101,7 +8324,7 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="7"/>
@@ -8118,7 +8341,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="7"/>
@@ -8135,7 +8358,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="7"/>
@@ -8152,7 +8375,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="7"/>
@@ -8169,7 +8392,7 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="7"/>
@@ -8186,7 +8409,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="7"/>
@@ -8203,7 +8426,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="7"/>
@@ -8220,7 +8443,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="7"/>
@@ -8237,7 +8460,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="7"/>
@@ -8254,7 +8477,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="7"/>
@@ -8271,7 +8494,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="7"/>
@@ -8288,7 +8511,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="7"/>
@@ -8305,7 +8528,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="7"/>
@@ -8322,7 +8545,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="7"/>
@@ -8339,7 +8562,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="7"/>
@@ -8356,7 +8579,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="7"/>
@@ -8373,7 +8596,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="7"/>
@@ -8390,7 +8613,7 @@
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="7"/>
@@ -8407,7 +8630,7 @@
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="7"/>
@@ -8424,7 +8647,7 @@
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="7"/>
@@ -8441,7 +8664,7 @@
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="7"/>
@@ -8458,7 +8681,7 @@
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="7"/>
@@ -8475,7 +8698,7 @@
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="7"/>
@@ -8492,7 +8715,7 @@
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="7"/>
@@ -8509,7 +8732,7 @@
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="7"/>
@@ -8526,7 +8749,7 @@
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="7"/>
@@ -8543,7 +8766,7 @@
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="7"/>
@@ -8560,7 +8783,7 @@
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="7"/>
@@ -8577,7 +8800,7 @@
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="7"/>
@@ -8594,7 +8817,7 @@
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="7"/>
@@ -8611,7 +8834,7 @@
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="7"/>
@@ -8628,7 +8851,7 @@
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="7"/>
@@ -8645,7 +8868,7 @@
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="7"/>
@@ -8662,7 +8885,7 @@
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="7"/>
@@ -8679,7 +8902,7 @@
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="7"/>
@@ -8696,7 +8919,7 @@
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="7"/>
@@ -8713,7 +8936,7 @@
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="7"/>
@@ -8730,7 +8953,7 @@
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="7"/>
@@ -8747,7 +8970,7 @@
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="7"/>
@@ -8764,7 +8987,7 @@
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="7"/>
@@ -8781,7 +9004,7 @@
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="7"/>
@@ -8798,7 +9021,7 @@
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="7"/>
@@ -8815,7 +9038,7 @@
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="7"/>
@@ -8832,7 +9055,7 @@
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="7"/>
@@ -8849,7 +9072,7 @@
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="7"/>
@@ -8866,7 +9089,7 @@
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="7"/>
@@ -8883,7 +9106,7 @@
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="7"/>
@@ -8900,7 +9123,7 @@
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="7"/>
@@ -8917,7 +9140,7 @@
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="7"/>
@@ -8934,7 +9157,7 @@
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="7"/>
@@ -8951,7 +9174,7 @@
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="7"/>
@@ -8968,7 +9191,7 @@
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="7"/>
@@ -8985,7 +9208,7 @@
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="7"/>
@@ -9002,7 +9225,7 @@
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="7"/>
@@ -9019,7 +9242,7 @@
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="7"/>
@@ -9036,7 +9259,7 @@
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="7"/>
@@ -9053,7 +9276,7 @@
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="7"/>
@@ -9070,7 +9293,7 @@
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="7"/>
@@ -9087,7 +9310,7 @@
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="7"/>
@@ -9104,7 +9327,7 @@
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="7"/>
@@ -9121,7 +9344,7 @@
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="7"/>
@@ -9138,7 +9361,7 @@
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="7"/>
@@ -9155,7 +9378,7 @@
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="7"/>
@@ -9172,7 +9395,7 @@
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="7"/>
@@ -9189,7 +9412,7 @@
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="7"/>
@@ -9206,7 +9429,7 @@
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="7"/>
@@ -9223,7 +9446,7 @@
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="7"/>
@@ -9240,7 +9463,7 @@
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="7"/>
@@ -9257,7 +9480,7 @@
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="7"/>
@@ -9274,7 +9497,7 @@
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="7"/>
@@ -9291,7 +9514,7 @@
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="7"/>
@@ -9308,7 +9531,7 @@
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="7"/>
@@ -9325,7 +9548,7 @@
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="7"/>
@@ -9342,7 +9565,7 @@
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="7"/>
@@ -9359,7 +9582,7 @@
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="7"/>
@@ -9376,7 +9599,7 @@
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="7"/>
@@ -9393,7 +9616,7 @@
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="7"/>
@@ -9410,7 +9633,7 @@
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="7"/>
@@ -9427,7 +9650,7 @@
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="7"/>
@@ -9444,7 +9667,7 @@
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="7"/>
@@ -9461,7 +9684,7 @@
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="7"/>
@@ -9478,7 +9701,7 @@
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="7"/>
@@ -9495,7 +9718,7 @@
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="7"/>
@@ -9512,7 +9735,7 @@
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="7"/>
@@ -9529,7 +9752,7 @@
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="7"/>
@@ -9546,7 +9769,7 @@
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="7"/>
@@ -9563,7 +9786,7 @@
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="7"/>
@@ -9580,7 +9803,7 @@
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="7"/>
@@ -9597,7 +9820,7 @@
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="7"/>
@@ -9614,7 +9837,7 @@
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="7"/>
@@ -9631,7 +9854,7 @@
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="7"/>
@@ -9648,7 +9871,7 @@
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="7"/>
@@ -9665,7 +9888,7 @@
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="7"/>
@@ -9682,7 +9905,7 @@
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="7"/>
@@ -9699,7 +9922,7 @@
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="7"/>
@@ -9716,7 +9939,7 @@
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="7"/>
@@ -9733,7 +9956,7 @@
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="7"/>
@@ -9750,7 +9973,7 @@
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="7"/>
@@ -9767,7 +9990,7 @@
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="7"/>
@@ -9784,7 +10007,7 @@
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="7"/>
@@ -9801,7 +10024,7 @@
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="7"/>
@@ -9818,7 +10041,7 @@
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="7"/>
@@ -9835,7 +10058,7 @@
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="7"/>
@@ -9852,7 +10075,7 @@
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="7"/>
@@ -9869,7 +10092,7 @@
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="7"/>
@@ -9886,7 +10109,7 @@
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="7"/>
@@ -9903,7 +10126,7 @@
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="7"/>
@@ -9920,7 +10143,7 @@
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="7"/>
@@ -9937,7 +10160,7 @@
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="7"/>
@@ -9954,7 +10177,7 @@
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="7"/>
@@ -9971,7 +10194,7 @@
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="7"/>
@@ -9988,7 +10211,7 @@
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="7"/>
@@ -10005,7 +10228,7 @@
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="7"/>
@@ -10022,7 +10245,7 @@
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="7"/>
@@ -10039,7 +10262,7 @@
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="7"/>
@@ -10056,7 +10279,7 @@
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="7"/>
@@ -10073,7 +10296,7 @@
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="7"/>
@@ -10090,7 +10313,7 @@
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="7"/>
@@ -10107,7 +10330,7 @@
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="7"/>
@@ -10124,7 +10347,7 @@
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="7"/>
@@ -10141,7 +10364,7 @@
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="7"/>
@@ -10158,7 +10381,7 @@
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="7"/>
@@ -10175,7 +10398,7 @@
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="7"/>
@@ -10192,7 +10415,7 @@
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="7"/>
@@ -10209,7 +10432,7 @@
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="7"/>
@@ -10226,7 +10449,7 @@
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="7"/>
@@ -10243,7 +10466,7 @@
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="7"/>
@@ -10260,7 +10483,7 @@
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="7"/>
@@ -10277,7 +10500,7 @@
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="7"/>
@@ -10294,7 +10517,7 @@
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="7"/>
@@ -10311,7 +10534,7 @@
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="7"/>
@@ -10328,7 +10551,7 @@
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="7"/>
@@ -10345,7 +10568,7 @@
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="7"/>
@@ -10362,7 +10585,7 @@
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="7"/>
@@ -10379,7 +10602,7 @@
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="7"/>
@@ -10396,7 +10619,7 @@
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="7"/>
@@ -10413,7 +10636,7 @@
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="7"/>
@@ -10430,7 +10653,7 @@
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="7"/>
@@ -10447,7 +10670,7 @@
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="7"/>
@@ -10464,7 +10687,7 @@
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="7"/>
@@ -10481,7 +10704,7 @@
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="7"/>
@@ -10498,7 +10721,7 @@
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="7"/>
@@ -10515,7 +10738,7 @@
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="7"/>
@@ -10532,7 +10755,7 @@
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="7"/>
@@ -10549,7 +10772,7 @@
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="7"/>
@@ -10566,7 +10789,7 @@
       <c r="N481" s="1"/>
       <c r="O481" s="1"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="7"/>
@@ -10583,7 +10806,7 @@
       <c r="N482" s="1"/>
       <c r="O482" s="1"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="7"/>
@@ -10600,7 +10823,7 @@
       <c r="N483" s="1"/>
       <c r="O483" s="1"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="7"/>
@@ -10617,7 +10840,7 @@
       <c r="N484" s="1"/>
       <c r="O484" s="1"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="7"/>
@@ -10634,7 +10857,7 @@
       <c r="N485" s="1"/>
       <c r="O485" s="1"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="7"/>
@@ -10651,7 +10874,7 @@
       <c r="N486" s="1"/>
       <c r="O486" s="1"/>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="7"/>
@@ -10668,7 +10891,7 @@
       <c r="N487" s="1"/>
       <c r="O487" s="1"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="7"/>
@@ -10685,7 +10908,7 @@
       <c r="N488" s="1"/>
       <c r="O488" s="1"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="7"/>
@@ -10702,7 +10925,7 @@
       <c r="N489" s="1"/>
       <c r="O489" s="1"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="7"/>
@@ -10719,7 +10942,7 @@
       <c r="N490" s="1"/>
       <c r="O490" s="1"/>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="7"/>
@@ -10736,7 +10959,7 @@
       <c r="N491" s="1"/>
       <c r="O491" s="1"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="7"/>
@@ -10753,7 +10976,7 @@
       <c r="N492" s="1"/>
       <c r="O492" s="1"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="7"/>
@@ -10770,7 +10993,7 @@
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="7"/>
@@ -10787,7 +11010,7 @@
       <c r="N494" s="1"/>
       <c r="O494" s="1"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="7"/>
@@ -10804,7 +11027,7 @@
       <c r="N495" s="1"/>
       <c r="O495" s="1"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="7"/>
@@ -10821,7 +11044,7 @@
       <c r="N496" s="1"/>
       <c r="O496" s="1"/>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="7"/>
@@ -10838,7 +11061,7 @@
       <c r="N497" s="1"/>
       <c r="O497" s="1"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="7"/>
@@ -10855,7 +11078,7 @@
       <c r="N498" s="1"/>
       <c r="O498" s="1"/>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="7"/>
@@ -10872,7 +11095,7 @@
       <c r="N499" s="1"/>
       <c r="O499" s="1"/>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="7"/>
@@ -10889,7 +11112,7 @@
       <c r="N500" s="1"/>
       <c r="O500" s="1"/>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="7"/>
@@ -10906,7 +11129,7 @@
       <c r="N501" s="1"/>
       <c r="O501" s="1"/>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="7"/>
@@ -10923,7 +11146,7 @@
       <c r="N502" s="1"/>
       <c r="O502" s="1"/>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="7"/>
@@ -10940,7 +11163,7 @@
       <c r="N503" s="1"/>
       <c r="O503" s="1"/>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="7"/>
@@ -10957,7 +11180,7 @@
       <c r="N504" s="1"/>
       <c r="O504" s="1"/>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="7"/>
@@ -10974,7 +11197,7 @@
       <c r="N505" s="1"/>
       <c r="O505" s="1"/>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="7"/>
@@ -10991,7 +11214,7 @@
       <c r="N506" s="1"/>
       <c r="O506" s="1"/>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="7"/>
@@ -11008,7 +11231,7 @@
       <c r="N507" s="1"/>
       <c r="O507" s="1"/>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="7"/>
@@ -11025,7 +11248,7 @@
       <c r="N508" s="1"/>
       <c r="O508" s="1"/>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="7"/>
@@ -11042,7 +11265,7 @@
       <c r="N509" s="1"/>
       <c r="O509" s="1"/>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="7"/>
@@ -11059,7 +11282,7 @@
       <c r="N510" s="1"/>
       <c r="O510" s="1"/>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="7"/>
@@ -11076,7 +11299,7 @@
       <c r="N511" s="1"/>
       <c r="O511" s="1"/>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="7"/>
@@ -11093,7 +11316,7 @@
       <c r="N512" s="1"/>
       <c r="O512" s="1"/>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="7"/>
@@ -11110,7 +11333,7 @@
       <c r="N513" s="1"/>
       <c r="O513" s="1"/>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="7"/>
@@ -11127,7 +11350,7 @@
       <c r="N514" s="1"/>
       <c r="O514" s="1"/>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="7"/>
@@ -11144,7 +11367,7 @@
       <c r="N515" s="1"/>
       <c r="O515" s="1"/>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="7"/>
@@ -11161,7 +11384,7 @@
       <c r="N516" s="1"/>
       <c r="O516" s="1"/>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="7"/>
@@ -11178,7 +11401,7 @@
       <c r="N517" s="1"/>
       <c r="O517" s="1"/>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="7"/>
@@ -11195,7 +11418,7 @@
       <c r="N518" s="1"/>
       <c r="O518" s="1"/>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="7"/>
@@ -11212,7 +11435,7 @@
       <c r="N519" s="1"/>
       <c r="O519" s="1"/>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="7"/>
@@ -11229,7 +11452,7 @@
       <c r="N520" s="1"/>
       <c r="O520" s="1"/>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="7"/>
@@ -11246,7 +11469,7 @@
       <c r="N521" s="1"/>
       <c r="O521" s="1"/>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="7"/>
@@ -11263,7 +11486,7 @@
       <c r="N522" s="1"/>
       <c r="O522" s="1"/>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="7"/>
@@ -11280,7 +11503,7 @@
       <c r="N523" s="1"/>
       <c r="O523" s="1"/>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="7"/>
@@ -11297,7 +11520,7 @@
       <c r="N524" s="1"/>
       <c r="O524" s="1"/>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="7"/>
@@ -11314,7 +11537,7 @@
       <c r="N525" s="1"/>
       <c r="O525" s="1"/>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="7"/>
@@ -11331,7 +11554,7 @@
       <c r="N526" s="1"/>
       <c r="O526" s="1"/>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="7"/>
@@ -11348,7 +11571,7 @@
       <c r="N527" s="1"/>
       <c r="O527" s="1"/>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="7"/>
@@ -11365,7 +11588,7 @@
       <c r="N528" s="1"/>
       <c r="O528" s="1"/>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="7"/>
@@ -11382,7 +11605,7 @@
       <c r="N529" s="1"/>
       <c r="O529" s="1"/>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="7"/>
@@ -11399,7 +11622,7 @@
       <c r="N530" s="1"/>
       <c r="O530" s="1"/>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="7"/>
@@ -11416,7 +11639,7 @@
       <c r="N531" s="1"/>
       <c r="O531" s="1"/>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="7"/>
@@ -11433,7 +11656,7 @@
       <c r="N532" s="1"/>
       <c r="O532" s="1"/>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="7"/>
@@ -11450,7 +11673,7 @@
       <c r="N533" s="1"/>
       <c r="O533" s="1"/>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="7"/>
@@ -11467,7 +11690,7 @@
       <c r="N534" s="1"/>
       <c r="O534" s="1"/>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="7"/>
@@ -11484,7 +11707,7 @@
       <c r="N535" s="1"/>
       <c r="O535" s="1"/>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="7"/>
@@ -11501,7 +11724,7 @@
       <c r="N536" s="1"/>
       <c r="O536" s="1"/>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="7"/>
@@ -11518,7 +11741,7 @@
       <c r="N537" s="1"/>
       <c r="O537" s="1"/>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="7"/>
@@ -11535,7 +11758,7 @@
       <c r="N538" s="1"/>
       <c r="O538" s="1"/>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="7"/>
@@ -11552,7 +11775,7 @@
       <c r="N539" s="1"/>
       <c r="O539" s="1"/>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="7"/>
@@ -11569,7 +11792,7 @@
       <c r="N540" s="1"/>
       <c r="O540" s="1"/>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="7"/>
@@ -11586,7 +11809,7 @@
       <c r="N541" s="1"/>
       <c r="O541" s="1"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="7"/>
@@ -11603,7 +11826,7 @@
       <c r="N542" s="1"/>
       <c r="O542" s="1"/>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="7"/>
@@ -11620,7 +11843,7 @@
       <c r="N543" s="1"/>
       <c r="O543" s="1"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="7"/>
@@ -11637,7 +11860,7 @@
       <c r="N544" s="1"/>
       <c r="O544" s="1"/>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="7"/>
@@ -11654,7 +11877,7 @@
       <c r="N545" s="1"/>
       <c r="O545" s="1"/>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="7"/>
@@ -11671,7 +11894,7 @@
       <c r="N546" s="1"/>
       <c r="O546" s="1"/>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="7"/>
@@ -11688,7 +11911,7 @@
       <c r="N547" s="1"/>
       <c r="O547" s="1"/>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="7"/>
@@ -11705,7 +11928,7 @@
       <c r="N548" s="1"/>
       <c r="O548" s="1"/>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="7"/>
@@ -11722,7 +11945,7 @@
       <c r="N549" s="1"/>
       <c r="O549" s="1"/>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="7"/>
@@ -11739,7 +11962,7 @@
       <c r="N550" s="1"/>
       <c r="O550" s="1"/>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="7"/>
@@ -11756,7 +11979,7 @@
       <c r="N551" s="1"/>
       <c r="O551" s="1"/>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="7"/>
@@ -11773,7 +11996,7 @@
       <c r="N552" s="1"/>
       <c r="O552" s="1"/>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="7"/>
@@ -11790,7 +12013,7 @@
       <c r="N553" s="1"/>
       <c r="O553" s="1"/>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="7"/>
@@ -11807,7 +12030,7 @@
       <c r="N554" s="1"/>
       <c r="O554" s="1"/>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="7"/>
@@ -11824,7 +12047,7 @@
       <c r="N555" s="1"/>
       <c r="O555" s="1"/>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="7"/>
@@ -11841,7 +12064,7 @@
       <c r="N556" s="1"/>
       <c r="O556" s="1"/>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="7"/>
@@ -11858,7 +12081,7 @@
       <c r="N557" s="1"/>
       <c r="O557" s="1"/>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="7"/>
@@ -11875,7 +12098,7 @@
       <c r="N558" s="1"/>
       <c r="O558" s="1"/>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="7"/>
@@ -11892,7 +12115,7 @@
       <c r="N559" s="1"/>
       <c r="O559" s="1"/>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="7"/>
@@ -11909,7 +12132,7 @@
       <c r="N560" s="1"/>
       <c r="O560" s="1"/>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="7"/>
@@ -11926,7 +12149,7 @@
       <c r="N561" s="1"/>
       <c r="O561" s="1"/>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="7"/>
@@ -11943,7 +12166,7 @@
       <c r="N562" s="1"/>
       <c r="O562" s="1"/>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="7"/>
@@ -11960,7 +12183,7 @@
       <c r="N563" s="1"/>
       <c r="O563" s="1"/>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="7"/>
@@ -11977,7 +12200,7 @@
       <c r="N564" s="1"/>
       <c r="O564" s="1"/>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="7"/>
@@ -11994,7 +12217,7 @@
       <c r="N565" s="1"/>
       <c r="O565" s="1"/>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="7"/>
@@ -12011,7 +12234,7 @@
       <c r="N566" s="1"/>
       <c r="O566" s="1"/>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="7"/>
@@ -12028,7 +12251,7 @@
       <c r="N567" s="1"/>
       <c r="O567" s="1"/>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="7"/>
@@ -12045,7 +12268,7 @@
       <c r="N568" s="1"/>
       <c r="O568" s="1"/>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="7"/>
@@ -12062,7 +12285,7 @@
       <c r="N569" s="1"/>
       <c r="O569" s="1"/>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="7"/>
@@ -12079,7 +12302,7 @@
       <c r="N570" s="1"/>
       <c r="O570" s="1"/>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="7"/>
@@ -12096,7 +12319,7 @@
       <c r="N571" s="1"/>
       <c r="O571" s="1"/>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="7"/>
@@ -12113,7 +12336,7 @@
       <c r="N572" s="1"/>
       <c r="O572" s="1"/>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="7"/>
@@ -12130,7 +12353,7 @@
       <c r="N573" s="1"/>
       <c r="O573" s="1"/>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="7"/>
@@ -12147,7 +12370,7 @@
       <c r="N574" s="1"/>
       <c r="O574" s="1"/>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="7"/>
@@ -12164,7 +12387,7 @@
       <c r="N575" s="1"/>
       <c r="O575" s="1"/>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="7"/>
@@ -12181,7 +12404,7 @@
       <c r="N576" s="1"/>
       <c r="O576" s="1"/>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="7"/>
@@ -12198,7 +12421,7 @@
       <c r="N577" s="1"/>
       <c r="O577" s="1"/>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="7"/>
@@ -12215,7 +12438,7 @@
       <c r="N578" s="1"/>
       <c r="O578" s="1"/>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="7"/>
@@ -12232,7 +12455,7 @@
       <c r="N579" s="1"/>
       <c r="O579" s="1"/>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="7"/>
@@ -12249,7 +12472,7 @@
       <c r="N580" s="1"/>
       <c r="O580" s="1"/>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="7"/>
@@ -12266,7 +12489,7 @@
       <c r="N581" s="1"/>
       <c r="O581" s="1"/>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="7"/>
@@ -12283,7 +12506,7 @@
       <c r="N582" s="1"/>
       <c r="O582" s="1"/>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="7"/>
@@ -12300,7 +12523,7 @@
       <c r="N583" s="1"/>
       <c r="O583" s="1"/>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="7"/>
@@ -12317,7 +12540,7 @@
       <c r="N584" s="1"/>
       <c r="O584" s="1"/>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="7"/>
@@ -12334,7 +12557,7 @@
       <c r="N585" s="1"/>
       <c r="O585" s="1"/>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="7"/>
@@ -12351,7 +12574,7 @@
       <c r="N586" s="1"/>
       <c r="O586" s="1"/>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="7"/>
@@ -12368,7 +12591,7 @@
       <c r="N587" s="1"/>
       <c r="O587" s="1"/>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="7"/>
@@ -12385,7 +12608,7 @@
       <c r="N588" s="1"/>
       <c r="O588" s="1"/>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="7"/>
@@ -12402,7 +12625,7 @@
       <c r="N589" s="1"/>
       <c r="O589" s="1"/>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="7"/>
@@ -12419,7 +12642,7 @@
       <c r="N590" s="1"/>
       <c r="O590" s="1"/>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="7"/>
@@ -12436,7 +12659,7 @@
       <c r="N591" s="1"/>
       <c r="O591" s="1"/>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="7"/>
@@ -12453,7 +12676,7 @@
       <c r="N592" s="1"/>
       <c r="O592" s="1"/>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="7"/>
@@ -12470,7 +12693,7 @@
       <c r="N593" s="1"/>
       <c r="O593" s="1"/>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="7"/>
@@ -12487,7 +12710,7 @@
       <c r="N594" s="1"/>
       <c r="O594" s="1"/>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="7"/>
@@ -12504,7 +12727,7 @@
       <c r="N595" s="1"/>
       <c r="O595" s="1"/>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="7"/>
@@ -12521,7 +12744,7 @@
       <c r="N596" s="1"/>
       <c r="O596" s="1"/>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="7"/>
@@ -12538,7 +12761,7 @@
       <c r="N597" s="1"/>
       <c r="O597" s="1"/>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="7"/>
@@ -12555,7 +12778,7 @@
       <c r="N598" s="1"/>
       <c r="O598" s="1"/>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="7"/>
@@ -12572,7 +12795,7 @@
       <c r="N599" s="1"/>
       <c r="O599" s="1"/>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="7"/>
@@ -12589,7 +12812,7 @@
       <c r="N600" s="1"/>
       <c r="O600" s="1"/>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="7"/>
@@ -12606,7 +12829,7 @@
       <c r="N601" s="1"/>
       <c r="O601" s="1"/>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="7"/>
@@ -12618,7 +12841,7 @@
       <c r="I602" s="1"/>
       <c r="K602" s="9"/>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="7"/>
@@ -12630,7 +12853,7 @@
       <c r="I603" s="1"/>
       <c r="K603" s="9"/>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="7"/>
@@ -12642,7 +12865,7 @@
       <c r="I604" s="1"/>
       <c r="K604" s="9"/>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="7"/>
@@ -12654,7 +12877,7 @@
       <c r="I605" s="1"/>
       <c r="K605" s="9"/>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="7"/>
@@ -12666,7 +12889,7 @@
       <c r="I606" s="1"/>
       <c r="K606" s="9"/>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="7"/>
@@ -12678,7 +12901,7 @@
       <c r="I607" s="1"/>
       <c r="K607" s="9"/>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="7"/>
@@ -12690,7 +12913,7 @@
       <c r="I608" s="1"/>
       <c r="K608" s="9"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="7"/>
@@ -12702,7 +12925,7 @@
       <c r="I609" s="1"/>
       <c r="K609" s="9"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="7"/>
@@ -12714,7 +12937,7 @@
       <c r="I610" s="1"/>
       <c r="K610" s="9"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="7"/>
@@ -12726,7 +12949,7 @@
       <c r="I611" s="1"/>
       <c r="K611" s="9"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="7"/>
@@ -12738,7 +12961,7 @@
       <c r="I612" s="1"/>
       <c r="K612" s="9"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="7"/>
@@ -12750,7 +12973,7 @@
       <c r="I613" s="1"/>
       <c r="K613" s="9"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="7"/>
@@ -12762,7 +12985,7 @@
       <c r="I614" s="1"/>
       <c r="K614" s="9"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="7"/>
@@ -12774,7 +12997,7 @@
       <c r="I615" s="1"/>
       <c r="K615" s="9"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="7"/>
@@ -12786,7 +13009,7 @@
       <c r="I616" s="1"/>
       <c r="K616" s="9"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="7"/>
@@ -12798,7 +13021,7 @@
       <c r="I617" s="1"/>
       <c r="K617" s="9"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="7"/>
@@ -12810,7 +13033,7 @@
       <c r="I618" s="1"/>
       <c r="K618" s="9"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="7"/>
@@ -12822,7 +13045,7 @@
       <c r="I619" s="1"/>
       <c r="K619" s="9"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="7"/>
@@ -12834,7 +13057,7 @@
       <c r="I620" s="1"/>
       <c r="K620" s="9"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="7"/>
@@ -12846,7 +13069,7 @@
       <c r="I621" s="1"/>
       <c r="K621" s="9"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="7"/>
@@ -12858,7 +13081,7 @@
       <c r="I622" s="1"/>
       <c r="K622" s="9"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="7"/>
@@ -12870,7 +13093,7 @@
       <c r="I623" s="1"/>
       <c r="K623" s="9"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="7"/>
@@ -12882,7 +13105,7 @@
       <c r="I624" s="1"/>
       <c r="K624" s="9"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="7"/>
@@ -12894,7 +13117,7 @@
       <c r="I625" s="1"/>
       <c r="K625" s="9"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="7"/>
@@ -12906,7 +13129,7 @@
       <c r="I626" s="1"/>
       <c r="K626" s="9"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="7"/>
@@ -12918,7 +13141,7 @@
       <c r="I627" s="1"/>
       <c r="K627" s="9"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="7"/>
@@ -12930,7 +13153,7 @@
       <c r="I628" s="1"/>
       <c r="K628" s="9"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="7"/>
@@ -12942,7 +13165,7 @@
       <c r="I629" s="1"/>
       <c r="K629" s="9"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="7"/>
@@ -12954,7 +13177,7 @@
       <c r="I630" s="1"/>
       <c r="K630" s="9"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="7"/>
@@ -12966,7 +13189,7 @@
       <c r="I631" s="1"/>
       <c r="K631" s="9"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="7"/>
@@ -12978,7 +13201,7 @@
       <c r="I632" s="1"/>
       <c r="K632" s="9"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="7"/>
@@ -12990,7 +13213,7 @@
       <c r="I633" s="1"/>
       <c r="K633" s="9"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="7"/>
@@ -13002,7 +13225,7 @@
       <c r="I634" s="1"/>
       <c r="K634" s="9"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="7"/>
@@ -13014,7 +13237,7 @@
       <c r="I635" s="1"/>
       <c r="K635" s="9"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="7"/>
@@ -13026,7 +13249,7 @@
       <c r="I636" s="1"/>
       <c r="K636" s="9"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="7"/>
@@ -13038,7 +13261,7 @@
       <c r="I637" s="1"/>
       <c r="K637" s="9"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="7"/>
@@ -13050,7 +13273,7 @@
       <c r="I638" s="1"/>
       <c r="K638" s="9"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="7"/>
@@ -13062,7 +13285,7 @@
       <c r="I639" s="1"/>
       <c r="K639" s="9"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="7"/>
@@ -13074,7 +13297,7 @@
       <c r="I640" s="1"/>
       <c r="K640" s="9"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="7"/>
@@ -13086,7 +13309,7 @@
       <c r="I641" s="1"/>
       <c r="K641" s="9"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="7"/>
@@ -13098,7 +13321,7 @@
       <c r="I642" s="1"/>
       <c r="K642" s="9"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="7"/>
@@ -13110,7 +13333,7 @@
       <c r="I643" s="1"/>
       <c r="K643" s="9"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="7"/>
@@ -13122,7 +13345,7 @@
       <c r="I644" s="1"/>
       <c r="K644" s="9"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="7"/>
@@ -13134,7 +13357,7 @@
       <c r="I645" s="1"/>
       <c r="K645" s="9"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="7"/>
@@ -13146,7 +13369,7 @@
       <c r="I646" s="1"/>
       <c r="K646" s="9"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="7"/>
@@ -13158,7 +13381,7 @@
       <c r="I647" s="1"/>
       <c r="K647" s="9"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="7"/>
@@ -13170,7 +13393,7 @@
       <c r="I648" s="1"/>
       <c r="K648" s="9"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="7"/>
@@ -13182,7 +13405,7 @@
       <c r="I649" s="1"/>
       <c r="K649" s="9"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="7"/>
@@ -13194,7 +13417,7 @@
       <c r="I650" s="1"/>
       <c r="K650" s="9"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="7"/>
@@ -13206,7 +13429,7 @@
       <c r="I651" s="1"/>
       <c r="K651" s="9"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="7"/>
@@ -13218,7 +13441,7 @@
       <c r="I652" s="1"/>
       <c r="K652" s="9"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="7"/>
@@ -13230,7 +13453,7 @@
       <c r="I653" s="1"/>
       <c r="K653" s="9"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="7"/>
@@ -13242,7 +13465,7 @@
       <c r="I654" s="1"/>
       <c r="K654" s="9"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="7"/>
@@ -13254,7 +13477,7 @@
       <c r="I655" s="1"/>
       <c r="K655" s="9"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="7"/>
@@ -13266,7 +13489,7 @@
       <c r="I656" s="1"/>
       <c r="K656" s="9"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="7"/>
@@ -13278,7 +13501,7 @@
       <c r="I657" s="1"/>
       <c r="K657" s="9"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="7"/>
@@ -13290,7 +13513,7 @@
       <c r="I658" s="1"/>
       <c r="K658" s="9"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="7"/>
@@ -13302,7 +13525,7 @@
       <c r="I659" s="1"/>
       <c r="K659" s="9"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="7"/>
@@ -13314,7 +13537,7 @@
       <c r="I660" s="1"/>
       <c r="K660" s="9"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="7"/>
@@ -13326,7 +13549,7 @@
       <c r="I661" s="1"/>
       <c r="K661" s="9"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="7"/>
@@ -13338,7 +13561,7 @@
       <c r="I662" s="1"/>
       <c r="K662" s="9"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="7"/>
@@ -13350,7 +13573,7 @@
       <c r="I663" s="1"/>
       <c r="K663" s="9"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="7"/>
@@ -13362,7 +13585,7 @@
       <c r="I664" s="1"/>
       <c r="K664" s="9"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="7"/>
@@ -13374,7 +13597,7 @@
       <c r="I665" s="1"/>
       <c r="K665" s="9"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="7"/>
@@ -13386,7 +13609,7 @@
       <c r="I666" s="1"/>
       <c r="K666" s="9"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="7"/>
@@ -13398,7 +13621,7 @@
       <c r="I667" s="1"/>
       <c r="K667" s="9"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="7"/>
@@ -13410,7 +13633,7 @@
       <c r="I668" s="1"/>
       <c r="K668" s="9"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="7"/>
@@ -13422,7 +13645,7 @@
       <c r="I669" s="1"/>
       <c r="K669" s="9"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="7"/>
@@ -13434,7 +13657,7 @@
       <c r="I670" s="1"/>
       <c r="K670" s="9"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="7"/>
@@ -13446,7 +13669,7 @@
       <c r="I671" s="1"/>
       <c r="K671" s="9"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="7"/>
@@ -13458,7 +13681,7 @@
       <c r="I672" s="1"/>
       <c r="K672" s="9"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="7"/>
@@ -13470,7 +13693,7 @@
       <c r="I673" s="1"/>
       <c r="K673" s="9"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="7"/>
@@ -13482,7 +13705,7 @@
       <c r="I674" s="1"/>
       <c r="K674" s="9"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="7"/>
@@ -13494,7 +13717,7 @@
       <c r="I675" s="1"/>
       <c r="K675" s="9"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="7"/>
@@ -13506,7 +13729,7 @@
       <c r="I676" s="1"/>
       <c r="K676" s="9"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="7"/>
@@ -13518,7 +13741,7 @@
       <c r="I677" s="1"/>
       <c r="K677" s="9"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="7"/>
@@ -13530,7 +13753,7 @@
       <c r="I678" s="1"/>
       <c r="K678" s="9"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="7"/>
@@ -13542,7 +13765,7 @@
       <c r="I679" s="1"/>
       <c r="K679" s="9"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="7"/>
@@ -13554,7 +13777,7 @@
       <c r="I680" s="1"/>
       <c r="K680" s="9"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="7"/>
@@ -13566,7 +13789,7 @@
       <c r="I681" s="1"/>
       <c r="K681" s="9"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="7"/>
@@ -13578,7 +13801,7 @@
       <c r="I682" s="1"/>
       <c r="K682" s="9"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="7"/>
@@ -13590,7 +13813,7 @@
       <c r="I683" s="1"/>
       <c r="K683" s="9"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="7"/>
@@ -13602,7 +13825,7 @@
       <c r="I684" s="1"/>
       <c r="K684" s="9"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="7"/>
@@ -13614,7 +13837,7 @@
       <c r="I685" s="1"/>
       <c r="K685" s="9"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="7"/>
@@ -13626,7 +13849,7 @@
       <c r="I686" s="1"/>
       <c r="K686" s="9"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="7"/>
@@ -13638,7 +13861,7 @@
       <c r="I687" s="1"/>
       <c r="K687" s="9"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="7"/>
@@ -13650,7 +13873,7 @@
       <c r="I688" s="1"/>
       <c r="K688" s="9"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="7"/>
@@ -13662,7 +13885,7 @@
       <c r="I689" s="1"/>
       <c r="K689" s="9"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="7"/>
@@ -13674,7 +13897,7 @@
       <c r="I690" s="1"/>
       <c r="K690" s="9"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="7"/>
@@ -13686,7 +13909,7 @@
       <c r="I691" s="1"/>
       <c r="K691" s="9"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="7"/>
@@ -13698,7 +13921,7 @@
       <c r="I692" s="1"/>
       <c r="K692" s="9"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="7"/>
@@ -13710,7 +13933,7 @@
       <c r="I693" s="1"/>
       <c r="K693" s="9"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="7"/>
@@ -13722,7 +13945,7 @@
       <c r="I694" s="1"/>
       <c r="K694" s="9"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="7"/>
@@ -13734,7 +13957,7 @@
       <c r="I695" s="1"/>
       <c r="K695" s="9"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="7"/>
@@ -13746,7 +13969,7 @@
       <c r="I696" s="1"/>
       <c r="K696" s="9"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="7"/>
@@ -13758,7 +13981,7 @@
       <c r="I697" s="1"/>
       <c r="K697" s="9"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="7"/>
@@ -13770,7 +13993,7 @@
       <c r="I698" s="1"/>
       <c r="K698" s="9"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="7"/>
@@ -13782,7 +14005,7 @@
       <c r="I699" s="1"/>
       <c r="K699" s="9"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="7"/>
@@ -13794,7 +14017,7 @@
       <c r="I700" s="1"/>
       <c r="K700" s="9"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="7"/>
@@ -13806,7 +14029,7 @@
       <c r="I701" s="1"/>
       <c r="K701" s="9"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="7"/>
@@ -13818,7 +14041,7 @@
       <c r="I702" s="1"/>
       <c r="K702" s="9"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="7"/>
@@ -13830,7 +14053,7 @@
       <c r="I703" s="1"/>
       <c r="K703" s="9"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="7"/>
@@ -13842,7 +14065,7 @@
       <c r="I704" s="1"/>
       <c r="K704" s="9"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="7"/>
@@ -13854,7 +14077,7 @@
       <c r="I705" s="1"/>
       <c r="K705" s="9"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="7"/>
@@ -13866,7 +14089,7 @@
       <c r="I706" s="1"/>
       <c r="K706" s="9"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="7"/>
@@ -13878,7 +14101,7 @@
       <c r="I707" s="1"/>
       <c r="K707" s="9"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="7"/>
@@ -13890,7 +14113,7 @@
       <c r="I708" s="1"/>
       <c r="K708" s="9"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="7"/>
@@ -13902,7 +14125,7 @@
       <c r="I709" s="1"/>
       <c r="K709" s="9"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="7"/>
@@ -13914,7 +14137,7 @@
       <c r="I710" s="1"/>
       <c r="K710" s="9"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="7"/>
@@ -13926,7 +14149,7 @@
       <c r="I711" s="1"/>
       <c r="K711" s="9"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="7"/>
@@ -13938,7 +14161,7 @@
       <c r="I712" s="1"/>
       <c r="K712" s="9"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="7"/>
@@ -13950,7 +14173,7 @@
       <c r="I713" s="1"/>
       <c r="K713" s="9"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="7"/>
@@ -13962,7 +14185,7 @@
       <c r="I714" s="1"/>
       <c r="K714" s="9"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="7"/>
@@ -13974,7 +14197,7 @@
       <c r="I715" s="1"/>
       <c r="K715" s="9"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="7"/>
@@ -13986,7 +14209,7 @@
       <c r="I716" s="1"/>
       <c r="K716" s="9"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="7"/>
@@ -13998,7 +14221,7 @@
       <c r="I717" s="1"/>
       <c r="K717" s="9"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="7"/>
@@ -14010,7 +14233,7 @@
       <c r="I718" s="1"/>
       <c r="K718" s="9"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="7"/>
@@ -14022,7 +14245,7 @@
       <c r="I719" s="1"/>
       <c r="K719" s="9"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="7"/>
@@ -14034,7 +14257,7 @@
       <c r="I720" s="1"/>
       <c r="K720" s="9"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="7"/>
@@ -14046,7 +14269,7 @@
       <c r="I721" s="1"/>
       <c r="K721" s="9"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="7"/>
@@ -14058,7 +14281,7 @@
       <c r="I722" s="1"/>
       <c r="K722" s="9"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="7"/>
@@ -14070,7 +14293,7 @@
       <c r="I723" s="1"/>
       <c r="K723" s="9"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="7"/>
@@ -14082,7 +14305,7 @@
       <c r="I724" s="1"/>
       <c r="K724" s="9"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="7"/>
@@ -14094,7 +14317,7 @@
       <c r="I725" s="1"/>
       <c r="K725" s="9"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="7"/>
@@ -14106,7 +14329,7 @@
       <c r="I726" s="1"/>
       <c r="K726" s="9"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="7"/>
@@ -14118,7 +14341,7 @@
       <c r="I727" s="1"/>
       <c r="K727" s="9"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="7"/>
@@ -14130,7 +14353,7 @@
       <c r="I728" s="1"/>
       <c r="K728" s="9"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="7"/>
@@ -14142,7 +14365,7 @@
       <c r="I729" s="1"/>
       <c r="K729" s="9"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="7"/>
@@ -14154,7 +14377,7 @@
       <c r="I730" s="1"/>
       <c r="K730" s="9"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="7"/>
@@ -14166,7 +14389,7 @@
       <c r="I731" s="1"/>
       <c r="K731" s="9"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="7"/>
@@ -14178,7 +14401,7 @@
       <c r="I732" s="1"/>
       <c r="K732" s="9"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="7"/>
@@ -14190,7 +14413,7 @@
       <c r="I733" s="1"/>
       <c r="K733" s="9"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="7"/>
@@ -14202,7 +14425,7 @@
       <c r="I734" s="1"/>
       <c r="K734" s="9"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="7"/>
@@ -14214,7 +14437,7 @@
       <c r="I735" s="1"/>
       <c r="K735" s="9"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="7"/>
@@ -14226,7 +14449,7 @@
       <c r="I736" s="1"/>
       <c r="K736" s="9"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="7"/>
@@ -14238,7 +14461,7 @@
       <c r="I737" s="1"/>
       <c r="K737" s="9"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="7"/>
@@ -14250,7 +14473,7 @@
       <c r="I738" s="1"/>
       <c r="K738" s="9"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="7"/>
@@ -14262,7 +14485,7 @@
       <c r="I739" s="1"/>
       <c r="K739" s="9"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="7"/>
@@ -14274,7 +14497,7 @@
       <c r="I740" s="1"/>
       <c r="K740" s="9"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="7"/>
@@ -14286,7 +14509,7 @@
       <c r="I741" s="1"/>
       <c r="K741" s="9"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="7"/>
@@ -14298,7 +14521,7 @@
       <c r="I742" s="1"/>
       <c r="K742" s="9"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="7"/>
@@ -14310,7 +14533,7 @@
       <c r="I743" s="1"/>
       <c r="K743" s="9"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="7"/>
@@ -14322,7 +14545,7 @@
       <c r="I744" s="1"/>
       <c r="K744" s="9"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="7"/>
@@ -14334,7 +14557,7 @@
       <c r="I745" s="1"/>
       <c r="K745" s="9"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="7"/>
@@ -14346,7 +14569,7 @@
       <c r="I746" s="1"/>
       <c r="K746" s="9"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="7"/>
@@ -14358,7 +14581,7 @@
       <c r="I747" s="1"/>
       <c r="K747" s="9"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="7"/>
@@ -14370,7 +14593,7 @@
       <c r="I748" s="1"/>
       <c r="K748" s="9"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="7"/>
@@ -14382,7 +14605,7 @@
       <c r="I749" s="1"/>
       <c r="K749" s="9"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="7"/>
@@ -14394,7 +14617,7 @@
       <c r="I750" s="1"/>
       <c r="K750" s="9"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="7"/>
@@ -14406,7 +14629,7 @@
       <c r="I751" s="1"/>
       <c r="K751" s="9"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="7"/>
@@ -14418,7 +14641,7 @@
       <c r="I752" s="1"/>
       <c r="K752" s="9"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="7"/>
@@ -14430,7 +14653,7 @@
       <c r="I753" s="1"/>
       <c r="K753" s="9"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="7"/>
@@ -14442,7 +14665,7 @@
       <c r="I754" s="1"/>
       <c r="K754" s="9"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="7"/>
@@ -14454,7 +14677,7 @@
       <c r="I755" s="1"/>
       <c r="K755" s="9"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="7"/>
@@ -14466,7 +14689,7 @@
       <c r="I756" s="1"/>
       <c r="K756" s="9"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="7"/>
@@ -14477,7 +14700,7 @@
       <c r="H757" s="1"/>
       <c r="I757" s="1"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="7"/>
@@ -14488,7 +14711,7 @@
       <c r="H758" s="1"/>
       <c r="I758" s="1"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="7"/>
@@ -14499,7 +14722,7 @@
       <c r="H759" s="1"/>
       <c r="I759" s="1"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="7"/>
@@ -14510,7 +14733,7 @@
       <c r="H760" s="1"/>
       <c r="I760" s="1"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="7"/>
@@ -14521,7 +14744,7 @@
       <c r="H761" s="1"/>
       <c r="I761" s="1"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="7"/>
@@ -14532,7 +14755,7 @@
       <c r="H762" s="1"/>
       <c r="I762" s="1"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="7"/>
@@ -14543,7 +14766,7 @@
       <c r="H763" s="1"/>
       <c r="I763" s="1"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="7"/>
@@ -14554,7 +14777,7 @@
       <c r="H764" s="1"/>
       <c r="I764" s="1"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="7"/>
@@ -14565,7 +14788,7 @@
       <c r="H765" s="1"/>
       <c r="I765" s="1"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="7"/>
@@ -14576,7 +14799,7 @@
       <c r="H766" s="1"/>
       <c r="I766" s="1"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="7"/>
@@ -14587,7 +14810,7 @@
       <c r="H767" s="1"/>
       <c r="I767" s="1"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="7"/>
@@ -14598,7 +14821,7 @@
       <c r="H768" s="1"/>
       <c r="I768" s="1"/>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="7"/>
@@ -14609,7 +14832,7 @@
       <c r="H769" s="1"/>
       <c r="I769" s="1"/>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="7"/>
@@ -14620,7 +14843,7 @@
       <c r="H770" s="1"/>
       <c r="I770" s="1"/>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="7"/>
@@ -14631,7 +14854,7 @@
       <c r="H771" s="1"/>
       <c r="I771" s="1"/>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="7"/>
@@ -14642,7 +14865,7 @@
       <c r="H772" s="1"/>
       <c r="I772" s="1"/>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="7"/>
@@ -14653,7 +14876,7 @@
       <c r="H773" s="1"/>
       <c r="I773" s="1"/>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="7"/>
@@ -14664,7 +14887,7 @@
       <c r="H774" s="1"/>
       <c r="I774" s="1"/>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="7"/>
@@ -14675,7 +14898,7 @@
       <c r="H775" s="1"/>
       <c r="I775" s="1"/>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="7"/>
@@ -14686,7 +14909,7 @@
       <c r="H776" s="1"/>
       <c r="I776" s="1"/>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="7"/>
@@ -14697,7 +14920,7 @@
       <c r="H777" s="1"/>
       <c r="I777" s="1"/>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="7"/>
@@ -14708,7 +14931,7 @@
       <c r="H778" s="1"/>
       <c r="I778" s="1"/>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="7"/>
@@ -14719,7 +14942,7 @@
       <c r="H779" s="1"/>
       <c r="I779" s="1"/>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="7"/>
@@ -14730,7 +14953,7 @@
       <c r="H780" s="1"/>
       <c r="I780" s="1"/>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="7"/>
@@ -14741,7 +14964,7 @@
       <c r="H781" s="1"/>
       <c r="I781" s="1"/>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="7"/>
@@ -14752,7 +14975,7 @@
       <c r="H782" s="1"/>
       <c r="I782" s="1"/>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="7"/>
@@ -14763,7 +14986,7 @@
       <c r="H783" s="1"/>
       <c r="I783" s="1"/>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="7"/>
@@ -14774,7 +14997,7 @@
       <c r="H784" s="1"/>
       <c r="I784" s="1"/>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="7"/>
@@ -14785,7 +15008,7 @@
       <c r="H785" s="1"/>
       <c r="I785" s="1"/>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="7"/>
@@ -14796,7 +15019,7 @@
       <c r="H786" s="1"/>
       <c r="I786" s="1"/>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="7"/>
@@ -14807,7 +15030,7 @@
       <c r="H787" s="1"/>
       <c r="I787" s="1"/>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="7"/>
@@ -14818,7 +15041,7 @@
       <c r="H788" s="1"/>
       <c r="I788" s="1"/>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="7"/>
@@ -14829,7 +15052,7 @@
       <c r="H789" s="1"/>
       <c r="I789" s="1"/>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="7"/>
@@ -14840,7 +15063,7 @@
       <c r="H790" s="1"/>
       <c r="I790" s="1"/>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="7"/>
@@ -14851,7 +15074,7 @@
       <c r="H791" s="1"/>
       <c r="I791" s="1"/>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="7"/>
@@ -14862,7 +15085,7 @@
       <c r="H792" s="1"/>
       <c r="I792" s="1"/>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="7"/>
@@ -14873,7 +15096,7 @@
       <c r="H793" s="1"/>
       <c r="I793" s="1"/>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="7"/>
@@ -14884,7 +15107,7 @@
       <c r="H794" s="1"/>
       <c r="I794" s="1"/>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="7"/>
@@ -14895,7 +15118,7 @@
       <c r="H795" s="1"/>
       <c r="I795" s="1"/>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="7"/>
@@ -14906,7 +15129,7 @@
       <c r="H796" s="1"/>
       <c r="I796" s="1"/>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="7"/>
@@ -14917,7 +15140,7 @@
       <c r="H797" s="1"/>
       <c r="I797" s="1"/>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="7"/>
@@ -14928,7 +15151,7 @@
       <c r="H798" s="1"/>
       <c r="I798" s="1"/>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="7"/>
@@ -14939,7 +15162,7 @@
       <c r="H799" s="1"/>
       <c r="I799" s="1"/>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="7"/>
@@ -14950,7 +15173,7 @@
       <c r="H800" s="1"/>
       <c r="I800" s="1"/>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="7"/>
@@ -14961,7 +15184,7 @@
       <c r="H801" s="1"/>
       <c r="I801" s="1"/>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="7"/>
@@ -14972,7 +15195,7 @@
       <c r="H802" s="1"/>
       <c r="I802" s="1"/>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="7"/>
@@ -14983,7 +15206,7 @@
       <c r="H803" s="1"/>
       <c r="I803" s="1"/>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="7"/>
@@ -14994,7 +15217,7 @@
       <c r="H804" s="1"/>
       <c r="I804" s="1"/>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="7"/>
@@ -15005,7 +15228,7 @@
       <c r="H805" s="1"/>
       <c r="I805" s="1"/>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="7"/>
@@ -15016,7 +15239,7 @@
       <c r="H806" s="1"/>
       <c r="I806" s="1"/>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="7"/>
@@ -15027,7 +15250,7 @@
       <c r="H807" s="1"/>
       <c r="I807" s="1"/>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="7"/>
@@ -15038,7 +15261,7 @@
       <c r="H808" s="1"/>
       <c r="I808" s="1"/>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="7"/>
@@ -15049,7 +15272,7 @@
       <c r="H809" s="1"/>
       <c r="I809" s="1"/>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="7"/>
@@ -15060,7 +15283,7 @@
       <c r="H810" s="1"/>
       <c r="I810" s="1"/>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="7"/>
@@ -15071,7 +15294,7 @@
       <c r="H811" s="1"/>
       <c r="I811" s="1"/>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="7"/>
@@ -15082,7 +15305,7 @@
       <c r="H812" s="1"/>
       <c r="I812" s="1"/>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="7"/>
@@ -15093,7 +15316,7 @@
       <c r="H813" s="1"/>
       <c r="I813" s="1"/>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="7"/>
@@ -15104,7 +15327,7 @@
       <c r="H814" s="1"/>
       <c r="I814" s="1"/>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="7"/>
@@ -15115,7 +15338,7 @@
       <c r="H815" s="1"/>
       <c r="I815" s="1"/>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="7"/>
@@ -15126,7 +15349,7 @@
       <c r="H816" s="1"/>
       <c r="I816" s="1"/>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="7"/>
@@ -15137,7 +15360,7 @@
       <c r="H817" s="1"/>
       <c r="I817" s="1"/>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="7"/>
@@ -15148,7 +15371,7 @@
       <c r="H818" s="1"/>
       <c r="I818" s="1"/>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="7"/>
@@ -15159,7 +15382,7 @@
       <c r="H819" s="1"/>
       <c r="I819" s="1"/>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="7"/>
@@ -15170,7 +15393,7 @@
       <c r="H820" s="1"/>
       <c r="I820" s="1"/>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="7"/>
@@ -15181,7 +15404,7 @@
       <c r="H821" s="1"/>
       <c r="I821" s="1"/>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
       <c r="C822" s="7"/>
@@ -15192,7 +15415,7 @@
       <c r="H822" s="1"/>
       <c r="I822" s="1"/>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="7"/>
@@ -15203,7 +15426,7 @@
       <c r="H823" s="1"/>
       <c r="I823" s="1"/>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="7"/>
@@ -15214,7 +15437,7 @@
       <c r="H824" s="1"/>
       <c r="I824" s="1"/>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="7"/>
@@ -15225,7 +15448,7 @@
       <c r="H825" s="1"/>
       <c r="I825" s="1"/>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
       <c r="C826" s="7"/>
@@ -15236,7 +15459,7 @@
       <c r="H826" s="1"/>
       <c r="I826" s="1"/>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="7"/>
@@ -15247,7 +15470,7 @@
       <c r="H827" s="1"/>
       <c r="I827" s="1"/>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
       <c r="C828" s="7"/>
@@ -15258,7 +15481,7 @@
       <c r="H828" s="1"/>
       <c r="I828" s="1"/>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="7"/>
@@ -15269,7 +15492,7 @@
       <c r="H829" s="1"/>
       <c r="I829" s="1"/>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
       <c r="C830" s="7"/>
@@ -15280,7 +15503,7 @@
       <c r="H830" s="1"/>
       <c r="I830" s="1"/>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="7"/>
@@ -15291,7 +15514,7 @@
       <c r="H831" s="1"/>
       <c r="I831" s="1"/>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
       <c r="C832" s="7"/>
@@ -15302,7 +15525,7 @@
       <c r="H832" s="1"/>
       <c r="I832" s="1"/>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="7"/>
@@ -15313,7 +15536,7 @@
       <c r="H833" s="1"/>
       <c r="I833" s="1"/>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
       <c r="C834" s="7"/>
@@ -15324,7 +15547,7 @@
       <c r="H834" s="1"/>
       <c r="I834" s="1"/>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="7"/>
@@ -15335,7 +15558,7 @@
       <c r="H835" s="1"/>
       <c r="I835" s="1"/>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
       <c r="C836" s="7"/>
@@ -15346,7 +15569,7 @@
       <c r="H836" s="1"/>
       <c r="I836" s="1"/>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="7"/>
@@ -15357,7 +15580,7 @@
       <c r="H837" s="1"/>
       <c r="I837" s="1"/>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
       <c r="C838" s="7"/>
@@ -15368,7 +15591,7 @@
       <c r="H838" s="1"/>
       <c r="I838" s="1"/>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="7"/>
@@ -15379,7 +15602,7 @@
       <c r="H839" s="1"/>
       <c r="I839" s="1"/>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
       <c r="C840" s="7"/>
@@ -15390,7 +15613,7 @@
       <c r="H840" s="1"/>
       <c r="I840" s="1"/>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B841" s="6"/>
       <c r="C841" s="7"/>
       <c r="E841" s="1"/>
@@ -15399,7 +15622,7 @@
       <c r="H841" s="1"/>
       <c r="I841" s="1"/>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B842" s="6"/>
       <c r="C842" s="7"/>
       <c r="E842" s="1"/>
@@ -15408,7 +15631,7 @@
       <c r="H842" s="1"/>
       <c r="I842" s="1"/>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B843" s="6"/>
       <c r="C843" s="7"/>
       <c r="E843" s="1"/>
@@ -15417,7 +15640,7 @@
       <c r="H843" s="1"/>
       <c r="I843" s="1"/>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B844" s="6"/>
       <c r="C844" s="7"/>
       <c r="E844" s="1"/>
@@ -15426,7 +15649,7 @@
       <c r="H844" s="1"/>
       <c r="I844" s="1"/>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B845" s="6"/>
       <c r="C845" s="7"/>
       <c r="E845" s="1"/>
@@ -15435,7 +15658,7 @@
       <c r="H845" s="1"/>
       <c r="I845" s="1"/>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B846" s="6"/>
       <c r="C846" s="7"/>
       <c r="E846" s="1"/>
@@ -15444,7 +15667,7 @@
       <c r="H846" s="1"/>
       <c r="I846" s="1"/>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B847" s="6"/>
       <c r="C847" s="7"/>
       <c r="E847" s="1"/>
@@ -15453,7 +15676,7 @@
       <c r="H847" s="1"/>
       <c r="I847" s="1"/>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B848" s="6"/>
       <c r="C848" s="7"/>
       <c r="E848" s="1"/>
@@ -15462,7 +15685,7 @@
       <c r="H848" s="1"/>
       <c r="I848" s="1"/>
     </row>
-    <row r="849" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B849" s="6"/>
       <c r="C849" s="7"/>
       <c r="E849" s="1"/>
@@ -15471,7 +15694,7 @@
       <c r="H849" s="1"/>
       <c r="I849" s="1"/>
     </row>
-    <row r="850" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B850" s="6"/>
       <c r="C850" s="7"/>
       <c r="E850" s="1"/>
@@ -15480,7 +15703,7 @@
       <c r="H850" s="1"/>
       <c r="I850" s="1"/>
     </row>
-    <row r="851" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B851" s="6"/>
       <c r="C851" s="7"/>
       <c r="E851" s="1"/>
@@ -15489,7 +15712,7 @@
       <c r="H851" s="1"/>
       <c r="I851" s="1"/>
     </row>
-    <row r="852" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B852" s="6"/>
       <c r="C852" s="7"/>
       <c r="E852" s="1"/>
@@ -15498,7 +15721,7 @@
       <c r="H852" s="1"/>
       <c r="I852" s="1"/>
     </row>
-    <row r="853" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B853" s="6"/>
       <c r="C853" s="7"/>
       <c r="E853" s="1"/>
@@ -15507,7 +15730,7 @@
       <c r="H853" s="1"/>
       <c r="I853" s="1"/>
     </row>
-    <row r="854" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B854" s="6"/>
       <c r="C854" s="7"/>
       <c r="E854" s="1"/>
@@ -15516,7 +15739,7 @@
       <c r="H854" s="1"/>
       <c r="I854" s="1"/>
     </row>
-    <row r="855" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B855" s="6"/>
       <c r="C855" s="7"/>
       <c r="E855" s="1"/>
@@ -15525,7 +15748,7 @@
       <c r="H855" s="1"/>
       <c r="I855" s="1"/>
     </row>
-    <row r="856" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B856" s="6"/>
       <c r="C856" s="7"/>
       <c r="E856" s="1"/>
@@ -15534,7 +15757,7 @@
       <c r="H856" s="1"/>
       <c r="I856" s="1"/>
     </row>
-    <row r="857" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B857" s="6"/>
       <c r="C857" s="7"/>
       <c r="E857" s="1"/>
@@ -15543,7 +15766,7 @@
       <c r="H857" s="1"/>
       <c r="I857" s="1"/>
     </row>
-    <row r="858" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B858" s="6"/>
       <c r="C858" s="7"/>
       <c r="E858" s="1"/>
@@ -15552,7 +15775,7 @@
       <c r="H858" s="1"/>
       <c r="I858" s="1"/>
     </row>
-    <row r="859" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B859" s="6"/>
       <c r="C859" s="7"/>
       <c r="E859" s="1"/>
@@ -15561,7 +15784,7 @@
       <c r="H859" s="1"/>
       <c r="I859" s="1"/>
     </row>
-    <row r="860" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B860" s="6"/>
       <c r="C860" s="7"/>
       <c r="E860" s="1"/>
@@ -15570,7 +15793,7 @@
       <c r="H860" s="1"/>
       <c r="I860" s="1"/>
     </row>
-    <row r="861" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B861" s="6"/>
       <c r="C861" s="7"/>
       <c r="E861" s="1"/>
@@ -15579,7 +15802,7 @@
       <c r="H861" s="1"/>
       <c r="I861" s="1"/>
     </row>
-    <row r="862" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B862" s="6"/>
       <c r="C862" s="7"/>
       <c r="E862" s="1"/>
@@ -15588,7 +15811,7 @@
       <c r="H862" s="1"/>
       <c r="I862" s="1"/>
     </row>
-    <row r="863" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B863" s="6"/>
       <c r="C863" s="7"/>
       <c r="E863" s="1"/>
@@ -15597,7 +15820,7 @@
       <c r="H863" s="1"/>
       <c r="I863" s="1"/>
     </row>
-    <row r="864" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B864" s="6"/>
       <c r="C864" s="7"/>
       <c r="E864" s="1"/>
@@ -15606,7 +15829,7 @@
       <c r="H864" s="1"/>
       <c r="I864" s="1"/>
     </row>
-    <row r="865" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B865" s="6"/>
       <c r="C865" s="7"/>
       <c r="E865" s="1"/>
@@ -15615,7 +15838,7 @@
       <c r="H865" s="1"/>
       <c r="I865" s="1"/>
     </row>
-    <row r="866" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B866" s="6"/>
       <c r="C866" s="7"/>
       <c r="E866" s="1"/>
@@ -15624,7 +15847,7 @@
       <c r="H866" s="1"/>
       <c r="I866" s="1"/>
     </row>
-    <row r="867" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B867" s="6"/>
       <c r="C867" s="7"/>
       <c r="E867" s="1"/>
@@ -15633,7 +15856,7 @@
       <c r="H867" s="1"/>
       <c r="I867" s="1"/>
     </row>
-    <row r="868" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B868" s="6"/>
       <c r="C868" s="7"/>
       <c r="E868" s="1"/>
@@ -15642,7 +15865,7 @@
       <c r="H868" s="1"/>
       <c r="I868" s="1"/>
     </row>
-    <row r="869" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B869" s="6"/>
       <c r="C869" s="7"/>
       <c r="E869" s="1"/>
@@ -15651,7 +15874,7 @@
       <c r="H869" s="1"/>
       <c r="I869" s="1"/>
     </row>
-    <row r="870" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B870" s="6"/>
       <c r="C870" s="7"/>
       <c r="E870" s="1"/>
@@ -15660,7 +15883,7 @@
       <c r="H870" s="1"/>
       <c r="I870" s="1"/>
     </row>
-    <row r="871" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B871" s="6"/>
       <c r="C871" s="7"/>
       <c r="E871" s="1"/>
@@ -15669,7 +15892,7 @@
       <c r="H871" s="1"/>
       <c r="I871" s="1"/>
     </row>
-    <row r="872" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B872" s="6"/>
       <c r="C872" s="7"/>
       <c r="E872" s="1"/>
@@ -15678,7 +15901,7 @@
       <c r="H872" s="1"/>
       <c r="I872" s="1"/>
     </row>
-    <row r="873" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B873" s="6"/>
       <c r="C873" s="7"/>
       <c r="E873" s="1"/>
@@ -15687,7 +15910,7 @@
       <c r="H873" s="1"/>
       <c r="I873" s="1"/>
     </row>
-    <row r="874" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B874" s="6"/>
       <c r="C874" s="7"/>
       <c r="E874" s="1"/>
@@ -15696,7 +15919,7 @@
       <c r="H874" s="1"/>
       <c r="I874" s="1"/>
     </row>
-    <row r="875" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B875" s="6"/>
       <c r="C875" s="7"/>
       <c r="E875" s="1"/>
@@ -15705,7 +15928,7 @@
       <c r="H875" s="1"/>
       <c r="I875" s="1"/>
     </row>
-    <row r="876" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B876" s="6"/>
       <c r="C876" s="7"/>
       <c r="E876" s="1"/>
@@ -15714,7 +15937,7 @@
       <c r="H876" s="1"/>
       <c r="I876" s="1"/>
     </row>
-    <row r="877" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B877" s="6"/>
       <c r="C877" s="7"/>
       <c r="E877" s="1"/>
@@ -15723,7 +15946,7 @@
       <c r="H877" s="1"/>
       <c r="I877" s="1"/>
     </row>
-    <row r="878" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B878" s="6"/>
       <c r="C878" s="7"/>
       <c r="E878" s="1"/>
@@ -15732,7 +15955,7 @@
       <c r="H878" s="1"/>
       <c r="I878" s="1"/>
     </row>
-    <row r="879" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B879" s="6"/>
       <c r="C879" s="7"/>
       <c r="E879" s="1"/>
@@ -15741,7 +15964,7 @@
       <c r="H879" s="1"/>
       <c r="I879" s="1"/>
     </row>
-    <row r="880" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B880" s="6"/>
       <c r="C880" s="7"/>
       <c r="E880" s="1"/>
@@ -15750,7 +15973,7 @@
       <c r="H880" s="1"/>
       <c r="I880" s="1"/>
     </row>
-    <row r="881" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B881" s="6"/>
       <c r="C881" s="7"/>
       <c r="E881" s="1"/>
@@ -15759,7 +15982,7 @@
       <c r="H881" s="1"/>
       <c r="I881" s="1"/>
     </row>
-    <row r="882" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B882" s="6"/>
       <c r="C882" s="7"/>
       <c r="E882" s="1"/>
@@ -15768,7 +15991,7 @@
       <c r="H882" s="1"/>
       <c r="I882" s="1"/>
     </row>
-    <row r="883" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B883" s="6"/>
       <c r="C883" s="7"/>
       <c r="E883" s="1"/>
@@ -15777,7 +16000,7 @@
       <c r="H883" s="1"/>
       <c r="I883" s="1"/>
     </row>
-    <row r="884" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B884" s="6"/>
       <c r="C884" s="7"/>
       <c r="E884" s="1"/>
@@ -15786,7 +16009,7 @@
       <c r="H884" s="1"/>
       <c r="I884" s="1"/>
     </row>
-    <row r="885" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B885" s="6"/>
       <c r="C885" s="7"/>
       <c r="E885" s="1"/>
@@ -15795,7 +16018,7 @@
       <c r="H885" s="1"/>
       <c r="I885" s="1"/>
     </row>
-    <row r="886" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B886" s="6"/>
       <c r="C886" s="7"/>
       <c r="E886" s="1"/>
@@ -15804,7 +16027,7 @@
       <c r="H886" s="1"/>
       <c r="I886" s="1"/>
     </row>
-    <row r="887" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B887" s="6"/>
       <c r="C887" s="7"/>
       <c r="E887" s="1"/>
@@ -15813,7 +16036,7 @@
       <c r="H887" s="1"/>
       <c r="I887" s="1"/>
     </row>
-    <row r="888" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B888" s="6"/>
       <c r="C888" s="7"/>
       <c r="E888" s="1"/>
@@ -15822,7 +16045,7 @@
       <c r="H888" s="1"/>
       <c r="I888" s="1"/>
     </row>
-    <row r="889" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B889" s="6"/>
       <c r="C889" s="7"/>
       <c r="E889" s="1"/>
@@ -15831,7 +16054,7 @@
       <c r="H889" s="1"/>
       <c r="I889" s="1"/>
     </row>
-    <row r="890" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B890" s="6"/>
       <c r="C890" s="7"/>
       <c r="E890" s="1"/>
@@ -15840,7 +16063,7 @@
       <c r="H890" s="1"/>
       <c r="I890" s="1"/>
     </row>
-    <row r="891" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B891" s="6"/>
       <c r="C891" s="7"/>
       <c r="E891" s="1"/>
@@ -15849,7 +16072,7 @@
       <c r="H891" s="1"/>
       <c r="I891" s="1"/>
     </row>
-    <row r="892" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B892" s="6"/>
       <c r="C892" s="7"/>
       <c r="E892" s="1"/>
@@ -15858,7 +16081,7 @@
       <c r="H892" s="1"/>
       <c r="I892" s="1"/>
     </row>
-    <row r="893" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B893" s="6"/>
       <c r="C893" s="7"/>
       <c r="E893" s="1"/>
@@ -15867,7 +16090,7 @@
       <c r="H893" s="1"/>
       <c r="I893" s="1"/>
     </row>
-    <row r="894" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B894" s="6"/>
       <c r="C894" s="7"/>
       <c r="E894" s="1"/>
@@ -15876,7 +16099,7 @@
       <c r="H894" s="1"/>
       <c r="I894" s="1"/>
     </row>
-    <row r="895" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B895" s="6"/>
       <c r="C895" s="7"/>
       <c r="E895" s="1"/>
@@ -15885,7 +16108,7 @@
       <c r="H895" s="1"/>
       <c r="I895" s="1"/>
     </row>
-    <row r="896" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B896" s="6"/>
       <c r="C896" s="7"/>
       <c r="E896" s="1"/>
@@ -15894,7 +16117,7 @@
       <c r="H896" s="1"/>
       <c r="I896" s="1"/>
     </row>
-    <row r="897" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B897" s="6"/>
       <c r="C897" s="7"/>
       <c r="E897" s="1"/>
@@ -15903,7 +16126,7 @@
       <c r="H897" s="1"/>
       <c r="I897" s="1"/>
     </row>
-    <row r="898" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B898" s="6"/>
       <c r="C898" s="7"/>
       <c r="E898" s="1"/>
@@ -15912,7 +16135,7 @@
       <c r="H898" s="1"/>
       <c r="I898" s="1"/>
     </row>
-    <row r="899" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B899" s="6"/>
       <c r="C899" s="7"/>
       <c r="E899" s="1"/>
@@ -15921,7 +16144,7 @@
       <c r="H899" s="1"/>
       <c r="I899" s="1"/>
     </row>
-    <row r="900" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B900" s="6"/>
       <c r="C900" s="7"/>
       <c r="E900" s="1"/>
@@ -15930,7 +16153,7 @@
       <c r="H900" s="1"/>
       <c r="I900" s="1"/>
     </row>
-    <row r="901" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B901" s="6"/>
       <c r="C901" s="7"/>
       <c r="E901" s="1"/>
@@ -15939,7 +16162,7 @@
       <c r="H901" s="1"/>
       <c r="I901" s="1"/>
     </row>
-    <row r="902" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B902" s="6"/>
       <c r="C902" s="7"/>
       <c r="E902" s="1"/>
@@ -15948,7 +16171,7 @@
       <c r="H902" s="1"/>
       <c r="I902" s="1"/>
     </row>
-    <row r="903" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B903" s="6"/>
       <c r="C903" s="7"/>
       <c r="E903" s="1"/>
@@ -15957,7 +16180,7 @@
       <c r="H903" s="1"/>
       <c r="I903" s="1"/>
     </row>
-    <row r="904" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B904" s="6"/>
       <c r="C904" s="7"/>
       <c r="E904" s="1"/>
@@ -15966,7 +16189,7 @@
       <c r="H904" s="1"/>
       <c r="I904" s="1"/>
     </row>
-    <row r="905" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B905" s="6"/>
       <c r="C905" s="7"/>
       <c r="E905" s="1"/>
@@ -15975,7 +16198,7 @@
       <c r="H905" s="1"/>
       <c r="I905" s="1"/>
     </row>
-    <row r="906" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B906" s="6"/>
       <c r="C906" s="7"/>
       <c r="E906" s="1"/>
@@ -15984,7 +16207,7 @@
       <c r="H906" s="1"/>
       <c r="I906" s="1"/>
     </row>
-    <row r="907" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B907" s="6"/>
       <c r="C907" s="7"/>
       <c r="E907" s="1"/>
@@ -15993,7 +16216,7 @@
       <c r="H907" s="1"/>
       <c r="I907" s="1"/>
     </row>
-    <row r="908" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B908" s="6"/>
       <c r="C908" s="7"/>
       <c r="E908" s="1"/>
@@ -16002,7 +16225,7 @@
       <c r="H908" s="1"/>
       <c r="I908" s="1"/>
     </row>
-    <row r="909" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B909" s="6"/>
       <c r="C909" s="7"/>
       <c r="E909" s="1"/>
@@ -16011,7 +16234,7 @@
       <c r="H909" s="1"/>
       <c r="I909" s="1"/>
     </row>
-    <row r="910" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B910" s="6"/>
       <c r="C910" s="7"/>
       <c r="E910" s="1"/>
@@ -16020,7 +16243,7 @@
       <c r="H910" s="1"/>
       <c r="I910" s="1"/>
     </row>
-    <row r="911" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B911" s="6"/>
       <c r="C911" s="7"/>
       <c r="E911" s="1"/>
@@ -16029,7 +16252,7 @@
       <c r="H911" s="1"/>
       <c r="I911" s="1"/>
     </row>
-    <row r="912" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B912" s="6"/>
       <c r="C912" s="7"/>
       <c r="E912" s="1"/>
@@ -16038,7 +16261,7 @@
       <c r="H912" s="1"/>
       <c r="I912" s="1"/>
     </row>
-    <row r="913" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B913" s="6"/>
       <c r="C913" s="7"/>
       <c r="E913" s="1"/>
@@ -16047,7 +16270,7 @@
       <c r="H913" s="1"/>
       <c r="I913" s="1"/>
     </row>
-    <row r="914" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B914" s="6"/>
       <c r="C914" s="7"/>
       <c r="E914" s="1"/>
@@ -16056,7 +16279,7 @@
       <c r="H914" s="1"/>
       <c r="I914" s="1"/>
     </row>
-    <row r="915" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B915" s="6"/>
       <c r="C915" s="7"/>
       <c r="E915" s="1"/>
@@ -16065,7 +16288,7 @@
       <c r="H915" s="1"/>
       <c r="I915" s="1"/>
     </row>
-    <row r="916" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B916" s="6"/>
       <c r="C916" s="7"/>
       <c r="E916" s="1"/>
@@ -16074,7 +16297,7 @@
       <c r="H916" s="1"/>
       <c r="I916" s="1"/>
     </row>
-    <row r="917" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B917" s="6"/>
       <c r="C917" s="7"/>
       <c r="E917" s="1"/>
@@ -16083,7 +16306,7 @@
       <c r="H917" s="1"/>
       <c r="I917" s="1"/>
     </row>
-    <row r="918" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B918" s="6"/>
       <c r="C918" s="7"/>
       <c r="E918" s="1"/>
@@ -16092,7 +16315,7 @@
       <c r="H918" s="1"/>
       <c r="I918" s="1"/>
     </row>
-    <row r="919" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B919" s="6"/>
       <c r="C919" s="7"/>
       <c r="E919" s="1"/>
@@ -16101,7 +16324,7 @@
       <c r="H919" s="1"/>
       <c r="I919" s="1"/>
     </row>
-    <row r="920" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B920" s="6"/>
       <c r="C920" s="7"/>
       <c r="E920" s="1"/>
@@ -16110,7 +16333,7 @@
       <c r="H920" s="1"/>
       <c r="I920" s="1"/>
     </row>
-    <row r="921" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B921" s="6"/>
       <c r="C921" s="7"/>
       <c r="E921" s="1"/>
@@ -16119,7 +16342,7 @@
       <c r="H921" s="1"/>
       <c r="I921" s="1"/>
     </row>
-    <row r="922" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B922" s="6"/>
       <c r="C922" s="7"/>
       <c r="E922" s="1"/>
@@ -16128,7 +16351,7 @@
       <c r="H922" s="1"/>
       <c r="I922" s="1"/>
     </row>
-    <row r="923" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B923" s="6"/>
       <c r="C923" s="7"/>
       <c r="E923" s="1"/>
@@ -16137,7 +16360,7 @@
       <c r="H923" s="1"/>
       <c r="I923" s="1"/>
     </row>
-    <row r="924" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B924" s="6"/>
       <c r="C924" s="7"/>
       <c r="E924" s="1"/>
@@ -16146,7 +16369,7 @@
       <c r="H924" s="1"/>
       <c r="I924" s="1"/>
     </row>
-    <row r="925" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B925" s="6"/>
       <c r="C925" s="7"/>
       <c r="E925" s="1"/>
@@ -16155,7 +16378,7 @@
       <c r="H925" s="1"/>
       <c r="I925" s="1"/>
     </row>
-    <row r="926" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B926" s="6"/>
       <c r="C926" s="7"/>
       <c r="E926" s="1"/>
@@ -16164,7 +16387,7 @@
       <c r="H926" s="1"/>
       <c r="I926" s="1"/>
     </row>
-    <row r="927" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B927" s="6"/>
       <c r="C927" s="7"/>
       <c r="E927" s="1"/>
@@ -16173,7 +16396,7 @@
       <c r="H927" s="1"/>
       <c r="I927" s="1"/>
     </row>
-    <row r="928" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B928" s="6"/>
       <c r="C928" s="7"/>
       <c r="E928" s="1"/>
@@ -16182,7 +16405,7 @@
       <c r="H928" s="1"/>
       <c r="I928" s="1"/>
     </row>
-    <row r="929" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B929" s="6"/>
       <c r="C929" s="7"/>
       <c r="E929" s="1"/>
@@ -16191,7 +16414,7 @@
       <c r="H929" s="1"/>
       <c r="I929" s="1"/>
     </row>
-    <row r="930" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B930" s="6"/>
       <c r="C930" s="7"/>
       <c r="E930" s="1"/>
@@ -16200,7 +16423,7 @@
       <c r="H930" s="1"/>
       <c r="I930" s="1"/>
     </row>
-    <row r="931" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B931" s="6"/>
       <c r="C931" s="7"/>
       <c r="E931" s="1"/>
@@ -16209,7 +16432,7 @@
       <c r="H931" s="1"/>
       <c r="I931" s="1"/>
     </row>
-    <row r="932" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B932" s="6"/>
       <c r="C932" s="7"/>
       <c r="E932" s="1"/>
@@ -16218,7 +16441,7 @@
       <c r="H932" s="1"/>
       <c r="I932" s="1"/>
     </row>
-    <row r="933" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B933" s="6"/>
       <c r="C933" s="7"/>
       <c r="E933" s="1"/>
@@ -16227,7 +16450,7 @@
       <c r="H933" s="1"/>
       <c r="I933" s="1"/>
     </row>
-    <row r="934" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B934" s="6"/>
       <c r="C934" s="7"/>
       <c r="E934" s="1"/>
@@ -16236,7 +16459,7 @@
       <c r="H934" s="1"/>
       <c r="I934" s="1"/>
     </row>
-    <row r="935" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B935" s="6"/>
       <c r="C935" s="7"/>
       <c r="E935" s="1"/>

--- a/data/spike.xlsx
+++ b/data/spike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phbro\Desktop\DOCUMENTS\ActuRank\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECFB36F-9557-4747-BDA0-6A017998ACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC6FA50-B278-46E4-BB28-CE0C6C8B6473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="65">
   <si>
     <t>players</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>22/10/2024</t>
+  </si>
+  <si>
+    <t>31/10/2024</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <dimension ref="A1:O935"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3369,7 +3372,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" ref="E68:E85" si="2">IF(F68&gt;G68,1,0)</f>
+        <f t="shared" ref="E68:E94" si="2">IF(F68&gt;G68,1,0)</f>
         <v>1</v>
       </c>
       <c r="F68" s="5">
@@ -3386,7 +3389,7 @@
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="9" t="str">
-        <f t="shared" ref="K68:K85" si="3">IF(OR(OR(AND(OR(A68=B68,A68=C68,A68=D68,B68=C68,B68=D68,C68=D68),OR(A68&lt;&gt;"",D68&lt;&gt;"")),H68&gt;MAX(F68:G68),B68=C68),OR(AND(ISBLANK(A68)=FALSE,ISNA(VLOOKUP(A68,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B68,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C68,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D68)=FALSE,ISNA(VLOOKUP(D68,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A68:D68)=1,COUNTBLANK(A68:D68)=3))),"ERREUR","")</f>
+        <f t="shared" ref="K68:K94" si="3">IF(OR(OR(AND(OR(A68=B68,A68=C68,A68=D68,B68=C68,B68=D68,C68=D68),OR(A68&lt;&gt;"",D68&lt;&gt;"")),H68&gt;MAX(F68:G68),B68=C68),OR(AND(ISBLANK(A68)=FALSE,ISNA(VLOOKUP(A68,$M$3:$O$27,1,FALSE))),ISNA(VLOOKUP(B68,$M$3:$O$27,1,FALSE)),ISNA(VLOOKUP(C68,$M$3:$O$27,1,FALSE)),AND(ISBLANK(D68)=FALSE,ISNA(VLOOKUP(D68,$M$3:$O$27,1,FALSE))),OR(COUNTBLANK(A68:D68)=1,COUNTBLANK(A68:D68)=3))),"ERREUR","")</f>
         <v/>
       </c>
       <c r="L68" s="1"/>
@@ -4058,153 +4061,351 @@
       <c r="O85" s="1"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="A86" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F86" s="5">
+        <v>11</v>
+      </c>
+      <c r="G86" s="5">
+        <v>8</v>
+      </c>
+      <c r="H86" s="1">
+        <v>11</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J86" s="1"/>
-      <c r="K86" s="9"/>
+      <c r="K86" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="A87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F87" s="5">
+        <v>11</v>
+      </c>
+      <c r="G87" s="5">
+        <v>9</v>
+      </c>
+      <c r="H87" s="1">
+        <v>11</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J87" s="1"/>
-      <c r="K87" s="9"/>
+      <c r="K87" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="A88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F88" s="5">
+        <v>12</v>
+      </c>
+      <c r="G88" s="5">
+        <v>10</v>
+      </c>
+      <c r="H88" s="1">
+        <v>11</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J88" s="1"/>
-      <c r="K88" s="9"/>
+      <c r="K88" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="A89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F89" s="5">
+        <v>11</v>
+      </c>
+      <c r="G89" s="5">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1">
+        <v>11</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J89" s="1"/>
-      <c r="K89" s="9"/>
+      <c r="K89" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="A90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F90" s="5">
+        <v>12</v>
+      </c>
+      <c r="G90" s="5">
+        <v>10</v>
+      </c>
+      <c r="H90" s="1">
+        <v>11</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J90" s="1"/>
-      <c r="K90" s="9"/>
+      <c r="K90" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="A91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F91" s="5">
+        <v>11</v>
+      </c>
+      <c r="G91" s="5">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1">
+        <v>11</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J91" s="1"/>
-      <c r="K91" s="9"/>
+      <c r="K91" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="A92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F92" s="5">
+        <v>11</v>
+      </c>
+      <c r="G92" s="5">
+        <v>9</v>
+      </c>
+      <c r="H92" s="1">
+        <v>11</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J92" s="1"/>
-      <c r="K92" s="9"/>
+      <c r="K92" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="A93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F93" s="5">
+        <v>11</v>
+      </c>
+      <c r="G93" s="5">
+        <v>8</v>
+      </c>
+      <c r="H93" s="1">
+        <v>11</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J93" s="1"/>
-      <c r="K93" s="9"/>
+      <c r="K93" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="A94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F94" s="5">
+        <v>11</v>
+      </c>
+      <c r="G94" s="5">
+        <v>9</v>
+      </c>
+      <c r="H94" s="1">
+        <v>11</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J94" s="1"/>
-      <c r="K94" s="9"/>
+      <c r="K94" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
